--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E4A3F-859B-4F0C-9FF2-85832C3461D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28296C-2262-469B-B1E9-7933D04516D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2023-08</t>
-  </si>
-  <si>
     <t>1995-01:2023-08</t>
   </si>
   <si>
@@ -281,43 +278,40 @@
     <t>2009-01:2023-08</t>
   </si>
   <si>
-    <t>2009-03:2023-07</t>
-  </si>
-  <si>
-    <t>1995-01:2023-07</t>
-  </si>
-  <si>
-    <t>2015-04:2023-07</t>
-  </si>
-  <si>
-    <t>2008-09:2023-07</t>
-  </si>
-  <si>
-    <t>1989-01:2023-08</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>2023-09-23</t>
+    <t>1989-02:2023-09</t>
   </si>
   <si>
-    <t>2023-09-04</t>
+    <t>1995-01:2023-09</t>
   </si>
   <si>
-    <t>2023-09-05</t>
+    <t>2009-03:2023-08</t>
   </si>
   <si>
-    <t>2023-09-26</t>
+    <t>2015-04:2023-08</t>
   </si>
   <si>
-    <t>2023-09-07</t>
+    <t>2008-09:2023-08</t>
+  </si>
+  <si>
+    <t>2003-07:2023-09</t>
+  </si>
+  <si>
+    <t>1989-01:2023-09</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
   </si>
 </sst>
 </file>
@@ -325,8 +319,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -340,6 +334,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -369,6 +364,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -377,9 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA424"/>
+  <dimension ref="A1:AA425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="L426" sqref="L426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -743,588 +738,588 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="W8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="AA8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>32539</v>
       </c>
       <c r="B9" s="2">
@@ -1407,7 +1402,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>32567</v>
       </c>
       <c r="B10" s="2">
@@ -1490,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>32598</v>
       </c>
       <c r="B11" s="2">
@@ -1573,7 +1568,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>32628</v>
       </c>
       <c r="B12" s="2">
@@ -1656,7 +1651,7 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>32659</v>
       </c>
       <c r="B13" s="2">
@@ -1739,7 +1734,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>32689</v>
       </c>
       <c r="B14" s="2">
@@ -1822,7 +1817,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>32720</v>
       </c>
       <c r="B15" s="2">
@@ -1905,7 +1900,7 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>32751</v>
       </c>
       <c r="B16" s="2">
@@ -1988,7 +1983,7 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>32781</v>
       </c>
       <c r="B17" s="2">
@@ -2071,7 +2066,7 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>32812</v>
       </c>
       <c r="B18" s="2">
@@ -2154,7 +2149,7 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>32842</v>
       </c>
       <c r="B19" s="2">
@@ -2237,7 +2232,7 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>32873</v>
       </c>
       <c r="B20" s="2">
@@ -2320,7 +2315,7 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>32904</v>
       </c>
       <c r="B21" s="2">
@@ -2403,7 +2398,7 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>32932</v>
       </c>
       <c r="B22" s="2">
@@ -2486,7 +2481,7 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>32963</v>
       </c>
       <c r="B23" s="2">
@@ -2569,7 +2564,7 @@
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>32993</v>
       </c>
       <c r="B24" s="2">
@@ -2652,7 +2647,7 @@
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>33024</v>
       </c>
       <c r="B25" s="2">
@@ -2735,7 +2730,7 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>33054</v>
       </c>
       <c r="B26" s="2">
@@ -2818,7 +2813,7 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>33085</v>
       </c>
       <c r="B27" s="2">
@@ -2901,7 +2896,7 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>33116</v>
       </c>
       <c r="B28" s="2">
@@ -2984,7 +2979,7 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>33146</v>
       </c>
       <c r="B29" s="2">
@@ -3067,7 +3062,7 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>33177</v>
       </c>
       <c r="B30" s="2">
@@ -3150,7 +3145,7 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33207</v>
       </c>
       <c r="B31" s="2">
@@ -3233,7 +3228,7 @@
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>33238</v>
       </c>
       <c r="B32" s="2">
@@ -3316,7 +3311,7 @@
       </c>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>33269</v>
       </c>
       <c r="B33" s="2">
@@ -3399,7 +3394,7 @@
       </c>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>33297</v>
       </c>
       <c r="B34" s="2">
@@ -3482,7 +3477,7 @@
       </c>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>33328</v>
       </c>
       <c r="B35" s="2">
@@ -3565,7 +3560,7 @@
       </c>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>33358</v>
       </c>
       <c r="B36" s="2">
@@ -3648,7 +3643,7 @@
       </c>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>33389</v>
       </c>
       <c r="B37" s="2">
@@ -3731,7 +3726,7 @@
       </c>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>33419</v>
       </c>
       <c r="B38" s="2">
@@ -3814,7 +3809,7 @@
       </c>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>33450</v>
       </c>
       <c r="B39" s="2">
@@ -3897,7 +3892,7 @@
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>33481</v>
       </c>
       <c r="B40" s="2">
@@ -3980,7 +3975,7 @@
       </c>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>33511</v>
       </c>
       <c r="B41" s="2">
@@ -4063,7 +4058,7 @@
       </c>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>33542</v>
       </c>
       <c r="B42" s="2">
@@ -4146,7 +4141,7 @@
       </c>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>33572</v>
       </c>
       <c r="B43" s="2">
@@ -4229,7 +4224,7 @@
       </c>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>33603</v>
       </c>
       <c r="B44" s="2">
@@ -4312,7 +4307,7 @@
       </c>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>33634</v>
       </c>
       <c r="B45" s="2">
@@ -4395,7 +4390,7 @@
       </c>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>33663</v>
       </c>
       <c r="B46" s="2">
@@ -4478,7 +4473,7 @@
       </c>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>33694</v>
       </c>
       <c r="B47" s="2">
@@ -4561,7 +4556,7 @@
       </c>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>33724</v>
       </c>
       <c r="B48" s="2">
@@ -4644,7 +4639,7 @@
       </c>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>33755</v>
       </c>
       <c r="B49" s="2">
@@ -4727,7 +4722,7 @@
       </c>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>33785</v>
       </c>
       <c r="B50" s="2">
@@ -4810,7 +4805,7 @@
       </c>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>33816</v>
       </c>
       <c r="B51" s="2">
@@ -4893,7 +4888,7 @@
       </c>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>33847</v>
       </c>
       <c r="B52" s="2">
@@ -4976,7 +4971,7 @@
       </c>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>33877</v>
       </c>
       <c r="B53" s="2">
@@ -5059,7 +5054,7 @@
       </c>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>33908</v>
       </c>
       <c r="B54" s="2">
@@ -5142,7 +5137,7 @@
       </c>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>33938</v>
       </c>
       <c r="B55" s="2">
@@ -5225,7 +5220,7 @@
       </c>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>33969</v>
       </c>
       <c r="B56" s="2">
@@ -5308,7 +5303,7 @@
       </c>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>34000</v>
       </c>
       <c r="B57" s="2">
@@ -5391,7 +5386,7 @@
       </c>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>34028</v>
       </c>
       <c r="B58" s="2">
@@ -5474,7 +5469,7 @@
       </c>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>34059</v>
       </c>
       <c r="B59" s="2">
@@ -5557,7 +5552,7 @@
       </c>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>34089</v>
       </c>
       <c r="B60" s="2">
@@ -5640,7 +5635,7 @@
       </c>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>34120</v>
       </c>
       <c r="B61" s="2">
@@ -5723,7 +5718,7 @@
       </c>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>34150</v>
       </c>
       <c r="B62" s="2">
@@ -5806,7 +5801,7 @@
       </c>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>34181</v>
       </c>
       <c r="B63" s="2">
@@ -5889,7 +5884,7 @@
       </c>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>34212</v>
       </c>
       <c r="B64" s="2">
@@ -5972,7 +5967,7 @@
       </c>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>34242</v>
       </c>
       <c r="B65" s="2">
@@ -6055,7 +6050,7 @@
       </c>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>34273</v>
       </c>
       <c r="B66" s="2">
@@ -6138,7 +6133,7 @@
       </c>
     </row>
     <row r="67" spans="1:27">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>34303</v>
       </c>
       <c r="B67" s="2">
@@ -6221,7 +6216,7 @@
       </c>
     </row>
     <row r="68" spans="1:27">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>34334</v>
       </c>
       <c r="B68" s="2">
@@ -6304,7 +6299,7 @@
       </c>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>34365</v>
       </c>
       <c r="B69" s="2">
@@ -6387,7 +6382,7 @@
       </c>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>34393</v>
       </c>
       <c r="B70" s="2">
@@ -6470,7 +6465,7 @@
       </c>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>34424</v>
       </c>
       <c r="B71" s="2">
@@ -6553,7 +6548,7 @@
       </c>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>34454</v>
       </c>
       <c r="B72" s="2">
@@ -6636,7 +6631,7 @@
       </c>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>34485</v>
       </c>
       <c r="B73" s="2">
@@ -6719,7 +6714,7 @@
       </c>
     </row>
     <row r="74" spans="1:27">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>34515</v>
       </c>
       <c r="B74" s="2">
@@ -6802,7 +6797,7 @@
       </c>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>34546</v>
       </c>
       <c r="B75" s="2">
@@ -6885,7 +6880,7 @@
       </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>34577</v>
       </c>
       <c r="B76" s="2">
@@ -6968,7 +6963,7 @@
       </c>
     </row>
     <row r="77" spans="1:27">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>34607</v>
       </c>
       <c r="B77" s="2">
@@ -7051,7 +7046,7 @@
       </c>
     </row>
     <row r="78" spans="1:27">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>34638</v>
       </c>
       <c r="B78" s="2">
@@ -7134,7 +7129,7 @@
       </c>
     </row>
     <row r="79" spans="1:27">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>34668</v>
       </c>
       <c r="B79" s="2">
@@ -7217,7 +7212,7 @@
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>34699</v>
       </c>
       <c r="B80" s="2">
@@ -7300,7 +7295,7 @@
       </c>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>34730</v>
       </c>
       <c r="B81" s="2">
@@ -7383,7 +7378,7 @@
       </c>
     </row>
     <row r="82" spans="1:27">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>34758</v>
       </c>
       <c r="B82" s="2">
@@ -7466,7 +7461,7 @@
       </c>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>34789</v>
       </c>
       <c r="B83" s="2">
@@ -7549,7 +7544,7 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>34819</v>
       </c>
       <c r="B84" s="2">
@@ -7632,7 +7627,7 @@
       </c>
     </row>
     <row r="85" spans="1:27">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>34850</v>
       </c>
       <c r="B85" s="2">
@@ -7715,7 +7710,7 @@
       </c>
     </row>
     <row r="86" spans="1:27">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>34880</v>
       </c>
       <c r="B86" s="2">
@@ -7798,7 +7793,7 @@
       </c>
     </row>
     <row r="87" spans="1:27">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>34911</v>
       </c>
       <c r="B87" s="2">
@@ -7881,7 +7876,7 @@
       </c>
     </row>
     <row r="88" spans="1:27">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>34942</v>
       </c>
       <c r="B88" s="2">
@@ -7964,7 +7959,7 @@
       </c>
     </row>
     <row r="89" spans="1:27">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>34972</v>
       </c>
       <c r="B89" s="2">
@@ -8047,7 +8042,7 @@
       </c>
     </row>
     <row r="90" spans="1:27">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>35003</v>
       </c>
       <c r="B90" s="2">
@@ -8130,7 +8125,7 @@
       </c>
     </row>
     <row r="91" spans="1:27">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>35033</v>
       </c>
       <c r="B91" s="2">
@@ -8213,7 +8208,7 @@
       </c>
     </row>
     <row r="92" spans="1:27">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>35064</v>
       </c>
       <c r="B92" s="2">
@@ -8296,7 +8291,7 @@
       </c>
     </row>
     <row r="93" spans="1:27">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>35095</v>
       </c>
       <c r="B93" s="2">
@@ -8379,7 +8374,7 @@
       </c>
     </row>
     <row r="94" spans="1:27">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>35124</v>
       </c>
       <c r="B94" s="2">
@@ -8462,7 +8457,7 @@
       </c>
     </row>
     <row r="95" spans="1:27">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>35155</v>
       </c>
       <c r="B95" s="2">
@@ -8545,7 +8540,7 @@
       </c>
     </row>
     <row r="96" spans="1:27">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>35185</v>
       </c>
       <c r="B96" s="2">
@@ -8628,7 +8623,7 @@
       </c>
     </row>
     <row r="97" spans="1:27">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>35216</v>
       </c>
       <c r="B97" s="2">
@@ -8711,7 +8706,7 @@
       </c>
     </row>
     <row r="98" spans="1:27">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>35246</v>
       </c>
       <c r="B98" s="2">
@@ -8794,7 +8789,7 @@
       </c>
     </row>
     <row r="99" spans="1:27">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>35277</v>
       </c>
       <c r="B99" s="2">
@@ -8877,7 +8872,7 @@
       </c>
     </row>
     <row r="100" spans="1:27">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>35308</v>
       </c>
       <c r="B100" s="2">
@@ -8960,7 +8955,7 @@
       </c>
     </row>
     <row r="101" spans="1:27">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>35338</v>
       </c>
       <c r="B101" s="2">
@@ -9043,7 +9038,7 @@
       </c>
     </row>
     <row r="102" spans="1:27">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>35369</v>
       </c>
       <c r="B102" s="2">
@@ -9126,7 +9121,7 @@
       </c>
     </row>
     <row r="103" spans="1:27">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>35399</v>
       </c>
       <c r="B103" s="2">
@@ -9209,7 +9204,7 @@
       </c>
     </row>
     <row r="104" spans="1:27">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>35430</v>
       </c>
       <c r="B104" s="2">
@@ -9292,7 +9287,7 @@
       </c>
     </row>
     <row r="105" spans="1:27">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>35461</v>
       </c>
       <c r="B105" s="2">
@@ -9375,7 +9370,7 @@
       </c>
     </row>
     <row r="106" spans="1:27">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>35489</v>
       </c>
       <c r="B106" s="2">
@@ -9458,7 +9453,7 @@
       </c>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>35520</v>
       </c>
       <c r="B107" s="2">
@@ -9541,7 +9536,7 @@
       </c>
     </row>
     <row r="108" spans="1:27">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>35550</v>
       </c>
       <c r="B108" s="2">
@@ -9624,7 +9619,7 @@
       </c>
     </row>
     <row r="109" spans="1:27">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>35581</v>
       </c>
       <c r="B109" s="2">
@@ -9707,7 +9702,7 @@
       </c>
     </row>
     <row r="110" spans="1:27">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>35611</v>
       </c>
       <c r="B110" s="2">
@@ -9790,7 +9785,7 @@
       </c>
     </row>
     <row r="111" spans="1:27">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>35642</v>
       </c>
       <c r="B111" s="2">
@@ -9873,7 +9868,7 @@
       </c>
     </row>
     <row r="112" spans="1:27">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>35673</v>
       </c>
       <c r="B112" s="2">
@@ -9956,7 +9951,7 @@
       </c>
     </row>
     <row r="113" spans="1:27">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>35703</v>
       </c>
       <c r="B113" s="2">
@@ -10039,7 +10034,7 @@
       </c>
     </row>
     <row r="114" spans="1:27">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>35734</v>
       </c>
       <c r="B114" s="2">
@@ -10122,7 +10117,7 @@
       </c>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>35764</v>
       </c>
       <c r="B115" s="2">
@@ -10205,7 +10200,7 @@
       </c>
     </row>
     <row r="116" spans="1:27">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>35795</v>
       </c>
       <c r="B116" s="2">
@@ -10288,7 +10283,7 @@
       </c>
     </row>
     <row r="117" spans="1:27">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>35826</v>
       </c>
       <c r="B117" s="2">
@@ -10371,7 +10366,7 @@
       </c>
     </row>
     <row r="118" spans="1:27">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>35854</v>
       </c>
       <c r="B118" s="2">
@@ -10454,7 +10449,7 @@
       </c>
     </row>
     <row r="119" spans="1:27">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>35885</v>
       </c>
       <c r="B119" s="2">
@@ -10537,7 +10532,7 @@
       </c>
     </row>
     <row r="120" spans="1:27">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>35915</v>
       </c>
       <c r="B120" s="2">
@@ -10620,7 +10615,7 @@
       </c>
     </row>
     <row r="121" spans="1:27">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>35946</v>
       </c>
       <c r="B121" s="2">
@@ -10703,7 +10698,7 @@
       </c>
     </row>
     <row r="122" spans="1:27">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>35976</v>
       </c>
       <c r="B122" s="2">
@@ -10786,7 +10781,7 @@
       </c>
     </row>
     <row r="123" spans="1:27">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>36007</v>
       </c>
       <c r="B123" s="2">
@@ -10869,7 +10864,7 @@
       </c>
     </row>
     <row r="124" spans="1:27">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>36038</v>
       </c>
       <c r="B124" s="2">
@@ -10952,7 +10947,7 @@
       </c>
     </row>
     <row r="125" spans="1:27">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>36068</v>
       </c>
       <c r="B125" s="2">
@@ -11035,7 +11030,7 @@
       </c>
     </row>
     <row r="126" spans="1:27">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>36099</v>
       </c>
       <c r="B126" s="2">
@@ -11118,7 +11113,7 @@
       </c>
     </row>
     <row r="127" spans="1:27">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>36129</v>
       </c>
       <c r="B127" s="2">
@@ -11201,7 +11196,7 @@
       </c>
     </row>
     <row r="128" spans="1:27">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>36160</v>
       </c>
       <c r="B128" s="2">
@@ -11284,7 +11279,7 @@
       </c>
     </row>
     <row r="129" spans="1:27">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>36191</v>
       </c>
       <c r="B129" s="2">
@@ -11367,7 +11362,7 @@
       </c>
     </row>
     <row r="130" spans="1:27">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>36219</v>
       </c>
       <c r="B130" s="2">
@@ -11450,7 +11445,7 @@
       </c>
     </row>
     <row r="131" spans="1:27">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>36250</v>
       </c>
       <c r="B131" s="2">
@@ -11533,7 +11528,7 @@
       </c>
     </row>
     <row r="132" spans="1:27">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>36280</v>
       </c>
       <c r="B132" s="2">
@@ -11616,7 +11611,7 @@
       </c>
     </row>
     <row r="133" spans="1:27">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>36311</v>
       </c>
       <c r="B133" s="2">
@@ -11699,7 +11694,7 @@
       </c>
     </row>
     <row r="134" spans="1:27">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>36341</v>
       </c>
       <c r="B134" s="2">
@@ -11782,7 +11777,7 @@
       </c>
     </row>
     <row r="135" spans="1:27">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>36372</v>
       </c>
       <c r="B135" s="2">
@@ -11865,7 +11860,7 @@
       </c>
     </row>
     <row r="136" spans="1:27">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>36403</v>
       </c>
       <c r="B136" s="2">
@@ -11948,7 +11943,7 @@
       </c>
     </row>
     <row r="137" spans="1:27">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>36433</v>
       </c>
       <c r="B137" s="2">
@@ -12031,7 +12026,7 @@
       </c>
     </row>
     <row r="138" spans="1:27">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>36464</v>
       </c>
       <c r="B138" s="2">
@@ -12114,7 +12109,7 @@
       </c>
     </row>
     <row r="139" spans="1:27">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>36494</v>
       </c>
       <c r="B139" s="2">
@@ -12197,7 +12192,7 @@
       </c>
     </row>
     <row r="140" spans="1:27">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>36525</v>
       </c>
       <c r="B140" s="2">
@@ -12280,7 +12275,7 @@
       </c>
     </row>
     <row r="141" spans="1:27">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>36556</v>
       </c>
       <c r="B141" s="2">
@@ -12363,7 +12358,7 @@
       </c>
     </row>
     <row r="142" spans="1:27">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>36585</v>
       </c>
       <c r="B142" s="2">
@@ -12446,7 +12441,7 @@
       </c>
     </row>
     <row r="143" spans="1:27">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>36616</v>
       </c>
       <c r="B143" s="2">
@@ -12529,7 +12524,7 @@
       </c>
     </row>
     <row r="144" spans="1:27">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>36646</v>
       </c>
       <c r="B144" s="2">
@@ -12612,7 +12607,7 @@
       </c>
     </row>
     <row r="145" spans="1:27">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>36677</v>
       </c>
       <c r="B145" s="2">
@@ -12695,7 +12690,7 @@
       </c>
     </row>
     <row r="146" spans="1:27">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>36707</v>
       </c>
       <c r="B146" s="2">
@@ -12778,7 +12773,7 @@
       </c>
     </row>
     <row r="147" spans="1:27">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>36738</v>
       </c>
       <c r="B147" s="2">
@@ -12861,7 +12856,7 @@
       </c>
     </row>
     <row r="148" spans="1:27">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>36769</v>
       </c>
       <c r="B148" s="2">
@@ -12944,7 +12939,7 @@
       </c>
     </row>
     <row r="149" spans="1:27">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>36799</v>
       </c>
       <c r="B149" s="2">
@@ -13027,7 +13022,7 @@
       </c>
     </row>
     <row r="150" spans="1:27">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>36830</v>
       </c>
       <c r="B150" s="2">
@@ -13110,7 +13105,7 @@
       </c>
     </row>
     <row r="151" spans="1:27">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>36860</v>
       </c>
       <c r="B151" s="2">
@@ -13193,7 +13188,7 @@
       </c>
     </row>
     <row r="152" spans="1:27">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>36891</v>
       </c>
       <c r="B152" s="2">
@@ -13276,7 +13271,7 @@
       </c>
     </row>
     <row r="153" spans="1:27">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>36922</v>
       </c>
       <c r="B153" s="2">
@@ -13359,7 +13354,7 @@
       </c>
     </row>
     <row r="154" spans="1:27">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>36950</v>
       </c>
       <c r="B154" s="2">
@@ -13442,7 +13437,7 @@
       </c>
     </row>
     <row r="155" spans="1:27">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>36981</v>
       </c>
       <c r="B155" s="2">
@@ -13525,7 +13520,7 @@
       </c>
     </row>
     <row r="156" spans="1:27">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>37011</v>
       </c>
       <c r="B156" s="2">
@@ -13608,7 +13603,7 @@
       </c>
     </row>
     <row r="157" spans="1:27">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>37042</v>
       </c>
       <c r="B157" s="2">
@@ -13691,7 +13686,7 @@
       </c>
     </row>
     <row r="158" spans="1:27">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>37072</v>
       </c>
       <c r="B158" s="2">
@@ -13774,7 +13769,7 @@
       </c>
     </row>
     <row r="159" spans="1:27">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>37103</v>
       </c>
       <c r="B159" s="2">
@@ -13857,7 +13852,7 @@
       </c>
     </row>
     <row r="160" spans="1:27">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>37134</v>
       </c>
       <c r="B160" s="2">
@@ -13940,7 +13935,7 @@
       </c>
     </row>
     <row r="161" spans="1:27">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>37164</v>
       </c>
       <c r="B161" s="2">
@@ -14023,7 +14018,7 @@
       </c>
     </row>
     <row r="162" spans="1:27">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>37195</v>
       </c>
       <c r="B162" s="2">
@@ -14106,7 +14101,7 @@
       </c>
     </row>
     <row r="163" spans="1:27">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>37225</v>
       </c>
       <c r="B163" s="2">
@@ -14189,7 +14184,7 @@
       </c>
     </row>
     <row r="164" spans="1:27">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>37256</v>
       </c>
       <c r="B164" s="2">
@@ -14272,7 +14267,7 @@
       </c>
     </row>
     <row r="165" spans="1:27">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>37287</v>
       </c>
       <c r="B165" s="2">
@@ -14355,7 +14350,7 @@
       </c>
     </row>
     <row r="166" spans="1:27">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>37315</v>
       </c>
       <c r="B166" s="2">
@@ -14438,7 +14433,7 @@
       </c>
     </row>
     <row r="167" spans="1:27">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>37346</v>
       </c>
       <c r="B167" s="2">
@@ -14521,7 +14516,7 @@
       </c>
     </row>
     <row r="168" spans="1:27">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>37376</v>
       </c>
       <c r="B168" s="2">
@@ -14604,7 +14599,7 @@
       </c>
     </row>
     <row r="169" spans="1:27">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>37407</v>
       </c>
       <c r="B169" s="2">
@@ -14687,7 +14682,7 @@
       </c>
     </row>
     <row r="170" spans="1:27">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>37437</v>
       </c>
       <c r="B170" s="2">
@@ -14770,7 +14765,7 @@
       </c>
     </row>
     <row r="171" spans="1:27">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>37468</v>
       </c>
       <c r="B171" s="2">
@@ -14853,7 +14848,7 @@
       </c>
     </row>
     <row r="172" spans="1:27">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>37499</v>
       </c>
       <c r="B172" s="2">
@@ -14936,7 +14931,7 @@
       </c>
     </row>
     <row r="173" spans="1:27">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>37529</v>
       </c>
       <c r="B173" s="2">
@@ -15019,7 +15014,7 @@
       </c>
     </row>
     <row r="174" spans="1:27">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>37560</v>
       </c>
       <c r="B174" s="2">
@@ -15102,7 +15097,7 @@
       </c>
     </row>
     <row r="175" spans="1:27">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>37590</v>
       </c>
       <c r="B175" s="2">
@@ -15185,7 +15180,7 @@
       </c>
     </row>
     <row r="176" spans="1:27">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>37621</v>
       </c>
       <c r="B176" s="2">
@@ -15268,7 +15263,7 @@
       </c>
     </row>
     <row r="177" spans="1:27">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>37652</v>
       </c>
       <c r="B177" s="2">
@@ -15351,7 +15346,7 @@
       </c>
     </row>
     <row r="178" spans="1:27">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>37680</v>
       </c>
       <c r="B178" s="2">
@@ -15434,7 +15429,7 @@
       </c>
     </row>
     <row r="179" spans="1:27">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>37711</v>
       </c>
       <c r="B179" s="2">
@@ -15517,7 +15512,7 @@
       </c>
     </row>
     <row r="180" spans="1:27">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>37741</v>
       </c>
       <c r="B180" s="2">
@@ -15600,7 +15595,7 @@
       </c>
     </row>
     <row r="181" spans="1:27">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>37772</v>
       </c>
       <c r="B181" s="2">
@@ -15683,7 +15678,7 @@
       </c>
     </row>
     <row r="182" spans="1:27">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>37802</v>
       </c>
       <c r="B182" s="2">
@@ -15766,7 +15761,7 @@
       </c>
     </row>
     <row r="183" spans="1:27">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>37833</v>
       </c>
       <c r="B183" s="2">
@@ -15849,7 +15844,7 @@
       </c>
     </row>
     <row r="184" spans="1:27">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>37864</v>
       </c>
       <c r="B184" s="2">
@@ -15932,7 +15927,7 @@
       </c>
     </row>
     <row r="185" spans="1:27">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>37894</v>
       </c>
       <c r="B185" s="2">
@@ -16015,7 +16010,7 @@
       </c>
     </row>
     <row r="186" spans="1:27">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>37925</v>
       </c>
       <c r="B186" s="2">
@@ -16098,7 +16093,7 @@
       </c>
     </row>
     <row r="187" spans="1:27">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>37955</v>
       </c>
       <c r="B187" s="2">
@@ -16181,7 +16176,7 @@
       </c>
     </row>
     <row r="188" spans="1:27">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>37986</v>
       </c>
       <c r="B188" s="2">
@@ -16264,7 +16259,7 @@
       </c>
     </row>
     <row r="189" spans="1:27">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>38017</v>
       </c>
       <c r="B189" s="2">
@@ -16347,7 +16342,7 @@
       </c>
     </row>
     <row r="190" spans="1:27">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>38046</v>
       </c>
       <c r="B190" s="2">
@@ -16430,7 +16425,7 @@
       </c>
     </row>
     <row r="191" spans="1:27">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>38077</v>
       </c>
       <c r="B191" s="2">
@@ -16513,7 +16508,7 @@
       </c>
     </row>
     <row r="192" spans="1:27">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>38107</v>
       </c>
       <c r="B192" s="2">
@@ -16596,7 +16591,7 @@
       </c>
     </row>
     <row r="193" spans="1:27">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>38138</v>
       </c>
       <c r="B193" s="2">
@@ -16679,7 +16674,7 @@
       </c>
     </row>
     <row r="194" spans="1:27">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>38168</v>
       </c>
       <c r="B194" s="2">
@@ -16762,7 +16757,7 @@
       </c>
     </row>
     <row r="195" spans="1:27">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>38199</v>
       </c>
       <c r="B195" s="2">
@@ -16845,7 +16840,7 @@
       </c>
     </row>
     <row r="196" spans="1:27">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>38230</v>
       </c>
       <c r="B196" s="2">
@@ -16928,7 +16923,7 @@
       </c>
     </row>
     <row r="197" spans="1:27">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>38260</v>
       </c>
       <c r="B197" s="2">
@@ -17011,7 +17006,7 @@
       </c>
     </row>
     <row r="198" spans="1:27">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>38291</v>
       </c>
       <c r="B198" s="2">
@@ -17094,7 +17089,7 @@
       </c>
     </row>
     <row r="199" spans="1:27">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>38321</v>
       </c>
       <c r="B199" s="2">
@@ -17177,7 +17172,7 @@
       </c>
     </row>
     <row r="200" spans="1:27">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>38352</v>
       </c>
       <c r="B200" s="2">
@@ -17260,7 +17255,7 @@
       </c>
     </row>
     <row r="201" spans="1:27">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>38383</v>
       </c>
       <c r="B201" s="2">
@@ -17343,7 +17338,7 @@
       </c>
     </row>
     <row r="202" spans="1:27">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>38411</v>
       </c>
       <c r="B202" s="2">
@@ -17426,7 +17421,7 @@
       </c>
     </row>
     <row r="203" spans="1:27">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>38442</v>
       </c>
       <c r="B203" s="2">
@@ -17509,7 +17504,7 @@
       </c>
     </row>
     <row r="204" spans="1:27">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>38472</v>
       </c>
       <c r="B204" s="2">
@@ -17592,7 +17587,7 @@
       </c>
     </row>
     <row r="205" spans="1:27">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>38503</v>
       </c>
       <c r="B205" s="2">
@@ -17675,7 +17670,7 @@
       </c>
     </row>
     <row r="206" spans="1:27">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>38533</v>
       </c>
       <c r="B206" s="2">
@@ -17758,7 +17753,7 @@
       </c>
     </row>
     <row r="207" spans="1:27">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>38564</v>
       </c>
       <c r="B207" s="2">
@@ -17841,7 +17836,7 @@
       </c>
     </row>
     <row r="208" spans="1:27">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>38595</v>
       </c>
       <c r="B208" s="2">
@@ -17924,7 +17919,7 @@
       </c>
     </row>
     <row r="209" spans="1:27">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>38625</v>
       </c>
       <c r="B209" s="2">
@@ -18007,7 +18002,7 @@
       </c>
     </row>
     <row r="210" spans="1:27">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>38656</v>
       </c>
       <c r="B210" s="2">
@@ -18090,7 +18085,7 @@
       </c>
     </row>
     <row r="211" spans="1:27">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>38686</v>
       </c>
       <c r="B211" s="2">
@@ -18173,7 +18168,7 @@
       </c>
     </row>
     <row r="212" spans="1:27">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>38717</v>
       </c>
       <c r="B212" s="2">
@@ -18256,7 +18251,7 @@
       </c>
     </row>
     <row r="213" spans="1:27">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>38748</v>
       </c>
       <c r="B213" s="2">
@@ -18339,7 +18334,7 @@
       </c>
     </row>
     <row r="214" spans="1:27">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>38776</v>
       </c>
       <c r="B214" s="2">
@@ -18422,7 +18417,7 @@
       </c>
     </row>
     <row r="215" spans="1:27">
-      <c r="A215" s="5">
+      <c r="A215" s="3">
         <v>38807</v>
       </c>
       <c r="B215" s="2">
@@ -18505,7 +18500,7 @@
       </c>
     </row>
     <row r="216" spans="1:27">
-      <c r="A216" s="5">
+      <c r="A216" s="3">
         <v>38837</v>
       </c>
       <c r="B216" s="2">
@@ -18588,7 +18583,7 @@
       </c>
     </row>
     <row r="217" spans="1:27">
-      <c r="A217" s="5">
+      <c r="A217" s="3">
         <v>38868</v>
       </c>
       <c r="B217" s="2">
@@ -18671,7 +18666,7 @@
       </c>
     </row>
     <row r="218" spans="1:27">
-      <c r="A218" s="5">
+      <c r="A218" s="3">
         <v>38898</v>
       </c>
       <c r="B218" s="2">
@@ -18754,7 +18749,7 @@
       </c>
     </row>
     <row r="219" spans="1:27">
-      <c r="A219" s="5">
+      <c r="A219" s="3">
         <v>38929</v>
       </c>
       <c r="B219" s="2">
@@ -18837,7 +18832,7 @@
       </c>
     </row>
     <row r="220" spans="1:27">
-      <c r="A220" s="5">
+      <c r="A220" s="3">
         <v>38960</v>
       </c>
       <c r="B220" s="2">
@@ -18920,7 +18915,7 @@
       </c>
     </row>
     <row r="221" spans="1:27">
-      <c r="A221" s="5">
+      <c r="A221" s="3">
         <v>38990</v>
       </c>
       <c r="B221" s="2">
@@ -19003,7 +18998,7 @@
       </c>
     </row>
     <row r="222" spans="1:27">
-      <c r="A222" s="5">
+      <c r="A222" s="3">
         <v>39021</v>
       </c>
       <c r="B222" s="2">
@@ -19086,7 +19081,7 @@
       </c>
     </row>
     <row r="223" spans="1:27">
-      <c r="A223" s="5">
+      <c r="A223" s="3">
         <v>39051</v>
       </c>
       <c r="B223" s="2">
@@ -19169,7 +19164,7 @@
       </c>
     </row>
     <row r="224" spans="1:27">
-      <c r="A224" s="5">
+      <c r="A224" s="3">
         <v>39082</v>
       </c>
       <c r="B224" s="2">
@@ -19252,7 +19247,7 @@
       </c>
     </row>
     <row r="225" spans="1:27">
-      <c r="A225" s="5">
+      <c r="A225" s="3">
         <v>39113</v>
       </c>
       <c r="B225" s="2">
@@ -19335,7 +19330,7 @@
       </c>
     </row>
     <row r="226" spans="1:27">
-      <c r="A226" s="5">
+      <c r="A226" s="3">
         <v>39141</v>
       </c>
       <c r="B226" s="2">
@@ -19418,7 +19413,7 @@
       </c>
     </row>
     <row r="227" spans="1:27">
-      <c r="A227" s="5">
+      <c r="A227" s="3">
         <v>39172</v>
       </c>
       <c r="B227" s="2">
@@ -19501,7 +19496,7 @@
       </c>
     </row>
     <row r="228" spans="1:27">
-      <c r="A228" s="5">
+      <c r="A228" s="3">
         <v>39202</v>
       </c>
       <c r="B228" s="2">
@@ -19584,7 +19579,7 @@
       </c>
     </row>
     <row r="229" spans="1:27">
-      <c r="A229" s="5">
+      <c r="A229" s="3">
         <v>39233</v>
       </c>
       <c r="B229" s="2">
@@ -19667,7 +19662,7 @@
       </c>
     </row>
     <row r="230" spans="1:27">
-      <c r="A230" s="5">
+      <c r="A230" s="3">
         <v>39263</v>
       </c>
       <c r="B230" s="2">
@@ -19750,7 +19745,7 @@
       </c>
     </row>
     <row r="231" spans="1:27">
-      <c r="A231" s="5">
+      <c r="A231" s="3">
         <v>39294</v>
       </c>
       <c r="B231" s="2">
@@ -19833,7 +19828,7 @@
       </c>
     </row>
     <row r="232" spans="1:27">
-      <c r="A232" s="5">
+      <c r="A232" s="3">
         <v>39325</v>
       </c>
       <c r="B232" s="2">
@@ -19916,7 +19911,7 @@
       </c>
     </row>
     <row r="233" spans="1:27">
-      <c r="A233" s="5">
+      <c r="A233" s="3">
         <v>39355</v>
       </c>
       <c r="B233" s="2">
@@ -19999,7 +19994,7 @@
       </c>
     </row>
     <row r="234" spans="1:27">
-      <c r="A234" s="5">
+      <c r="A234" s="3">
         <v>39386</v>
       </c>
       <c r="B234" s="2">
@@ -20082,7 +20077,7 @@
       </c>
     </row>
     <row r="235" spans="1:27">
-      <c r="A235" s="5">
+      <c r="A235" s="3">
         <v>39416</v>
       </c>
       <c r="B235" s="2">
@@ -20165,7 +20160,7 @@
       </c>
     </row>
     <row r="236" spans="1:27">
-      <c r="A236" s="5">
+      <c r="A236" s="3">
         <v>39447</v>
       </c>
       <c r="B236" s="2">
@@ -20248,7 +20243,7 @@
       </c>
     </row>
     <row r="237" spans="1:27">
-      <c r="A237" s="5">
+      <c r="A237" s="3">
         <v>39478</v>
       </c>
       <c r="B237" s="2">
@@ -20331,7 +20326,7 @@
       </c>
     </row>
     <row r="238" spans="1:27">
-      <c r="A238" s="5">
+      <c r="A238" s="3">
         <v>39507</v>
       </c>
       <c r="B238" s="2">
@@ -20414,7 +20409,7 @@
       </c>
     </row>
     <row r="239" spans="1:27">
-      <c r="A239" s="5">
+      <c r="A239" s="3">
         <v>39538</v>
       </c>
       <c r="B239" s="2">
@@ -20497,7 +20492,7 @@
       </c>
     </row>
     <row r="240" spans="1:27">
-      <c r="A240" s="5">
+      <c r="A240" s="3">
         <v>39568</v>
       </c>
       <c r="B240" s="2">
@@ -20580,7 +20575,7 @@
       </c>
     </row>
     <row r="241" spans="1:27">
-      <c r="A241" s="5">
+      <c r="A241" s="3">
         <v>39599</v>
       </c>
       <c r="B241" s="2">
@@ -20663,7 +20658,7 @@
       </c>
     </row>
     <row r="242" spans="1:27">
-      <c r="A242" s="5">
+      <c r="A242" s="3">
         <v>39629</v>
       </c>
       <c r="B242" s="2">
@@ -20746,7 +20741,7 @@
       </c>
     </row>
     <row r="243" spans="1:27">
-      <c r="A243" s="5">
+      <c r="A243" s="3">
         <v>39660</v>
       </c>
       <c r="B243" s="2">
@@ -20829,7 +20824,7 @@
       </c>
     </row>
     <row r="244" spans="1:27">
-      <c r="A244" s="5">
+      <c r="A244" s="3">
         <v>39691</v>
       </c>
       <c r="B244" s="2">
@@ -20912,7 +20907,7 @@
       </c>
     </row>
     <row r="245" spans="1:27">
-      <c r="A245" s="5">
+      <c r="A245" s="3">
         <v>39721</v>
       </c>
       <c r="B245" s="2">
@@ -20995,7 +20990,7 @@
       </c>
     </row>
     <row r="246" spans="1:27">
-      <c r="A246" s="5">
+      <c r="A246" s="3">
         <v>39752</v>
       </c>
       <c r="B246" s="2">
@@ -21078,7 +21073,7 @@
       </c>
     </row>
     <row r="247" spans="1:27">
-      <c r="A247" s="5">
+      <c r="A247" s="3">
         <v>39782</v>
       </c>
       <c r="B247" s="2">
@@ -21161,7 +21156,7 @@
       </c>
     </row>
     <row r="248" spans="1:27">
-      <c r="A248" s="5">
+      <c r="A248" s="3">
         <v>39813</v>
       </c>
       <c r="B248" s="2">
@@ -21244,7 +21239,7 @@
       </c>
     </row>
     <row r="249" spans="1:27">
-      <c r="A249" s="5">
+      <c r="A249" s="3">
         <v>39844</v>
       </c>
       <c r="B249" s="2">
@@ -21327,7 +21322,7 @@
       </c>
     </row>
     <row r="250" spans="1:27">
-      <c r="A250" s="5">
+      <c r="A250" s="3">
         <v>39872</v>
       </c>
       <c r="B250" s="2">
@@ -21410,7 +21405,7 @@
       </c>
     </row>
     <row r="251" spans="1:27">
-      <c r="A251" s="5">
+      <c r="A251" s="3">
         <v>39903</v>
       </c>
       <c r="B251" s="2">
@@ -21493,7 +21488,7 @@
       </c>
     </row>
     <row r="252" spans="1:27">
-      <c r="A252" s="5">
+      <c r="A252" s="3">
         <v>39933</v>
       </c>
       <c r="B252" s="2">
@@ -21576,7 +21571,7 @@
       </c>
     </row>
     <row r="253" spans="1:27">
-      <c r="A253" s="5">
+      <c r="A253" s="3">
         <v>39964</v>
       </c>
       <c r="B253" s="2">
@@ -21659,7 +21654,7 @@
       </c>
     </row>
     <row r="254" spans="1:27">
-      <c r="A254" s="5">
+      <c r="A254" s="3">
         <v>39994</v>
       </c>
       <c r="B254" s="2">
@@ -21742,7 +21737,7 @@
       </c>
     </row>
     <row r="255" spans="1:27">
-      <c r="A255" s="5">
+      <c r="A255" s="3">
         <v>40025</v>
       </c>
       <c r="B255" s="2">
@@ -21825,7 +21820,7 @@
       </c>
     </row>
     <row r="256" spans="1:27">
-      <c r="A256" s="5">
+      <c r="A256" s="3">
         <v>40056</v>
       </c>
       <c r="B256" s="2">
@@ -21908,7 +21903,7 @@
       </c>
     </row>
     <row r="257" spans="1:27">
-      <c r="A257" s="5">
+      <c r="A257" s="3">
         <v>40086</v>
       </c>
       <c r="B257" s="2">
@@ -21991,7 +21986,7 @@
       </c>
     </row>
     <row r="258" spans="1:27">
-      <c r="A258" s="5">
+      <c r="A258" s="3">
         <v>40117</v>
       </c>
       <c r="B258" s="2">
@@ -22074,7 +22069,7 @@
       </c>
     </row>
     <row r="259" spans="1:27">
-      <c r="A259" s="5">
+      <c r="A259" s="3">
         <v>40147</v>
       </c>
       <c r="B259" s="2">
@@ -22157,7 +22152,7 @@
       </c>
     </row>
     <row r="260" spans="1:27">
-      <c r="A260" s="5">
+      <c r="A260" s="3">
         <v>40178</v>
       </c>
       <c r="B260" s="2">
@@ -22240,7 +22235,7 @@
       </c>
     </row>
     <row r="261" spans="1:27">
-      <c r="A261" s="5">
+      <c r="A261" s="3">
         <v>40209</v>
       </c>
       <c r="B261" s="2">
@@ -22323,7 +22318,7 @@
       </c>
     </row>
     <row r="262" spans="1:27">
-      <c r="A262" s="5">
+      <c r="A262" s="3">
         <v>40237</v>
       </c>
       <c r="B262" s="2">
@@ -22406,7 +22401,7 @@
       </c>
     </row>
     <row r="263" spans="1:27">
-      <c r="A263" s="5">
+      <c r="A263" s="3">
         <v>40268</v>
       </c>
       <c r="B263" s="2">
@@ -22489,7 +22484,7 @@
       </c>
     </row>
     <row r="264" spans="1:27">
-      <c r="A264" s="5">
+      <c r="A264" s="3">
         <v>40298</v>
       </c>
       <c r="B264" s="2">
@@ -22572,7 +22567,7 @@
       </c>
     </row>
     <row r="265" spans="1:27">
-      <c r="A265" s="5">
+      <c r="A265" s="3">
         <v>40329</v>
       </c>
       <c r="B265" s="2">
@@ -22655,7 +22650,7 @@
       </c>
     </row>
     <row r="266" spans="1:27">
-      <c r="A266" s="5">
+      <c r="A266" s="3">
         <v>40359</v>
       </c>
       <c r="B266" s="2">
@@ -22738,7 +22733,7 @@
       </c>
     </row>
     <row r="267" spans="1:27">
-      <c r="A267" s="5">
+      <c r="A267" s="3">
         <v>40390</v>
       </c>
       <c r="B267" s="2">
@@ -22821,7 +22816,7 @@
       </c>
     </row>
     <row r="268" spans="1:27">
-      <c r="A268" s="5">
+      <c r="A268" s="3">
         <v>40421</v>
       </c>
       <c r="B268" s="2">
@@ -22904,7 +22899,7 @@
       </c>
     </row>
     <row r="269" spans="1:27">
-      <c r="A269" s="5">
+      <c r="A269" s="3">
         <v>40451</v>
       </c>
       <c r="B269" s="2">
@@ -22987,7 +22982,7 @@
       </c>
     </row>
     <row r="270" spans="1:27">
-      <c r="A270" s="5">
+      <c r="A270" s="3">
         <v>40482</v>
       </c>
       <c r="B270" s="2">
@@ -23070,7 +23065,7 @@
       </c>
     </row>
     <row r="271" spans="1:27">
-      <c r="A271" s="5">
+      <c r="A271" s="3">
         <v>40512</v>
       </c>
       <c r="B271" s="2">
@@ -23153,7 +23148,7 @@
       </c>
     </row>
     <row r="272" spans="1:27">
-      <c r="A272" s="5">
+      <c r="A272" s="3">
         <v>40543</v>
       </c>
       <c r="B272" s="2">
@@ -23236,7 +23231,7 @@
       </c>
     </row>
     <row r="273" spans="1:27">
-      <c r="A273" s="5">
+      <c r="A273" s="3">
         <v>40574</v>
       </c>
       <c r="B273" s="2">
@@ -23319,7 +23314,7 @@
       </c>
     </row>
     <row r="274" spans="1:27">
-      <c r="A274" s="5">
+      <c r="A274" s="3">
         <v>40602</v>
       </c>
       <c r="B274" s="2">
@@ -23402,7 +23397,7 @@
       </c>
     </row>
     <row r="275" spans="1:27">
-      <c r="A275" s="5">
+      <c r="A275" s="3">
         <v>40633</v>
       </c>
       <c r="B275" s="2">
@@ -23485,7 +23480,7 @@
       </c>
     </row>
     <row r="276" spans="1:27">
-      <c r="A276" s="5">
+      <c r="A276" s="3">
         <v>40663</v>
       </c>
       <c r="B276" s="2">
@@ -23568,7 +23563,7 @@
       </c>
     </row>
     <row r="277" spans="1:27">
-      <c r="A277" s="5">
+      <c r="A277" s="3">
         <v>40694</v>
       </c>
       <c r="B277" s="2">
@@ -23651,7 +23646,7 @@
       </c>
     </row>
     <row r="278" spans="1:27">
-      <c r="A278" s="5">
+      <c r="A278" s="3">
         <v>40724</v>
       </c>
       <c r="B278" s="2">
@@ -23734,7 +23729,7 @@
       </c>
     </row>
     <row r="279" spans="1:27">
-      <c r="A279" s="5">
+      <c r="A279" s="3">
         <v>40755</v>
       </c>
       <c r="B279" s="2">
@@ -23817,7 +23812,7 @@
       </c>
     </row>
     <row r="280" spans="1:27">
-      <c r="A280" s="5">
+      <c r="A280" s="3">
         <v>40786</v>
       </c>
       <c r="B280" s="2">
@@ -23900,7 +23895,7 @@
       </c>
     </row>
     <row r="281" spans="1:27">
-      <c r="A281" s="5">
+      <c r="A281" s="3">
         <v>40816</v>
       </c>
       <c r="B281" s="2">
@@ -23983,7 +23978,7 @@
       </c>
     </row>
     <row r="282" spans="1:27">
-      <c r="A282" s="5">
+      <c r="A282" s="3">
         <v>40847</v>
       </c>
       <c r="B282" s="2">
@@ -24066,7 +24061,7 @@
       </c>
     </row>
     <row r="283" spans="1:27">
-      <c r="A283" s="5">
+      <c r="A283" s="3">
         <v>40877</v>
       </c>
       <c r="B283" s="2">
@@ -24149,7 +24144,7 @@
       </c>
     </row>
     <row r="284" spans="1:27">
-      <c r="A284" s="5">
+      <c r="A284" s="3">
         <v>40908</v>
       </c>
       <c r="B284" s="2">
@@ -24232,7 +24227,7 @@
       </c>
     </row>
     <row r="285" spans="1:27">
-      <c r="A285" s="5">
+      <c r="A285" s="3">
         <v>40939</v>
       </c>
       <c r="B285" s="2">
@@ -24315,7 +24310,7 @@
       </c>
     </row>
     <row r="286" spans="1:27">
-      <c r="A286" s="5">
+      <c r="A286" s="3">
         <v>40968</v>
       </c>
       <c r="B286" s="2">
@@ -24398,7 +24393,7 @@
       </c>
     </row>
     <row r="287" spans="1:27">
-      <c r="A287" s="5">
+      <c r="A287" s="3">
         <v>40999</v>
       </c>
       <c r="B287" s="2">
@@ -24481,7 +24476,7 @@
       </c>
     </row>
     <row r="288" spans="1:27">
-      <c r="A288" s="5">
+      <c r="A288" s="3">
         <v>41029</v>
       </c>
       <c r="B288" s="2">
@@ -24564,7 +24559,7 @@
       </c>
     </row>
     <row r="289" spans="1:27">
-      <c r="A289" s="5">
+      <c r="A289" s="3">
         <v>41060</v>
       </c>
       <c r="B289" s="2">
@@ -24647,7 +24642,7 @@
       </c>
     </row>
     <row r="290" spans="1:27">
-      <c r="A290" s="5">
+      <c r="A290" s="3">
         <v>41090</v>
       </c>
       <c r="B290" s="2">
@@ -24730,7 +24725,7 @@
       </c>
     </row>
     <row r="291" spans="1:27">
-      <c r="A291" s="5">
+      <c r="A291" s="3">
         <v>41121</v>
       </c>
       <c r="B291" s="2">
@@ -24813,7 +24808,7 @@
       </c>
     </row>
     <row r="292" spans="1:27">
-      <c r="A292" s="5">
+      <c r="A292" s="3">
         <v>41152</v>
       </c>
       <c r="B292" s="2">
@@ -24896,7 +24891,7 @@
       </c>
     </row>
     <row r="293" spans="1:27">
-      <c r="A293" s="5">
+      <c r="A293" s="3">
         <v>41182</v>
       </c>
       <c r="B293" s="2">
@@ -24979,7 +24974,7 @@
       </c>
     </row>
     <row r="294" spans="1:27">
-      <c r="A294" s="5">
+      <c r="A294" s="3">
         <v>41213</v>
       </c>
       <c r="B294" s="2">
@@ -25062,7 +25057,7 @@
       </c>
     </row>
     <row r="295" spans="1:27">
-      <c r="A295" s="5">
+      <c r="A295" s="3">
         <v>41243</v>
       </c>
       <c r="B295" s="2">
@@ -25145,7 +25140,7 @@
       </c>
     </row>
     <row r="296" spans="1:27">
-      <c r="A296" s="5">
+      <c r="A296" s="3">
         <v>41274</v>
       </c>
       <c r="B296" s="2">
@@ -25228,7 +25223,7 @@
       </c>
     </row>
     <row r="297" spans="1:27">
-      <c r="A297" s="5">
+      <c r="A297" s="3">
         <v>41305</v>
       </c>
       <c r="B297" s="2">
@@ -25311,7 +25306,7 @@
       </c>
     </row>
     <row r="298" spans="1:27">
-      <c r="A298" s="5">
+      <c r="A298" s="3">
         <v>41333</v>
       </c>
       <c r="B298" s="2">
@@ -25394,7 +25389,7 @@
       </c>
     </row>
     <row r="299" spans="1:27">
-      <c r="A299" s="5">
+      <c r="A299" s="3">
         <v>41364</v>
       </c>
       <c r="B299" s="2">
@@ -25477,7 +25472,7 @@
       </c>
     </row>
     <row r="300" spans="1:27">
-      <c r="A300" s="5">
+      <c r="A300" s="3">
         <v>41394</v>
       </c>
       <c r="B300" s="2">
@@ -25560,7 +25555,7 @@
       </c>
     </row>
     <row r="301" spans="1:27">
-      <c r="A301" s="5">
+      <c r="A301" s="3">
         <v>41425</v>
       </c>
       <c r="B301" s="2">
@@ -25643,7 +25638,7 @@
       </c>
     </row>
     <row r="302" spans="1:27">
-      <c r="A302" s="5">
+      <c r="A302" s="3">
         <v>41455</v>
       </c>
       <c r="B302" s="2">
@@ -25726,7 +25721,7 @@
       </c>
     </row>
     <row r="303" spans="1:27">
-      <c r="A303" s="5">
+      <c r="A303" s="3">
         <v>41486</v>
       </c>
       <c r="B303" s="2">
@@ -25809,7 +25804,7 @@
       </c>
     </row>
     <row r="304" spans="1:27">
-      <c r="A304" s="5">
+      <c r="A304" s="3">
         <v>41517</v>
       </c>
       <c r="B304" s="2">
@@ -25892,7 +25887,7 @@
       </c>
     </row>
     <row r="305" spans="1:27">
-      <c r="A305" s="5">
+      <c r="A305" s="3">
         <v>41547</v>
       </c>
       <c r="B305" s="2">
@@ -25975,7 +25970,7 @@
       </c>
     </row>
     <row r="306" spans="1:27">
-      <c r="A306" s="5">
+      <c r="A306" s="3">
         <v>41578</v>
       </c>
       <c r="B306" s="2">
@@ -26058,7 +26053,7 @@
       </c>
     </row>
     <row r="307" spans="1:27">
-      <c r="A307" s="5">
+      <c r="A307" s="3">
         <v>41608</v>
       </c>
       <c r="B307" s="2">
@@ -26141,7 +26136,7 @@
       </c>
     </row>
     <row r="308" spans="1:27">
-      <c r="A308" s="5">
+      <c r="A308" s="3">
         <v>41639</v>
       </c>
       <c r="B308" s="2">
@@ -26224,7 +26219,7 @@
       </c>
     </row>
     <row r="309" spans="1:27">
-      <c r="A309" s="5">
+      <c r="A309" s="3">
         <v>41670</v>
       </c>
       <c r="B309" s="2">
@@ -26307,7 +26302,7 @@
       </c>
     </row>
     <row r="310" spans="1:27">
-      <c r="A310" s="5">
+      <c r="A310" s="3">
         <v>41698</v>
       </c>
       <c r="B310" s="2">
@@ -26390,7 +26385,7 @@
       </c>
     </row>
     <row r="311" spans="1:27">
-      <c r="A311" s="5">
+      <c r="A311" s="3">
         <v>41729</v>
       </c>
       <c r="B311" s="2">
@@ -26473,7 +26468,7 @@
       </c>
     </row>
     <row r="312" spans="1:27">
-      <c r="A312" s="5">
+      <c r="A312" s="3">
         <v>41759</v>
       </c>
       <c r="B312" s="2">
@@ -26556,7 +26551,7 @@
       </c>
     </row>
     <row r="313" spans="1:27">
-      <c r="A313" s="5">
+      <c r="A313" s="3">
         <v>41790</v>
       </c>
       <c r="B313" s="2">
@@ -26639,7 +26634,7 @@
       </c>
     </row>
     <row r="314" spans="1:27">
-      <c r="A314" s="5">
+      <c r="A314" s="3">
         <v>41820</v>
       </c>
       <c r="B314" s="2">
@@ -26722,7 +26717,7 @@
       </c>
     </row>
     <row r="315" spans="1:27">
-      <c r="A315" s="5">
+      <c r="A315" s="3">
         <v>41851</v>
       </c>
       <c r="B315" s="2">
@@ -26805,7 +26800,7 @@
       </c>
     </row>
     <row r="316" spans="1:27">
-      <c r="A316" s="5">
+      <c r="A316" s="3">
         <v>41882</v>
       </c>
       <c r="B316" s="2">
@@ -26888,7 +26883,7 @@
       </c>
     </row>
     <row r="317" spans="1:27">
-      <c r="A317" s="5">
+      <c r="A317" s="3">
         <v>41912</v>
       </c>
       <c r="B317" s="2">
@@ -26971,7 +26966,7 @@
       </c>
     </row>
     <row r="318" spans="1:27">
-      <c r="A318" s="5">
+      <c r="A318" s="3">
         <v>41943</v>
       </c>
       <c r="B318" s="2">
@@ -27054,7 +27049,7 @@
       </c>
     </row>
     <row r="319" spans="1:27">
-      <c r="A319" s="5">
+      <c r="A319" s="3">
         <v>41973</v>
       </c>
       <c r="B319" s="2">
@@ -27137,7 +27132,7 @@
       </c>
     </row>
     <row r="320" spans="1:27">
-      <c r="A320" s="5">
+      <c r="A320" s="3">
         <v>42004</v>
       </c>
       <c r="B320" s="2">
@@ -27220,7 +27215,7 @@
       </c>
     </row>
     <row r="321" spans="1:27">
-      <c r="A321" s="5">
+      <c r="A321" s="3">
         <v>42035</v>
       </c>
       <c r="B321" s="2">
@@ -27303,7 +27298,7 @@
       </c>
     </row>
     <row r="322" spans="1:27">
-      <c r="A322" s="5">
+      <c r="A322" s="3">
         <v>42063</v>
       </c>
       <c r="B322" s="2">
@@ -27386,7 +27381,7 @@
       </c>
     </row>
     <row r="323" spans="1:27">
-      <c r="A323" s="5">
+      <c r="A323" s="3">
         <v>42094</v>
       </c>
       <c r="B323" s="2">
@@ -27469,7 +27464,7 @@
       </c>
     </row>
     <row r="324" spans="1:27">
-      <c r="A324" s="5">
+      <c r="A324" s="3">
         <v>42124</v>
       </c>
       <c r="B324" s="2">
@@ -27552,7 +27547,7 @@
       </c>
     </row>
     <row r="325" spans="1:27">
-      <c r="A325" s="5">
+      <c r="A325" s="3">
         <v>42155</v>
       </c>
       <c r="B325" s="2">
@@ -27635,7 +27630,7 @@
       </c>
     </row>
     <row r="326" spans="1:27">
-      <c r="A326" s="5">
+      <c r="A326" s="3">
         <v>42185</v>
       </c>
       <c r="B326" s="2">
@@ -27718,7 +27713,7 @@
       </c>
     </row>
     <row r="327" spans="1:27">
-      <c r="A327" s="5">
+      <c r="A327" s="3">
         <v>42216</v>
       </c>
       <c r="B327" s="2">
@@ -27801,7 +27796,7 @@
       </c>
     </row>
     <row r="328" spans="1:27">
-      <c r="A328" s="5">
+      <c r="A328" s="3">
         <v>42247</v>
       </c>
       <c r="B328" s="2">
@@ -27884,7 +27879,7 @@
       </c>
     </row>
     <row r="329" spans="1:27">
-      <c r="A329" s="5">
+      <c r="A329" s="3">
         <v>42277</v>
       </c>
       <c r="B329" s="2">
@@ -27967,7 +27962,7 @@
       </c>
     </row>
     <row r="330" spans="1:27">
-      <c r="A330" s="5">
+      <c r="A330" s="3">
         <v>42308</v>
       </c>
       <c r="B330" s="2">
@@ -28050,7 +28045,7 @@
       </c>
     </row>
     <row r="331" spans="1:27">
-      <c r="A331" s="5">
+      <c r="A331" s="3">
         <v>42338</v>
       </c>
       <c r="B331" s="2">
@@ -28133,7 +28128,7 @@
       </c>
     </row>
     <row r="332" spans="1:27">
-      <c r="A332" s="5">
+      <c r="A332" s="3">
         <v>42369</v>
       </c>
       <c r="B332" s="2">
@@ -28216,7 +28211,7 @@
       </c>
     </row>
     <row r="333" spans="1:27">
-      <c r="A333" s="5">
+      <c r="A333" s="3">
         <v>42400</v>
       </c>
       <c r="B333" s="2">
@@ -28299,7 +28294,7 @@
       </c>
     </row>
     <row r="334" spans="1:27">
-      <c r="A334" s="5">
+      <c r="A334" s="3">
         <v>42429</v>
       </c>
       <c r="B334" s="2">
@@ -28382,7 +28377,7 @@
       </c>
     </row>
     <row r="335" spans="1:27">
-      <c r="A335" s="5">
+      <c r="A335" s="3">
         <v>42460</v>
       </c>
       <c r="B335" s="2">
@@ -28465,7 +28460,7 @@
       </c>
     </row>
     <row r="336" spans="1:27">
-      <c r="A336" s="5">
+      <c r="A336" s="3">
         <v>42490</v>
       </c>
       <c r="B336" s="2">
@@ -28548,7 +28543,7 @@
       </c>
     </row>
     <row r="337" spans="1:27">
-      <c r="A337" s="5">
+      <c r="A337" s="3">
         <v>42521</v>
       </c>
       <c r="B337" s="2">
@@ -28631,7 +28626,7 @@
       </c>
     </row>
     <row r="338" spans="1:27">
-      <c r="A338" s="5">
+      <c r="A338" s="3">
         <v>42551</v>
       </c>
       <c r="B338" s="2">
@@ -28714,7 +28709,7 @@
       </c>
     </row>
     <row r="339" spans="1:27">
-      <c r="A339" s="5">
+      <c r="A339" s="3">
         <v>42582</v>
       </c>
       <c r="B339" s="2">
@@ -28797,7 +28792,7 @@
       </c>
     </row>
     <row r="340" spans="1:27">
-      <c r="A340" s="5">
+      <c r="A340" s="3">
         <v>42613</v>
       </c>
       <c r="B340" s="2">
@@ -28880,7 +28875,7 @@
       </c>
     </row>
     <row r="341" spans="1:27">
-      <c r="A341" s="5">
+      <c r="A341" s="3">
         <v>42643</v>
       </c>
       <c r="B341" s="2">
@@ -28963,7 +28958,7 @@
       </c>
     </row>
     <row r="342" spans="1:27">
-      <c r="A342" s="5">
+      <c r="A342" s="3">
         <v>42674</v>
       </c>
       <c r="B342" s="2">
@@ -29046,7 +29041,7 @@
       </c>
     </row>
     <row r="343" spans="1:27">
-      <c r="A343" s="5">
+      <c r="A343" s="3">
         <v>42704</v>
       </c>
       <c r="B343" s="2">
@@ -29129,7 +29124,7 @@
       </c>
     </row>
     <row r="344" spans="1:27">
-      <c r="A344" s="5">
+      <c r="A344" s="3">
         <v>42735</v>
       </c>
       <c r="B344" s="2">
@@ -29212,7 +29207,7 @@
       </c>
     </row>
     <row r="345" spans="1:27">
-      <c r="A345" s="5">
+      <c r="A345" s="3">
         <v>42766</v>
       </c>
       <c r="B345" s="2">
@@ -29295,7 +29290,7 @@
       </c>
     </row>
     <row r="346" spans="1:27">
-      <c r="A346" s="5">
+      <c r="A346" s="3">
         <v>42794</v>
       </c>
       <c r="B346" s="2">
@@ -29378,7 +29373,7 @@
       </c>
     </row>
     <row r="347" spans="1:27">
-      <c r="A347" s="5">
+      <c r="A347" s="3">
         <v>42825</v>
       </c>
       <c r="B347" s="2">
@@ -29461,7 +29456,7 @@
       </c>
     </row>
     <row r="348" spans="1:27">
-      <c r="A348" s="5">
+      <c r="A348" s="3">
         <v>42855</v>
       </c>
       <c r="B348" s="2">
@@ -29544,7 +29539,7 @@
       </c>
     </row>
     <row r="349" spans="1:27">
-      <c r="A349" s="5">
+      <c r="A349" s="3">
         <v>42886</v>
       </c>
       <c r="B349" s="2">
@@ -29627,7 +29622,7 @@
       </c>
     </row>
     <row r="350" spans="1:27">
-      <c r="A350" s="5">
+      <c r="A350" s="3">
         <v>42916</v>
       </c>
       <c r="B350" s="2">
@@ -29710,7 +29705,7 @@
       </c>
     </row>
     <row r="351" spans="1:27">
-      <c r="A351" s="5">
+      <c r="A351" s="3">
         <v>42947</v>
       </c>
       <c r="B351" s="2">
@@ -29793,7 +29788,7 @@
       </c>
     </row>
     <row r="352" spans="1:27">
-      <c r="A352" s="5">
+      <c r="A352" s="3">
         <v>42978</v>
       </c>
       <c r="B352" s="2">
@@ -29876,7 +29871,7 @@
       </c>
     </row>
     <row r="353" spans="1:27">
-      <c r="A353" s="5">
+      <c r="A353" s="3">
         <v>43008</v>
       </c>
       <c r="B353" s="2">
@@ -29959,7 +29954,7 @@
       </c>
     </row>
     <row r="354" spans="1:27">
-      <c r="A354" s="5">
+      <c r="A354" s="3">
         <v>43039</v>
       </c>
       <c r="B354" s="2">
@@ -30042,7 +30037,7 @@
       </c>
     </row>
     <row r="355" spans="1:27">
-      <c r="A355" s="5">
+      <c r="A355" s="3">
         <v>43069</v>
       </c>
       <c r="B355" s="2">
@@ -30125,7 +30120,7 @@
       </c>
     </row>
     <row r="356" spans="1:27">
-      <c r="A356" s="5">
+      <c r="A356" s="3">
         <v>43100</v>
       </c>
       <c r="B356" s="2">
@@ -30208,7 +30203,7 @@
       </c>
     </row>
     <row r="357" spans="1:27">
-      <c r="A357" s="5">
+      <c r="A357" s="3">
         <v>43131</v>
       </c>
       <c r="B357" s="2">
@@ -30291,7 +30286,7 @@
       </c>
     </row>
     <row r="358" spans="1:27">
-      <c r="A358" s="5">
+      <c r="A358" s="3">
         <v>43159</v>
       </c>
       <c r="B358" s="2">
@@ -30374,7 +30369,7 @@
       </c>
     </row>
     <row r="359" spans="1:27">
-      <c r="A359" s="5">
+      <c r="A359" s="3">
         <v>43190</v>
       </c>
       <c r="B359" s="2">
@@ -30457,7 +30452,7 @@
       </c>
     </row>
     <row r="360" spans="1:27">
-      <c r="A360" s="5">
+      <c r="A360" s="3">
         <v>43220</v>
       </c>
       <c r="B360" s="2">
@@ -30540,7 +30535,7 @@
       </c>
     </row>
     <row r="361" spans="1:27">
-      <c r="A361" s="5">
+      <c r="A361" s="3">
         <v>43251</v>
       </c>
       <c r="B361" s="2">
@@ -30623,7 +30618,7 @@
       </c>
     </row>
     <row r="362" spans="1:27">
-      <c r="A362" s="5">
+      <c r="A362" s="3">
         <v>43281</v>
       </c>
       <c r="B362" s="2">
@@ -30706,7 +30701,7 @@
       </c>
     </row>
     <row r="363" spans="1:27">
-      <c r="A363" s="5">
+      <c r="A363" s="3">
         <v>43312</v>
       </c>
       <c r="B363" s="2">
@@ -30789,7 +30784,7 @@
       </c>
     </row>
     <row r="364" spans="1:27">
-      <c r="A364" s="5">
+      <c r="A364" s="3">
         <v>43343</v>
       </c>
       <c r="B364" s="2">
@@ -30872,7 +30867,7 @@
       </c>
     </row>
     <row r="365" spans="1:27">
-      <c r="A365" s="5">
+      <c r="A365" s="3">
         <v>43373</v>
       </c>
       <c r="B365" s="2">
@@ -30955,7 +30950,7 @@
       </c>
     </row>
     <row r="366" spans="1:27">
-      <c r="A366" s="5">
+      <c r="A366" s="3">
         <v>43404</v>
       </c>
       <c r="B366" s="2">
@@ -31038,7 +31033,7 @@
       </c>
     </row>
     <row r="367" spans="1:27">
-      <c r="A367" s="5">
+      <c r="A367" s="3">
         <v>43434</v>
       </c>
       <c r="B367" s="2">
@@ -31121,7 +31116,7 @@
       </c>
     </row>
     <row r="368" spans="1:27">
-      <c r="A368" s="5">
+      <c r="A368" s="3">
         <v>43465</v>
       </c>
       <c r="B368" s="2">
@@ -31204,7 +31199,7 @@
       </c>
     </row>
     <row r="369" spans="1:27">
-      <c r="A369" s="5">
+      <c r="A369" s="3">
         <v>43496</v>
       </c>
       <c r="B369" s="2">
@@ -31287,7 +31282,7 @@
       </c>
     </row>
     <row r="370" spans="1:27">
-      <c r="A370" s="5">
+      <c r="A370" s="3">
         <v>43524</v>
       </c>
       <c r="B370" s="2">
@@ -31370,7 +31365,7 @@
       </c>
     </row>
     <row r="371" spans="1:27">
-      <c r="A371" s="5">
+      <c r="A371" s="3">
         <v>43555</v>
       </c>
       <c r="B371" s="2">
@@ -31453,7 +31448,7 @@
       </c>
     </row>
     <row r="372" spans="1:27">
-      <c r="A372" s="5">
+      <c r="A372" s="3">
         <v>43585</v>
       </c>
       <c r="B372" s="2">
@@ -31536,7 +31531,7 @@
       </c>
     </row>
     <row r="373" spans="1:27">
-      <c r="A373" s="5">
+      <c r="A373" s="3">
         <v>43616</v>
       </c>
       <c r="B373" s="2">
@@ -31619,7 +31614,7 @@
       </c>
     </row>
     <row r="374" spans="1:27">
-      <c r="A374" s="5">
+      <c r="A374" s="3">
         <v>43646</v>
       </c>
       <c r="B374" s="2">
@@ -31702,7 +31697,7 @@
       </c>
     </row>
     <row r="375" spans="1:27">
-      <c r="A375" s="5">
+      <c r="A375" s="3">
         <v>43677</v>
       </c>
       <c r="B375" s="2">
@@ -31785,7 +31780,7 @@
       </c>
     </row>
     <row r="376" spans="1:27">
-      <c r="A376" s="5">
+      <c r="A376" s="3">
         <v>43708</v>
       </c>
       <c r="B376" s="2">
@@ -31868,7 +31863,7 @@
       </c>
     </row>
     <row r="377" spans="1:27">
-      <c r="A377" s="5">
+      <c r="A377" s="3">
         <v>43738</v>
       </c>
       <c r="B377" s="2">
@@ -31951,7 +31946,7 @@
       </c>
     </row>
     <row r="378" spans="1:27">
-      <c r="A378" s="5">
+      <c r="A378" s="3">
         <v>43769</v>
       </c>
       <c r="B378" s="2">
@@ -32034,7 +32029,7 @@
       </c>
     </row>
     <row r="379" spans="1:27">
-      <c r="A379" s="5">
+      <c r="A379" s="3">
         <v>43799</v>
       </c>
       <c r="B379" s="2">
@@ -32117,7 +32112,7 @@
       </c>
     </row>
     <row r="380" spans="1:27">
-      <c r="A380" s="5">
+      <c r="A380" s="3">
         <v>43830</v>
       </c>
       <c r="B380" s="2">
@@ -32200,7 +32195,7 @@
       </c>
     </row>
     <row r="381" spans="1:27">
-      <c r="A381" s="5">
+      <c r="A381" s="3">
         <v>43861</v>
       </c>
       <c r="B381" s="2">
@@ -32283,7 +32278,7 @@
       </c>
     </row>
     <row r="382" spans="1:27">
-      <c r="A382" s="5">
+      <c r="A382" s="3">
         <v>43890</v>
       </c>
       <c r="B382" s="2">
@@ -32366,7 +32361,7 @@
       </c>
     </row>
     <row r="383" spans="1:27">
-      <c r="A383" s="5">
+      <c r="A383" s="3">
         <v>43921</v>
       </c>
       <c r="B383" s="2">
@@ -32449,7 +32444,7 @@
       </c>
     </row>
     <row r="384" spans="1:27">
-      <c r="A384" s="5">
+      <c r="A384" s="3">
         <v>43951</v>
       </c>
       <c r="B384" s="2">
@@ -32532,7 +32527,7 @@
       </c>
     </row>
     <row r="385" spans="1:27">
-      <c r="A385" s="5">
+      <c r="A385" s="3">
         <v>43982</v>
       </c>
       <c r="B385" s="2">
@@ -32615,7 +32610,7 @@
       </c>
     </row>
     <row r="386" spans="1:27">
-      <c r="A386" s="5">
+      <c r="A386" s="3">
         <v>44012</v>
       </c>
       <c r="B386" s="2">
@@ -32698,7 +32693,7 @@
       </c>
     </row>
     <row r="387" spans="1:27">
-      <c r="A387" s="5">
+      <c r="A387" s="3">
         <v>44043</v>
       </c>
       <c r="B387" s="2">
@@ -32781,7 +32776,7 @@
       </c>
     </row>
     <row r="388" spans="1:27">
-      <c r="A388" s="5">
+      <c r="A388" s="3">
         <v>44074</v>
       </c>
       <c r="B388" s="2">
@@ -32864,7 +32859,7 @@
       </c>
     </row>
     <row r="389" spans="1:27">
-      <c r="A389" s="5">
+      <c r="A389" s="3">
         <v>44104</v>
       </c>
       <c r="B389" s="2">
@@ -32947,7 +32942,7 @@
       </c>
     </row>
     <row r="390" spans="1:27">
-      <c r="A390" s="5">
+      <c r="A390" s="3">
         <v>44135</v>
       </c>
       <c r="B390" s="2">
@@ -33030,7 +33025,7 @@
       </c>
     </row>
     <row r="391" spans="1:27">
-      <c r="A391" s="5">
+      <c r="A391" s="3">
         <v>44165</v>
       </c>
       <c r="B391" s="2">
@@ -33113,7 +33108,7 @@
       </c>
     </row>
     <row r="392" spans="1:27">
-      <c r="A392" s="5">
+      <c r="A392" s="3">
         <v>44196</v>
       </c>
       <c r="B392" s="2">
@@ -33196,7 +33191,7 @@
       </c>
     </row>
     <row r="393" spans="1:27">
-      <c r="A393" s="5">
+      <c r="A393" s="3">
         <v>44227</v>
       </c>
       <c r="B393" s="2">
@@ -33279,7 +33274,7 @@
       </c>
     </row>
     <row r="394" spans="1:27">
-      <c r="A394" s="5">
+      <c r="A394" s="3">
         <v>44255</v>
       </c>
       <c r="B394" s="2">
@@ -33362,7 +33357,7 @@
       </c>
     </row>
     <row r="395" spans="1:27">
-      <c r="A395" s="5">
+      <c r="A395" s="3">
         <v>44286</v>
       </c>
       <c r="B395" s="2">
@@ -33445,7 +33440,7 @@
       </c>
     </row>
     <row r="396" spans="1:27">
-      <c r="A396" s="5">
+      <c r="A396" s="3">
         <v>44316</v>
       </c>
       <c r="B396" s="2">
@@ -33528,7 +33523,7 @@
       </c>
     </row>
     <row r="397" spans="1:27">
-      <c r="A397" s="5">
+      <c r="A397" s="3">
         <v>44347</v>
       </c>
       <c r="B397" s="2">
@@ -33611,7 +33606,7 @@
       </c>
     </row>
     <row r="398" spans="1:27">
-      <c r="A398" s="5">
+      <c r="A398" s="3">
         <v>44377</v>
       </c>
       <c r="B398" s="2">
@@ -33694,7 +33689,7 @@
       </c>
     </row>
     <row r="399" spans="1:27">
-      <c r="A399" s="5">
+      <c r="A399" s="3">
         <v>44408</v>
       </c>
       <c r="B399" s="2">
@@ -33777,7 +33772,7 @@
       </c>
     </row>
     <row r="400" spans="1:27">
-      <c r="A400" s="5">
+      <c r="A400" s="3">
         <v>44439</v>
       </c>
       <c r="B400" s="2">
@@ -33860,7 +33855,7 @@
       </c>
     </row>
     <row r="401" spans="1:27">
-      <c r="A401" s="5">
+      <c r="A401" s="3">
         <v>44469</v>
       </c>
       <c r="B401" s="2">
@@ -33943,7 +33938,7 @@
       </c>
     </row>
     <row r="402" spans="1:27">
-      <c r="A402" s="5">
+      <c r="A402" s="3">
         <v>44500</v>
       </c>
       <c r="B402" s="2">
@@ -34026,7 +34021,7 @@
       </c>
     </row>
     <row r="403" spans="1:27">
-      <c r="A403" s="5">
+      <c r="A403" s="3">
         <v>44530</v>
       </c>
       <c r="B403" s="2">
@@ -34109,7 +34104,7 @@
       </c>
     </row>
     <row r="404" spans="1:27">
-      <c r="A404" s="5">
+      <c r="A404" s="3">
         <v>44561</v>
       </c>
       <c r="B404" s="2">
@@ -34192,7 +34187,7 @@
       </c>
     </row>
     <row r="405" spans="1:27">
-      <c r="A405" s="5">
+      <c r="A405" s="3">
         <v>44592</v>
       </c>
       <c r="B405" s="2">
@@ -34275,7 +34270,7 @@
       </c>
     </row>
     <row r="406" spans="1:27">
-      <c r="A406" s="5">
+      <c r="A406" s="3">
         <v>44620</v>
       </c>
       <c r="B406" s="2">
@@ -34358,7 +34353,7 @@
       </c>
     </row>
     <row r="407" spans="1:27">
-      <c r="A407" s="5">
+      <c r="A407" s="3">
         <v>44651</v>
       </c>
       <c r="B407" s="2">
@@ -34441,7 +34436,7 @@
       </c>
     </row>
     <row r="408" spans="1:27">
-      <c r="A408" s="5">
+      <c r="A408" s="3">
         <v>44681</v>
       </c>
       <c r="B408" s="2">
@@ -34524,7 +34519,7 @@
       </c>
     </row>
     <row r="409" spans="1:27">
-      <c r="A409" s="5">
+      <c r="A409" s="3">
         <v>44712</v>
       </c>
       <c r="B409" s="2">
@@ -34607,7 +34602,7 @@
       </c>
     </row>
     <row r="410" spans="1:27">
-      <c r="A410" s="5">
+      <c r="A410" s="3">
         <v>44742</v>
       </c>
       <c r="B410" s="2">
@@ -34690,7 +34685,7 @@
       </c>
     </row>
     <row r="411" spans="1:27">
-      <c r="A411" s="5">
+      <c r="A411" s="3">
         <v>44773</v>
       </c>
       <c r="B411" s="2">
@@ -34703,13 +34698,13 @@
         <v>2101.9918600000001</v>
       </c>
       <c r="E411" s="2">
-        <v>7922.8042679999999</v>
+        <v>7922.7918950000003</v>
       </c>
       <c r="F411" s="2">
         <v>1152.0917959999999</v>
       </c>
       <c r="G411" s="2">
-        <v>9927.5420300000005</v>
+        <v>10180.06</v>
       </c>
       <c r="H411" s="2">
         <v>2754.3242220000002</v>
@@ -34773,7 +34768,7 @@
       </c>
     </row>
     <row r="412" spans="1:27">
-      <c r="A412" s="5">
+      <c r="A412" s="3">
         <v>44804</v>
       </c>
       <c r="B412" s="2">
@@ -34786,13 +34781,13 @@
         <v>2388.7890000000002</v>
       </c>
       <c r="E412" s="2">
-        <v>9002.6020000000008</v>
+        <v>9002.6103399999993</v>
       </c>
       <c r="F412" s="2">
-        <v>1373.0239999999999</v>
+        <v>1373.02</v>
       </c>
       <c r="G412" s="2">
-        <v>11227.88</v>
+        <v>11515.52</v>
       </c>
       <c r="H412" s="2">
         <v>3135.877</v>
@@ -34856,7 +34851,7 @@
       </c>
     </row>
     <row r="413" spans="1:27">
-      <c r="A413" s="5">
+      <c r="A413" s="3">
         <v>44834</v>
       </c>
       <c r="B413" s="2">
@@ -34869,13 +34864,13 @@
         <v>2686.5790000000002</v>
       </c>
       <c r="E413" s="2">
-        <v>10136.15</v>
+        <v>10136.151576</v>
       </c>
       <c r="F413" s="2">
-        <v>1497.018</v>
+        <v>1131.2965999999999</v>
       </c>
       <c r="G413" s="2">
-        <v>12966.98</v>
+        <v>13263.63</v>
       </c>
       <c r="H413" s="2">
         <v>3489.346</v>
@@ -34939,7 +34934,7 @@
       </c>
     </row>
     <row r="414" spans="1:27">
-      <c r="A414" s="5">
+      <c r="A414" s="3">
         <v>44865</v>
       </c>
       <c r="B414" s="2">
@@ -34955,10 +34950,10 @@
         <v>11271.906300000001</v>
       </c>
       <c r="F414" s="2">
-        <v>1627.770796</v>
+        <v>1262.0478000000001</v>
       </c>
       <c r="G414" s="2">
-        <v>14767.277733000001</v>
+        <v>15061.02</v>
       </c>
       <c r="H414" s="2">
         <v>3907.803981</v>
@@ -35022,7 +35017,7 @@
       </c>
     </row>
     <row r="415" spans="1:27">
-      <c r="A415" s="5">
+      <c r="A415" s="3">
         <v>44895</v>
       </c>
       <c r="B415" s="2">
@@ -35038,10 +35033,10 @@
         <v>12306.431866000001</v>
       </c>
       <c r="F415" s="2">
-        <v>1813.8621129999999</v>
+        <v>1448.14</v>
       </c>
       <c r="G415" s="2">
-        <v>16465.424060000001</v>
+        <v>16790.03</v>
       </c>
       <c r="H415" s="2">
         <v>4346.465854</v>
@@ -35105,7 +35100,7 @@
       </c>
     </row>
     <row r="416" spans="1:27">
-      <c r="A416" s="5">
+      <c r="A416" s="3">
         <v>44926</v>
       </c>
       <c r="B416" s="2">
@@ -35121,10 +35116,10 @@
         <v>13281.341989</v>
       </c>
       <c r="F416" s="2">
-        <v>1907.454759</v>
+        <v>1541.7293999999999</v>
       </c>
       <c r="G416" s="2">
-        <v>18105.257242</v>
+        <v>18472.12</v>
       </c>
       <c r="H416" s="2">
         <v>4798.1562739999999</v>
@@ -35188,7 +35183,7 @@
       </c>
     </row>
     <row r="417" spans="1:27">
-      <c r="A417" s="5">
+      <c r="A417" s="3">
         <v>44957</v>
       </c>
       <c r="B417" s="2">
@@ -35271,7 +35266,7 @@
       </c>
     </row>
     <row r="418" spans="1:27">
-      <c r="A418" s="5">
+      <c r="A418" s="3">
         <v>44985</v>
       </c>
       <c r="B418" s="2">
@@ -35354,7 +35349,7 @@
       </c>
     </row>
     <row r="419" spans="1:27">
-      <c r="A419" s="5">
+      <c r="A419" s="3">
         <v>45016</v>
       </c>
       <c r="B419" s="2">
@@ -35437,7 +35432,7 @@
       </c>
     </row>
     <row r="420" spans="1:27">
-      <c r="A420" s="5">
+      <c r="A420" s="3">
         <v>45046</v>
       </c>
       <c r="B420" s="2">
@@ -35520,7 +35515,7 @@
       </c>
     </row>
     <row r="421" spans="1:27">
-      <c r="A421" s="5">
+      <c r="A421" s="3">
         <v>45077</v>
       </c>
       <c r="B421" s="2">
@@ -35603,7 +35598,7 @@
       </c>
     </row>
     <row r="422" spans="1:27">
-      <c r="A422" s="5">
+      <c r="A422" s="3">
         <v>45107</v>
       </c>
       <c r="B422" s="2">
@@ -35622,7 +35617,7 @@
         <v>1599.8852099999999</v>
       </c>
       <c r="G422" s="2">
-        <v>10778.29</v>
+        <v>10777.29</v>
       </c>
       <c r="H422" s="2">
         <v>3220.6869029999998</v>
@@ -35686,7 +35681,7 @@
       </c>
     </row>
     <row r="423" spans="1:27">
-      <c r="A423" s="5">
+      <c r="A423" s="3">
         <v>45138</v>
       </c>
       <c r="B423" s="2">
@@ -35769,7 +35764,7 @@
       </c>
     </row>
     <row r="424" spans="1:27">
-      <c r="A424" s="5">
+      <c r="A424" s="3">
         <v>45169</v>
       </c>
       <c r="B424" s="2">
@@ -35782,13 +35777,13 @@
         <v>2562.2879290000001</v>
       </c>
       <c r="E424" s="2">
-        <v>9815.9016940000001</v>
+        <v>9815.9017000000003</v>
       </c>
       <c r="F424" s="2">
-        <v>2312.8463510000001</v>
+        <v>2312.85</v>
       </c>
       <c r="G424" s="2">
-        <v>13480.580561000001</v>
+        <v>14201.31</v>
       </c>
       <c r="H424" s="2">
         <v>4085.2787250000001</v>
@@ -35797,37 +35792,37 @@
         <v>3055.5165120000001</v>
       </c>
       <c r="J424" s="2">
-        <v>0</v>
+        <v>30288</v>
       </c>
       <c r="K424" s="2">
-        <v>0</v>
+        <v>957.30589399999997</v>
       </c>
       <c r="L424" s="2">
-        <v>0</v>
+        <v>2153.3491410000001</v>
       </c>
       <c r="M424" s="2">
-        <v>0</v>
+        <v>23834</v>
       </c>
       <c r="N424" s="2">
-        <v>0</v>
+        <v>1518</v>
       </c>
       <c r="O424" s="2">
-        <v>0</v>
+        <v>2377</v>
       </c>
       <c r="P424" s="2">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="Q424" s="2">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="R424" s="2">
-        <v>0</v>
+        <v>3737</v>
       </c>
       <c r="S424" s="2">
-        <v>0</v>
+        <v>35530</v>
       </c>
       <c r="T424" s="2">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="U424" s="2">
         <v>130600.2</v>
@@ -35849,6 +35844,89 @@
       </c>
       <c r="AA424" s="2">
         <v>491401453</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27">
+      <c r="A425" s="3">
+        <v>45199</v>
+      </c>
+      <c r="B425" s="2">
+        <v>15672</v>
+      </c>
+      <c r="C425" s="2">
+        <v>42426.5</v>
+      </c>
+      <c r="D425" s="2">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2">
+        <v>0</v>
+      </c>
+      <c r="F425" s="2">
+        <v>0</v>
+      </c>
+      <c r="G425" s="2">
+        <v>0</v>
+      </c>
+      <c r="H425" s="2">
+        <v>0</v>
+      </c>
+      <c r="I425" s="2">
+        <v>0</v>
+      </c>
+      <c r="J425" s="2">
+        <v>0</v>
+      </c>
+      <c r="K425" s="2">
+        <v>0</v>
+      </c>
+      <c r="L425" s="2">
+        <v>0</v>
+      </c>
+      <c r="M425" s="2">
+        <v>0</v>
+      </c>
+      <c r="N425" s="2">
+        <v>0</v>
+      </c>
+      <c r="O425" s="2">
+        <v>0</v>
+      </c>
+      <c r="P425" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q425" s="2">
+        <v>0</v>
+      </c>
+      <c r="R425" s="2">
+        <v>0</v>
+      </c>
+      <c r="S425" s="2">
+        <v>0</v>
+      </c>
+      <c r="T425" s="2">
+        <v>0</v>
+      </c>
+      <c r="U425" s="2">
+        <v>149521</v>
+      </c>
+      <c r="V425" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="W425" s="2">
+        <v>3470.1</v>
+      </c>
+      <c r="X425" s="2">
+        <v>4793.5999999999995</v>
+      </c>
+      <c r="Y425" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z425" s="2">
+        <v>1704</v>
+      </c>
+      <c r="AA425" s="2">
+        <v>554840000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28296C-2262-469B-B1E9-7933D04516D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B974ED-2AE8-46F5-96DF-2E287A1FBAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -263,24 +263,6 @@
     <t>1995-01:2023-08</t>
   </si>
   <si>
-    <t>1997-01:2023-08</t>
-  </si>
-  <si>
-    <t>2002-01:2023-08</t>
-  </si>
-  <si>
-    <t>2003-07:2023-08</t>
-  </si>
-  <si>
-    <t>2005-11:2023-08</t>
-  </si>
-  <si>
-    <t>2009-01:2023-08</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>1989-02:2023-09</t>
   </si>
   <si>
@@ -305,13 +287,25 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-13</t>
+    <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-10-12</t>
+    <t>1997-01:2023-09</t>
   </si>
   <si>
-    <t>2023-10-10</t>
+    <t>2002-01:2023-09</t>
+  </si>
+  <si>
+    <t>2005-11:2023-09</t>
+  </si>
+  <si>
+    <t>2009-01:2023-09</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
   </si>
 </sst>
 </file>
@@ -361,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -369,6 +363,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -715,8 +715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="L426" sqref="L426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B414" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AB424" sqref="AB424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -737,585 +740,585 @@
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="174">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="AA6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="M8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="O8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="Q8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="R8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="Z8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" s="5" t="s">
+      <c r="AA8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -35285,7 +35288,7 @@
         <v>306.55764799999997</v>
       </c>
       <c r="G418" s="2">
-        <v>2943.54</v>
+        <v>2937.9563600000001</v>
       </c>
       <c r="H418" s="2">
         <v>941.31453299999998</v>
@@ -35368,7 +35371,7 @@
         <v>719.49165300000004</v>
       </c>
       <c r="G419" s="2">
-        <v>4652.4399999999996</v>
+        <v>4646.8563599999998</v>
       </c>
       <c r="H419" s="2">
         <v>1528.0283179999999</v>
@@ -35451,7 +35454,7 @@
         <v>1002.761498</v>
       </c>
       <c r="G420" s="2">
-        <v>6456.82</v>
+        <v>6441.3562730000003</v>
       </c>
       <c r="H420" s="2">
         <v>2241.425338</v>
@@ -35534,7 +35537,7 @@
         <v>1304.273631</v>
       </c>
       <c r="G421" s="2">
-        <v>8248.7199999999993</v>
+        <v>8233.2562330000001</v>
       </c>
       <c r="H421" s="2">
         <v>2685.4005900000002</v>
@@ -35617,7 +35620,7 @@
         <v>1599.8852099999999</v>
       </c>
       <c r="G422" s="2">
-        <v>10777.29</v>
+        <v>10005.20887</v>
       </c>
       <c r="H422" s="2">
         <v>3220.6869029999998</v>
@@ -35700,7 +35703,7 @@
         <v>1948.887328</v>
       </c>
       <c r="G423" s="2">
-        <v>12482.17</v>
+        <v>11699.20874</v>
       </c>
       <c r="H423" s="2">
         <v>3631.537131</v>
@@ -35783,7 +35786,7 @@
         <v>2312.85</v>
       </c>
       <c r="G424" s="2">
-        <v>14201.31</v>
+        <v>13408.50806</v>
       </c>
       <c r="H424" s="2">
         <v>4085.2787250000001</v>
@@ -35854,25 +35857,25 @@
         <v>15672</v>
       </c>
       <c r="C425" s="2">
-        <v>42426.5</v>
+        <v>42426</v>
       </c>
       <c r="D425" s="2">
-        <v>0</v>
+        <v>2878.5868409999998</v>
       </c>
       <c r="E425" s="2">
-        <v>0</v>
+        <v>11160.901694</v>
       </c>
       <c r="F425" s="2">
-        <v>0</v>
+        <v>2653.8126830000001</v>
       </c>
       <c r="G425" s="2">
-        <v>0</v>
+        <v>15146.905255</v>
       </c>
       <c r="H425" s="2">
-        <v>0</v>
+        <v>4641.0043009999999</v>
       </c>
       <c r="I425" s="2">
-        <v>0</v>
+        <v>3406.499992</v>
       </c>
       <c r="J425" s="2">
         <v>0</v>
@@ -35908,25 +35911,25 @@
         <v>0</v>
       </c>
       <c r="U425" s="2">
-        <v>149521</v>
+        <v>149520.46562999999</v>
       </c>
       <c r="V425" s="2">
         <v>-0.7</v>
       </c>
       <c r="W425" s="2">
-        <v>3470.1</v>
+        <v>3470</v>
       </c>
       <c r="X425" s="2">
-        <v>4793.5999999999995</v>
+        <v>4794</v>
       </c>
       <c r="Y425" s="2">
-        <v>0</v>
+        <v>1220.335513</v>
       </c>
       <c r="Z425" s="2">
-        <v>1704</v>
+        <v>1703.7</v>
       </c>
       <c r="AA425" s="2">
-        <v>554840000</v>
+        <v>554835000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B974ED-2AE8-46F5-96DF-2E287A1FBAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9930C-6415-4FDC-BC31-B132E5E37035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="4170" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -260,34 +260,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2023-08</t>
-  </si>
-  <si>
-    <t>1989-02:2023-09</t>
+    <t>1995-01:2023-10</t>
   </si>
   <si>
     <t>1995-01:2023-09</t>
-  </si>
-  <si>
-    <t>2009-03:2023-08</t>
-  </si>
-  <si>
-    <t>2015-04:2023-08</t>
-  </si>
-  <si>
-    <t>2008-09:2023-08</t>
-  </si>
-  <si>
-    <t>2003-07:2023-09</t>
-  </si>
-  <si>
-    <t>1989-01:2023-09</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
   </si>
   <si>
     <t>1997-01:2023-09</t>
@@ -296,16 +272,46 @@
     <t>2002-01:2023-09</t>
   </si>
   <si>
+    <t>2003-07:2023-09</t>
+  </si>
+  <si>
     <t>2005-11:2023-09</t>
   </si>
   <si>
     <t>2009-01:2023-09</t>
   </si>
   <si>
+    <t>2009-03:2023-09</t>
+  </si>
+  <si>
+    <t>2015-04:2023-09</t>
+  </si>
+  <si>
+    <t>2008-09:2023-09</t>
+  </si>
+  <si>
+    <t>2003-07:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-10-20</t>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>1989-02:2023-10</t>
+  </si>
+  <si>
+    <t>1989-01:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,6 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -355,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -363,12 +368,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -713,25 +712,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA425"/>
+  <dimension ref="A1:AA426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B414" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB424" sqref="AB424"/>
+      <selection activeCell="G428" sqref="G428"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -740,585 +736,585 @@
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="174">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="X6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>82</v>
+      <c r="L8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -32297,7 +32293,7 @@
         <v>1785.0550679999999</v>
       </c>
       <c r="F382" s="2">
-        <v>623.41395</v>
+        <v>511.25764800000002</v>
       </c>
       <c r="G382" s="2">
         <v>2028.76</v>
@@ -32380,7 +32376,7 @@
         <v>2551.7726859999998</v>
       </c>
       <c r="F383" s="2">
-        <v>911.64603</v>
+        <v>661.90367800000001</v>
       </c>
       <c r="G383" s="2">
         <v>2985.94</v>
@@ -32463,7 +32459,7 @@
         <v>3369.8931349999998</v>
       </c>
       <c r="F384" s="2">
-        <v>1119.95126</v>
+        <v>732.95493799999997</v>
       </c>
       <c r="G384" s="2">
         <v>4083.63</v>
@@ -32546,7 +32542,7 @@
         <v>4338.8165790000003</v>
       </c>
       <c r="F385" s="2">
-        <v>1570.641179</v>
+        <v>1012.296117</v>
       </c>
       <c r="G385" s="2">
         <v>5287.98</v>
@@ -32629,7 +32625,7 @@
         <v>5326.8188049999999</v>
       </c>
       <c r="F386" s="2">
-        <v>1857.1473020000001</v>
+        <v>1288.7434189999999</v>
       </c>
       <c r="G386" s="2">
         <v>6639.07</v>
@@ -32712,7 +32708,7 @@
         <v>6396.9311740000003</v>
       </c>
       <c r="F387" s="2">
-        <v>2221.3817330000002</v>
+        <v>1614.3251519999999</v>
       </c>
       <c r="G387" s="2">
         <v>8099.04</v>
@@ -32795,7 +32791,7 @@
         <v>7466.6225210000002</v>
       </c>
       <c r="F388" s="2">
-        <v>2552.0404990000002</v>
+        <v>1938.465651</v>
       </c>
       <c r="G388" s="2">
         <v>9427.58</v>
@@ -32878,7 +32874,7 @@
         <v>8545.6695760000002</v>
       </c>
       <c r="F389" s="2">
-        <v>2925.5582020000002</v>
+        <v>2293.9238529999998</v>
       </c>
       <c r="G389" s="2">
         <v>10641.15</v>
@@ -32961,7 +32957,7 @@
         <v>9545.2931100000005</v>
       </c>
       <c r="F390" s="2">
-        <v>3264.7619370000002</v>
+        <v>2626.9857900000002</v>
       </c>
       <c r="G390" s="2">
         <v>11765.88</v>
@@ -33044,7 +33040,7 @@
         <v>10593.635619999999</v>
       </c>
       <c r="F391" s="2">
-        <v>3638.4296789999999</v>
+        <v>2959.1154689999998</v>
       </c>
       <c r="G391" s="2">
         <v>12887.91</v>
@@ -33127,7 +33123,7 @@
         <v>11619.828960000001</v>
       </c>
       <c r="F392" s="2">
-        <v>4032.6353060000001</v>
+        <v>3317.5507750000002</v>
       </c>
       <c r="G392" s="2">
         <v>14048.07</v>
@@ -33293,7 +33289,7 @@
         <v>2052.8961589999999</v>
       </c>
       <c r="F394" s="2">
-        <v>646.11880599999995</v>
+        <v>432.05764799999997</v>
       </c>
       <c r="G394" s="2">
         <v>2131.87</v>
@@ -33376,7 +33372,7 @@
         <v>3139.0530829999998</v>
       </c>
       <c r="F395" s="2">
-        <v>987.74002599999994</v>
+        <v>738.06762900000001</v>
       </c>
       <c r="G395" s="2">
         <v>3174.01</v>
@@ -33459,7 +33455,7 @@
         <v>4174.3876410000003</v>
       </c>
       <c r="F396" s="2">
-        <v>1387.0176939999999</v>
+        <v>1079.406037</v>
       </c>
       <c r="G396" s="2">
         <v>4155.6000000000004</v>
@@ -33542,7 +33538,7 @@
         <v>5296.9970990000002</v>
       </c>
       <c r="F397" s="2">
-        <v>1834.976973</v>
+        <v>1474.7747629999999</v>
       </c>
       <c r="G397" s="2">
         <v>5269.75</v>
@@ -33625,7 +33621,7 @@
         <v>6476.3449049999999</v>
       </c>
       <c r="F398" s="2">
-        <v>2204.5047650000001</v>
+        <v>1807.770444</v>
       </c>
       <c r="G398" s="2">
         <v>6361.94</v>
@@ -33708,7 +33704,7 @@
         <v>7784.1534089999996</v>
       </c>
       <c r="F399" s="2">
-        <v>2572.9263289999999</v>
+        <v>2097.2493439999998</v>
       </c>
       <c r="G399" s="2">
         <v>7542.79</v>
@@ -33791,7 +33787,7 @@
         <v>9087.9433379999991</v>
       </c>
       <c r="F400" s="2">
-        <v>2833.7151859999999</v>
+        <v>2377.2493439999998</v>
       </c>
       <c r="G400" s="2">
         <v>8821.2099999999991</v>
@@ -33874,7 +33870,7 @@
         <v>10292.818087</v>
       </c>
       <c r="F401" s="2">
-        <v>3141.0272610000002</v>
+        <v>2684.1493439999999</v>
       </c>
       <c r="G401" s="2">
         <v>10036.33</v>
@@ -33957,7 +33953,7 @@
         <v>11505.408679</v>
       </c>
       <c r="F402" s="2">
-        <v>3458.5285699999999</v>
+        <v>2992.8493440000002</v>
       </c>
       <c r="G402" s="2">
         <v>11436.31</v>
@@ -34040,7 +34036,7 @@
         <v>12779.190538999999</v>
       </c>
       <c r="F403" s="2">
-        <v>3670.3949859999998</v>
+        <v>3219.2493439999998</v>
       </c>
       <c r="G403" s="2">
         <v>13031.05</v>
@@ -34372,7 +34368,7 @@
         <v>3689.2464890000001</v>
       </c>
       <c r="F407" s="2">
-        <v>502.04417799999999</v>
+        <v>569.25764800000002</v>
       </c>
       <c r="G407" s="2">
         <v>4441.42</v>
@@ -34455,7 +34451,7 @@
         <v>4697.1761040000001</v>
       </c>
       <c r="F408" s="2">
-        <v>690.17777799999999</v>
+        <v>767.14474800000005</v>
       </c>
       <c r="G408" s="2">
         <v>5820.77</v>
@@ -34538,7 +34534,7 @@
         <v>5774.2598170000001</v>
       </c>
       <c r="F409" s="2">
-        <v>771.86061700000005</v>
+        <v>848.82758699999999</v>
       </c>
       <c r="G409" s="2">
         <v>7279.33</v>
@@ -35285,7 +35281,7 @@
         <v>2432.6968999999999</v>
       </c>
       <c r="F418" s="2">
-        <v>306.55764799999997</v>
+        <v>444.75764800000002</v>
       </c>
       <c r="G418" s="2">
         <v>2937.9563600000001</v>
@@ -35878,37 +35874,37 @@
         <v>3406.499992</v>
       </c>
       <c r="J425" s="2">
-        <v>0</v>
+        <v>31333</v>
       </c>
       <c r="K425" s="2">
-        <v>0</v>
+        <v>1082.480945</v>
       </c>
       <c r="L425" s="2">
-        <v>0</v>
+        <v>1839.403364</v>
       </c>
       <c r="M425" s="2">
-        <v>0</v>
+        <v>20979</v>
       </c>
       <c r="N425" s="2">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="O425" s="2">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="P425" s="2">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="Q425" s="2">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="R425" s="2">
-        <v>0</v>
+        <v>3566</v>
       </c>
       <c r="S425" s="2">
-        <v>0</v>
+        <v>32505</v>
       </c>
       <c r="T425" s="2">
-        <v>0</v>
+        <v>5149</v>
       </c>
       <c r="U425" s="2">
         <v>149520.46562999999</v>
@@ -35930,6 +35926,89 @@
       </c>
       <c r="AA425" s="2">
         <v>554835000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27">
+      <c r="A426" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B426" s="2">
+        <v>17405</v>
+      </c>
+      <c r="C426" s="2">
+        <v>47321.799999999996</v>
+      </c>
+      <c r="D426" s="2">
+        <v>0</v>
+      </c>
+      <c r="E426" s="2">
+        <v>0</v>
+      </c>
+      <c r="F426" s="2">
+        <v>0</v>
+      </c>
+      <c r="G426" s="2">
+        <v>0</v>
+      </c>
+      <c r="H426" s="2">
+        <v>0</v>
+      </c>
+      <c r="I426" s="2">
+        <v>0</v>
+      </c>
+      <c r="J426" s="2">
+        <v>0</v>
+      </c>
+      <c r="K426" s="2">
+        <v>0</v>
+      </c>
+      <c r="L426" s="2">
+        <v>0</v>
+      </c>
+      <c r="M426" s="2">
+        <v>0</v>
+      </c>
+      <c r="N426" s="2">
+        <v>0</v>
+      </c>
+      <c r="O426" s="2">
+        <v>0</v>
+      </c>
+      <c r="P426" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q426" s="2">
+        <v>0</v>
+      </c>
+      <c r="R426" s="2">
+        <v>0</v>
+      </c>
+      <c r="S426" s="2">
+        <v>0</v>
+      </c>
+      <c r="T426" s="2">
+        <v>0</v>
+      </c>
+      <c r="U426" s="2">
+        <v>168585</v>
+      </c>
+      <c r="V426" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="W426" s="2">
+        <v>3884.8</v>
+      </c>
+      <c r="X426" s="2">
+        <v>5309.4000000000005</v>
+      </c>
+      <c r="Y426" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z426" s="2">
+        <v>1896</v>
+      </c>
+      <c r="AA426" s="2">
+        <v>618760000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9930C-6415-4FDC-BC31-B132E5E37035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2890B2-B3C4-46D6-B71E-483B599D3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4170" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
@@ -263,55 +263,55 @@
     <t>1995-01:2023-10</t>
   </si>
   <si>
-    <t>1995-01:2023-09</t>
-  </si>
-  <si>
-    <t>1997-01:2023-09</t>
-  </si>
-  <si>
-    <t>2002-01:2023-09</t>
-  </si>
-  <si>
-    <t>2003-07:2023-09</t>
-  </si>
-  <si>
-    <t>2005-11:2023-09</t>
-  </si>
-  <si>
-    <t>2009-01:2023-09</t>
-  </si>
-  <si>
-    <t>2009-03:2023-09</t>
-  </si>
-  <si>
-    <t>2015-04:2023-09</t>
-  </si>
-  <si>
-    <t>2008-09:2023-09</t>
-  </si>
-  <si>
     <t>2003-07:2023-10</t>
   </si>
   <si>
-    <t>2023-11-07</t>
+    <t>1989-02:2023-11</t>
   </si>
   <si>
-    <t>2023-10-23</t>
+    <t>1995-01:2023-11</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>1997-01:2023-10</t>
   </si>
   <si>
-    <t>2023-10-26</t>
+    <t>2002-01:2023-10</t>
   </si>
   <si>
-    <t>1989-02:2023-10</t>
+    <t>2005-11:2023-10</t>
   </si>
   <si>
-    <t>1989-01:2023-10</t>
+    <t>2009-01:2023-10</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2009-03:2023-10</t>
+  </si>
+  <si>
+    <t>2015-04:2023-10</t>
+  </si>
+  <si>
+    <t>2008-09:2023-10</t>
+  </si>
+  <si>
+    <t>2003-07:2023-11</t>
+  </si>
+  <si>
+    <t>1989-01:2023-11</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
   </si>
 </sst>
 </file>
@@ -712,11 +712,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA426"/>
+  <dimension ref="A1:AA427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G428" sqref="G428"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1073,82 +1071,82 @@
         <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="V6" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1239,82 +1237,82 @@
         <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="V8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="X8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -35379,10 +35377,10 @@
         <v>34464</v>
       </c>
       <c r="K419" s="2">
-        <v>964.69982200000004</v>
+        <v>916.52</v>
       </c>
       <c r="L419" s="2">
-        <v>1435.4301780000001</v>
+        <v>1483.45</v>
       </c>
       <c r="M419" s="2">
         <v>21220</v>
@@ -35462,10 +35460,10 @@
         <v>30626</v>
       </c>
       <c r="K420" s="2">
-        <v>838.65538700000002</v>
+        <v>846.39</v>
       </c>
       <c r="L420" s="2">
-        <v>1689.3846129999999</v>
+        <v>1681.57</v>
       </c>
       <c r="M420" s="2">
         <v>18442</v>
@@ -35545,10 +35543,10 @@
         <v>30177</v>
       </c>
       <c r="K421" s="2">
-        <v>672.46340699999996</v>
+        <v>671.55</v>
       </c>
       <c r="L421" s="2">
-        <v>1892.9865930000001</v>
+        <v>1892.95</v>
       </c>
       <c r="M421" s="2">
         <v>19866</v>
@@ -35628,10 +35626,10 @@
         <v>30544</v>
       </c>
       <c r="K422" s="2">
-        <v>774.53184599999997</v>
+        <v>773.99</v>
       </c>
       <c r="L422" s="2">
-        <v>1992.6228799999999</v>
+        <v>1992.94</v>
       </c>
       <c r="M422" s="2">
         <v>22164</v>
@@ -35711,10 +35709,10 @@
         <v>29120</v>
       </c>
       <c r="K423" s="2">
-        <v>713.32427499999994</v>
+        <v>713.33</v>
       </c>
       <c r="L423" s="2">
-        <v>2081.3807240000001</v>
+        <v>2081.31</v>
       </c>
       <c r="M423" s="2">
         <v>24252</v>
@@ -35794,10 +35792,10 @@
         <v>30288</v>
       </c>
       <c r="K424" s="2">
-        <v>957.30589399999997</v>
+        <v>957.31</v>
       </c>
       <c r="L424" s="2">
-        <v>2153.3491410000001</v>
+        <v>2153.38</v>
       </c>
       <c r="M424" s="2">
         <v>23834</v>
@@ -35877,10 +35875,10 @@
         <v>31333</v>
       </c>
       <c r="K425" s="2">
-        <v>1082.480945</v>
+        <v>1082.48</v>
       </c>
       <c r="L425" s="2">
-        <v>1839.403364</v>
+        <v>1839.47</v>
       </c>
       <c r="M425" s="2">
         <v>20979</v>
@@ -35933,82 +35931,165 @@
         <v>45230</v>
       </c>
       <c r="B426" s="2">
-        <v>17405</v>
+        <v>17404.599999999999</v>
       </c>
       <c r="C426" s="2">
-        <v>47321.799999999996</v>
+        <v>47322</v>
       </c>
       <c r="D426" s="2">
-        <v>0</v>
+        <v>3187.5572889999999</v>
       </c>
       <c r="E426" s="2">
-        <v>0</v>
+        <v>12492.701736999999</v>
       </c>
       <c r="F426" s="2">
-        <v>0</v>
+        <v>2956.220456</v>
       </c>
       <c r="G426" s="2">
-        <v>0</v>
+        <v>16911.606442</v>
       </c>
       <c r="H426" s="2">
-        <v>0</v>
+        <v>5257.572169</v>
       </c>
       <c r="I426" s="2">
-        <v>0</v>
+        <v>3798.0488719999998</v>
       </c>
       <c r="J426" s="2">
-        <v>0</v>
+        <v>31208</v>
       </c>
       <c r="K426" s="2">
-        <v>0</v>
+        <v>797.96</v>
       </c>
       <c r="L426" s="2">
-        <v>0</v>
+        <v>1551.65</v>
       </c>
       <c r="M426" s="2">
-        <v>0</v>
+        <v>19609</v>
       </c>
       <c r="N426" s="2">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="O426" s="2">
-        <v>0</v>
+        <v>2522</v>
       </c>
       <c r="P426" s="2">
-        <v>0</v>
+        <v>2775</v>
       </c>
       <c r="Q426" s="2">
-        <v>0</v>
+        <v>2191</v>
       </c>
       <c r="R426" s="2">
-        <v>0</v>
+        <v>3508</v>
       </c>
       <c r="S426" s="2">
-        <v>0</v>
+        <v>31964</v>
       </c>
       <c r="T426" s="2">
-        <v>0</v>
+        <v>4976</v>
       </c>
       <c r="U426" s="2">
-        <v>168585</v>
+        <v>168585.1</v>
       </c>
       <c r="V426" s="2">
         <v>-1.1000000000000001</v>
       </c>
       <c r="W426" s="2">
-        <v>3884.8</v>
+        <v>3884.9999999999995</v>
       </c>
       <c r="X426" s="2">
-        <v>5309.4000000000005</v>
+        <v>5309</v>
       </c>
       <c r="Y426" s="2">
-        <v>0</v>
+        <v>1341.881535</v>
       </c>
       <c r="Z426" s="2">
-        <v>1896</v>
+        <v>1896.3</v>
       </c>
       <c r="AA426" s="2">
-        <v>618760000</v>
+        <v>618762000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27">
+      <c r="A427" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B427" s="2">
+        <v>19125</v>
+      </c>
+      <c r="C427" s="2">
+        <v>51564.800000000003</v>
+      </c>
+      <c r="D427" s="2">
+        <v>0</v>
+      </c>
+      <c r="E427" s="2">
+        <v>0</v>
+      </c>
+      <c r="F427" s="2">
+        <v>0</v>
+      </c>
+      <c r="G427" s="2">
+        <v>0</v>
+      </c>
+      <c r="H427" s="2">
+        <v>0</v>
+      </c>
+      <c r="I427" s="2">
+        <v>0</v>
+      </c>
+      <c r="J427" s="2">
+        <v>0</v>
+      </c>
+      <c r="K427" s="2">
+        <v>0</v>
+      </c>
+      <c r="L427" s="2">
+        <v>0</v>
+      </c>
+      <c r="M427" s="2">
+        <v>0</v>
+      </c>
+      <c r="N427" s="2">
+        <v>0</v>
+      </c>
+      <c r="O427" s="2">
+        <v>0</v>
+      </c>
+      <c r="P427" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q427" s="2">
+        <v>0</v>
+      </c>
+      <c r="R427" s="2">
+        <v>0</v>
+      </c>
+      <c r="S427" s="2">
+        <v>0</v>
+      </c>
+      <c r="T427" s="2">
+        <v>0</v>
+      </c>
+      <c r="U427" s="2">
+        <v>186735</v>
+      </c>
+      <c r="V427" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="W427" s="2">
+        <v>4322.5</v>
+      </c>
+      <c r="X427" s="2">
+        <v>5817.5999999999995</v>
+      </c>
+      <c r="Y427" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z427" s="2">
+        <v>2096</v>
+      </c>
+      <c r="AA427" s="2">
+        <v>676220000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2890B2-B3C4-46D6-B71E-483B599D3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF53EF2F-FA51-4A4D-9F1F-EED09BB48311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,58 +260,58 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2023-10</t>
-  </si>
-  <si>
-    <t>2003-07:2023-10</t>
-  </si>
-  <si>
-    <t>1989-02:2023-11</t>
-  </si>
-  <si>
     <t>1995-01:2023-11</t>
-  </si>
-  <si>
-    <t>1997-01:2023-10</t>
-  </si>
-  <si>
-    <t>2002-01:2023-10</t>
-  </si>
-  <si>
-    <t>2005-11:2023-10</t>
-  </si>
-  <si>
-    <t>2009-01:2023-10</t>
-  </si>
-  <si>
-    <t>2009-03:2023-10</t>
-  </si>
-  <si>
-    <t>2015-04:2023-10</t>
-  </si>
-  <si>
-    <t>2008-09:2023-10</t>
   </si>
   <si>
     <t>2003-07:2023-11</t>
   </si>
   <si>
-    <t>1989-01:2023-11</t>
+    <t>1989-02:2023-12</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>1995-01:2023-12</t>
   </si>
   <si>
-    <t>2023-12-07</t>
+    <t>1997-01:2023-11</t>
   </si>
   <si>
-    <t>2023-11-27</t>
+    <t>2002-01:2023-11</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>2005-11:2023-11</t>
   </si>
   <si>
-    <t>2023-12-13</t>
+    <t>2009-01:2023-11</t>
+  </si>
+  <si>
+    <t>2009-03:2023-11</t>
+  </si>
+  <si>
+    <t>2015-04:2023-11</t>
+  </si>
+  <si>
+    <t>2008-09:2023-11</t>
+  </si>
+  <si>
+    <t>2003-07:2023-12</t>
+  </si>
+  <si>
+    <t>1989-01:2023-12</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,9 +712,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA427"/>
+  <dimension ref="A1:AA428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1261,37 +1261,37 @@
         <v>82</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>80</v>
@@ -35878,7 +35878,7 @@
         <v>1082.48</v>
       </c>
       <c r="L425" s="2">
-        <v>1839.47</v>
+        <v>1839.49</v>
       </c>
       <c r="M425" s="2">
         <v>20979</v>
@@ -35958,10 +35958,10 @@
         <v>31208</v>
       </c>
       <c r="K426" s="2">
-        <v>797.96</v>
+        <v>781.76</v>
       </c>
       <c r="L426" s="2">
-        <v>1551.65</v>
+        <v>1567.82</v>
       </c>
       <c r="M426" s="2">
         <v>19609</v>
@@ -36017,58 +36017,58 @@
         <v>19125</v>
       </c>
       <c r="C427" s="2">
-        <v>51564.800000000003</v>
+        <v>51565</v>
       </c>
       <c r="D427" s="2">
-        <v>0</v>
+        <v>3532.0798100000002</v>
       </c>
       <c r="E427" s="2">
-        <v>0</v>
+        <v>13687.101737000001</v>
       </c>
       <c r="F427" s="2">
-        <v>0</v>
+        <v>3211.2710489999999</v>
       </c>
       <c r="G427" s="2">
-        <v>0</v>
+        <v>18588.174177000001</v>
       </c>
       <c r="H427" s="2">
-        <v>0</v>
+        <v>5800.7001270000001</v>
       </c>
       <c r="I427" s="2">
-        <v>0</v>
+        <v>4167.7298300000002</v>
       </c>
       <c r="J427" s="2">
-        <v>0</v>
+        <v>34092</v>
       </c>
       <c r="K427" s="2">
-        <v>0</v>
+        <v>992.34</v>
       </c>
       <c r="L427" s="2">
-        <v>0</v>
+        <v>1944.49</v>
       </c>
       <c r="M427" s="2">
-        <v>0</v>
+        <v>21382</v>
       </c>
       <c r="N427" s="2">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="O427" s="2">
-        <v>0</v>
+        <v>2366</v>
       </c>
       <c r="P427" s="2">
-        <v>0</v>
+        <v>2639</v>
       </c>
       <c r="Q427" s="2">
-        <v>0</v>
+        <v>4202</v>
       </c>
       <c r="R427" s="2">
-        <v>0</v>
+        <v>4044</v>
       </c>
       <c r="S427" s="2">
-        <v>0</v>
+        <v>36028</v>
       </c>
       <c r="T427" s="2">
-        <v>0</v>
+        <v>4896</v>
       </c>
       <c r="U427" s="2">
         <v>186735</v>
@@ -36077,19 +36077,102 @@
         <v>-0.9</v>
       </c>
       <c r="W427" s="2">
-        <v>4322.5</v>
+        <v>4322</v>
       </c>
       <c r="X427" s="2">
-        <v>5817.5999999999995</v>
+        <v>5818</v>
       </c>
       <c r="Y427" s="2">
-        <v>0</v>
+        <v>1493.2799070000001</v>
       </c>
       <c r="Z427" s="2">
         <v>2096</v>
       </c>
       <c r="AA427" s="2">
         <v>676220000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27">
+      <c r="A428" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B428" s="2">
+        <v>20891.4614</v>
+      </c>
+      <c r="C428" s="2">
+        <v>56399.4</v>
+      </c>
+      <c r="D428" s="2">
+        <v>0</v>
+      </c>
+      <c r="E428" s="2">
+        <v>0</v>
+      </c>
+      <c r="F428" s="2">
+        <v>0</v>
+      </c>
+      <c r="G428" s="2">
+        <v>0</v>
+      </c>
+      <c r="H428" s="2">
+        <v>0</v>
+      </c>
+      <c r="I428" s="2">
+        <v>0</v>
+      </c>
+      <c r="J428" s="2">
+        <v>0</v>
+      </c>
+      <c r="K428" s="2">
+        <v>0</v>
+      </c>
+      <c r="L428" s="2">
+        <v>0</v>
+      </c>
+      <c r="M428" s="2">
+        <v>0</v>
+      </c>
+      <c r="N428" s="2">
+        <v>0</v>
+      </c>
+      <c r="O428" s="2">
+        <v>0</v>
+      </c>
+      <c r="P428" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q428" s="2">
+        <v>0</v>
+      </c>
+      <c r="R428" s="2">
+        <v>0</v>
+      </c>
+      <c r="S428" s="2">
+        <v>0</v>
+      </c>
+      <c r="T428" s="2">
+        <v>0</v>
+      </c>
+      <c r="U428" s="2">
+        <v>202293</v>
+      </c>
+      <c r="V428" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="W428" s="2">
+        <v>4769.5</v>
+      </c>
+      <c r="X428" s="2">
+        <v>6268.6</v>
+      </c>
+      <c r="Y428" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z428" s="2">
+        <v>2297.1060000000002</v>
+      </c>
+      <c r="AA428" s="2">
+        <v>734777859</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF53EF2F-FA51-4A4D-9F1F-EED09BB48311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624BDD79-2735-46F9-94D0-C570E21A4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -260,58 +260,61 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2023-11</t>
-  </si>
-  <si>
-    <t>2003-07:2023-11</t>
-  </si>
-  <si>
-    <t>1989-02:2023-12</t>
-  </si>
-  <si>
     <t>1995-01:2023-12</t>
-  </si>
-  <si>
-    <t>1997-01:2023-11</t>
-  </si>
-  <si>
-    <t>2002-01:2023-11</t>
-  </si>
-  <si>
-    <t>2005-11:2023-11</t>
-  </si>
-  <si>
-    <t>2009-01:2023-11</t>
-  </si>
-  <si>
-    <t>2009-03:2023-11</t>
-  </si>
-  <si>
-    <t>2015-04:2023-11</t>
-  </si>
-  <si>
-    <t>2008-09:2023-11</t>
   </si>
   <si>
     <t>2003-07:2023-12</t>
   </si>
   <si>
-    <t>1989-01:2023-12</t>
-  </si>
-  <si>
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-01-12</t>
+    <t>1997-01:2023-12</t>
   </si>
   <si>
-    <t>2023-12-25</t>
+    <t>2002-01:2023-12</t>
   </si>
   <si>
-    <t>2024-01-05</t>
+    <t>2005-11:2023-12</t>
   </si>
   <si>
-    <t>2023-12-23</t>
+    <t>2009-01:2023-12</t>
+  </si>
+  <si>
+    <t>2009-03:2023-12</t>
+  </si>
+  <si>
+    <t>2015-04:2023-12</t>
+  </si>
+  <si>
+    <t>2008-09:2023-12</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>1989-02:2024-02</t>
+  </si>
+  <si>
+    <t>1995-01:2024-02</t>
+  </si>
+  <si>
+    <t>2003-07:2024-02</t>
+  </si>
+  <si>
+    <t>1989-01:2024-02</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -712,9 +715,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA428"/>
+  <dimension ref="A1:AA429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1071,82 +1074,82 @@
         <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="U6" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1237,82 +1240,82 @@
         <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="V8" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -35958,10 +35961,10 @@
         <v>31208</v>
       </c>
       <c r="K426" s="2">
-        <v>781.76</v>
+        <v>781.67</v>
       </c>
       <c r="L426" s="2">
-        <v>1567.82</v>
+        <v>1567.81</v>
       </c>
       <c r="M426" s="2">
         <v>19609</v>
@@ -36041,10 +36044,10 @@
         <v>34092</v>
       </c>
       <c r="K427" s="2">
-        <v>992.34</v>
+        <v>991.97</v>
       </c>
       <c r="L427" s="2">
-        <v>1944.49</v>
+        <v>1944.5</v>
       </c>
       <c r="M427" s="2">
         <v>21382</v>
@@ -36100,79 +36103,162 @@
         <v>20891.4614</v>
       </c>
       <c r="C428" s="2">
-        <v>56399.4</v>
+        <v>56399</v>
       </c>
       <c r="D428" s="2">
-        <v>0</v>
+        <v>3900.3487420000001</v>
       </c>
       <c r="E428" s="2">
-        <v>0</v>
+        <v>14910.401737</v>
       </c>
       <c r="F428" s="2">
-        <v>0</v>
+        <v>3465.9144219999998</v>
       </c>
       <c r="G428" s="2">
-        <v>0</v>
+        <v>20365.080081</v>
       </c>
       <c r="H428" s="2">
-        <v>0</v>
+        <v>6302.2473710000004</v>
       </c>
       <c r="I428" s="2">
-        <v>0</v>
+        <v>4602.3960939999997</v>
       </c>
       <c r="J428" s="2">
-        <v>0</v>
+        <v>35118</v>
       </c>
       <c r="K428" s="2">
-        <v>0</v>
+        <v>1146.42</v>
       </c>
       <c r="L428" s="2">
-        <v>0</v>
+        <v>2020.39</v>
       </c>
       <c r="M428" s="2">
-        <v>0</v>
+        <v>25731</v>
       </c>
       <c r="N428" s="2">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="O428" s="2">
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="P428" s="2">
-        <v>0</v>
+        <v>2264</v>
       </c>
       <c r="Q428" s="2">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="R428" s="2">
-        <v>0</v>
+        <v>4044</v>
       </c>
       <c r="S428" s="2">
-        <v>0</v>
+        <v>40079</v>
       </c>
       <c r="T428" s="2">
-        <v>0</v>
+        <v>5091</v>
       </c>
       <c r="U428" s="2">
-        <v>202293</v>
+        <v>202292.98824000001</v>
       </c>
       <c r="V428" s="2">
         <v>-0.7</v>
       </c>
       <c r="W428" s="2">
-        <v>4769.5</v>
+        <v>4769</v>
       </c>
       <c r="X428" s="2">
-        <v>6268.6</v>
+        <v>6269</v>
       </c>
       <c r="Y428" s="2">
-        <v>0</v>
+        <v>1668.1195600000001</v>
       </c>
       <c r="Z428" s="2">
         <v>2297.1060000000002</v>
       </c>
       <c r="AA428" s="2">
         <v>734777859</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
+      <c r="A429" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B429" s="2">
+        <v>3511</v>
+      </c>
+      <c r="C429" s="2">
+        <v>8830.7999999999993</v>
+      </c>
+      <c r="D429" s="2">
+        <v>0</v>
+      </c>
+      <c r="E429" s="2">
+        <v>0</v>
+      </c>
+      <c r="F429" s="2">
+        <v>0</v>
+      </c>
+      <c r="G429" s="2">
+        <v>0</v>
+      </c>
+      <c r="H429" s="2">
+        <v>0</v>
+      </c>
+      <c r="I429" s="2">
+        <v>0</v>
+      </c>
+      <c r="J429" s="2">
+        <v>0</v>
+      </c>
+      <c r="K429" s="2">
+        <v>0</v>
+      </c>
+      <c r="L429" s="2">
+        <v>0</v>
+      </c>
+      <c r="M429" s="2">
+        <v>0</v>
+      </c>
+      <c r="N429" s="2">
+        <v>0</v>
+      </c>
+      <c r="O429" s="2">
+        <v>0</v>
+      </c>
+      <c r="P429" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q429" s="2">
+        <v>0</v>
+      </c>
+      <c r="R429" s="2">
+        <v>0</v>
+      </c>
+      <c r="S429" s="2">
+        <v>0</v>
+      </c>
+      <c r="T429" s="2">
+        <v>0</v>
+      </c>
+      <c r="U429" s="2">
+        <v>18280</v>
+      </c>
+      <c r="V429" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="W429" s="2">
+        <v>757.6</v>
+      </c>
+      <c r="X429" s="2">
+        <v>881.50000000000011</v>
+      </c>
+      <c r="Y429" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z429" s="2">
+        <v>417</v>
+      </c>
+      <c r="AA429" s="2">
+        <v>118760000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624BDD79-2735-46F9-94D0-C570E21A4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF4868-B81F-40AF-A497-B31142E0B9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
@@ -260,46 +260,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2023-12</t>
-  </si>
-  <si>
-    <t>2003-07:2023-12</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
     <t>1997-01:2023-12</t>
   </si>
   <si>
-    <t>2002-01:2023-12</t>
-  </si>
-  <si>
-    <t>2005-11:2023-12</t>
-  </si>
-  <si>
-    <t>2009-01:2023-12</t>
-  </si>
-  <si>
-    <t>2009-03:2023-12</t>
-  </si>
-  <si>
-    <t>2015-04:2023-12</t>
-  </si>
-  <si>
-    <t>2008-09:2023-12</t>
-  </si>
-  <si>
     <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>1989-02:2024-02</t>
   </si>
   <si>
     <t>1995-01:2024-02</t>
@@ -308,13 +272,49 @@
     <t>2003-07:2024-02</t>
   </si>
   <si>
-    <t>1989-01:2024-02</t>
+    <t>1989-02:2024-03</t>
   </si>
   <si>
-    <t>2024-03-18</t>
+    <t>1995-01:2024-03</t>
   </si>
   <si>
-    <t>2024-03-07</t>
+    <t>2002-01:2024-02</t>
+  </si>
+  <si>
+    <t>2005-11:2024-02</t>
+  </si>
+  <si>
+    <t>2009-01:2024-02</t>
+  </si>
+  <si>
+    <t>2009-03:2024-02</t>
+  </si>
+  <si>
+    <t>2015-04:2024-02</t>
+  </si>
+  <si>
+    <t>2008-09:2024-02</t>
+  </si>
+  <si>
+    <t>2003-07:2024-03</t>
+  </si>
+  <si>
+    <t>1989-01:2024-03</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
   </si>
 </sst>
 </file>
@@ -715,9 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA429"/>
+  <dimension ref="A1:AA431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1074,82 +1076,82 @@
         <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1240,82 +1242,82 @@
         <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -36180,85 +36182,251 @@
     </row>
     <row r="429" spans="1:27">
       <c r="A429" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B429" s="2">
+        <v>0</v>
+      </c>
+      <c r="C429" s="2">
+        <v>4417</v>
+      </c>
+      <c r="D429" s="2">
+        <v>0</v>
+      </c>
+      <c r="E429" s="2">
+        <v>0</v>
+      </c>
+      <c r="F429" s="2">
+        <v>0</v>
+      </c>
+      <c r="G429" s="2">
+        <v>0</v>
+      </c>
+      <c r="H429" s="2">
+        <v>0</v>
+      </c>
+      <c r="I429" s="2">
+        <v>0</v>
+      </c>
+      <c r="J429" s="2">
+        <v>30923</v>
+      </c>
+      <c r="K429" s="2">
+        <v>1001.99</v>
+      </c>
+      <c r="L429" s="2">
+        <v>1664.99</v>
+      </c>
+      <c r="M429" s="2">
+        <v>24473</v>
+      </c>
+      <c r="N429" s="2">
+        <v>1433</v>
+      </c>
+      <c r="O429" s="2">
+        <v>2407</v>
+      </c>
+      <c r="P429" s="2">
+        <v>1245</v>
+      </c>
+      <c r="Q429" s="2">
+        <v>5980</v>
+      </c>
+      <c r="R429" s="2">
+        <v>2958</v>
+      </c>
+      <c r="S429" s="2">
+        <v>38546</v>
+      </c>
+      <c r="T429" s="2">
+        <v>4870.5</v>
+      </c>
+      <c r="U429" s="2">
+        <v>0</v>
+      </c>
+      <c r="V429" s="2">
+        <v>0</v>
+      </c>
+      <c r="W429" s="2">
+        <v>408</v>
+      </c>
+      <c r="X429" s="2">
+        <v>462</v>
+      </c>
+      <c r="Y429" s="2">
+        <v>159.81833</v>
+      </c>
+      <c r="Z429" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA429" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
+      <c r="A430" s="3">
         <v>45351</v>
       </c>
-      <c r="B429" s="2">
-        <v>3511</v>
-      </c>
-      <c r="C429" s="2">
-        <v>8830.7999999999993</v>
-      </c>
-      <c r="D429" s="2">
-        <v>0</v>
-      </c>
-      <c r="E429" s="2">
-        <v>0</v>
-      </c>
-      <c r="F429" s="2">
-        <v>0</v>
-      </c>
-      <c r="G429" s="2">
-        <v>0</v>
-      </c>
-      <c r="H429" s="2">
-        <v>0</v>
-      </c>
-      <c r="I429" s="2">
-        <v>0</v>
-      </c>
-      <c r="J429" s="2">
-        <v>0</v>
-      </c>
-      <c r="K429" s="2">
-        <v>0</v>
-      </c>
-      <c r="L429" s="2">
-        <v>0</v>
-      </c>
-      <c r="M429" s="2">
-        <v>0</v>
-      </c>
-      <c r="N429" s="2">
-        <v>0</v>
-      </c>
-      <c r="O429" s="2">
-        <v>0</v>
-      </c>
-      <c r="P429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q429" s="2">
-        <v>0</v>
-      </c>
-      <c r="R429" s="2">
-        <v>0</v>
-      </c>
-      <c r="S429" s="2">
-        <v>0</v>
-      </c>
-      <c r="T429" s="2">
-        <v>0</v>
-      </c>
-      <c r="U429" s="2">
-        <v>18280</v>
-      </c>
-      <c r="V429" s="2">
+      <c r="B430" s="2">
+        <v>3510.9</v>
+      </c>
+      <c r="C430" s="2">
+        <v>8831</v>
+      </c>
+      <c r="D430" s="2">
+        <v>715.62845100000004</v>
+      </c>
+      <c r="E430" s="2">
+        <v>0</v>
+      </c>
+      <c r="F430" s="2">
+        <v>797.22614399999998</v>
+      </c>
+      <c r="G430" s="2">
+        <v>3209.15</v>
+      </c>
+      <c r="H430" s="2">
+        <v>916.08940900000005</v>
+      </c>
+      <c r="I430" s="2">
+        <v>662.16301199999998</v>
+      </c>
+      <c r="J430" s="2">
+        <v>27741</v>
+      </c>
+      <c r="K430" s="2">
+        <v>786.98</v>
+      </c>
+      <c r="L430" s="2">
+        <v>1343.85</v>
+      </c>
+      <c r="M430" s="2">
+        <v>18964</v>
+      </c>
+      <c r="N430" s="2">
+        <v>1321</v>
+      </c>
+      <c r="O430" s="2">
+        <v>2351</v>
+      </c>
+      <c r="P430" s="2">
+        <v>1165</v>
+      </c>
+      <c r="Q430" s="2">
+        <v>5093</v>
+      </c>
+      <c r="R430" s="2">
+        <v>2413</v>
+      </c>
+      <c r="S430" s="2">
+        <v>31412</v>
+      </c>
+      <c r="T430" s="2">
+        <v>4535.3999999999996</v>
+      </c>
+      <c r="U430" s="2">
+        <v>18280.445309999999</v>
+      </c>
+      <c r="V430" s="2">
         <v>-1.6</v>
       </c>
-      <c r="W429" s="2">
-        <v>757.6</v>
-      </c>
-      <c r="X429" s="2">
-        <v>881.50000000000011</v>
-      </c>
-      <c r="Y429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z429" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA429" s="2">
-        <v>118760000</v>
+      <c r="W430" s="2">
+        <v>757.99999999999989</v>
+      </c>
+      <c r="X430" s="2">
+        <v>881</v>
+      </c>
+      <c r="Y430" s="2">
+        <v>307.28999199999998</v>
+      </c>
+      <c r="Z430" s="2">
+        <v>416.7</v>
+      </c>
+      <c r="AA430" s="2">
+        <v>118755000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27">
+      <c r="A431" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B431" s="2">
+        <v>5348</v>
+      </c>
+      <c r="C431" s="2">
+        <v>13735.6</v>
+      </c>
+      <c r="D431" s="2">
+        <v>0</v>
+      </c>
+      <c r="E431" s="2">
+        <v>0</v>
+      </c>
+      <c r="F431" s="2">
+        <v>0</v>
+      </c>
+      <c r="G431" s="2">
+        <v>0</v>
+      </c>
+      <c r="H431" s="2">
+        <v>0</v>
+      </c>
+      <c r="I431" s="2">
+        <v>0</v>
+      </c>
+      <c r="J431" s="2">
+        <v>0</v>
+      </c>
+      <c r="K431" s="2">
+        <v>0</v>
+      </c>
+      <c r="L431" s="2">
+        <v>0</v>
+      </c>
+      <c r="M431" s="2">
+        <v>0</v>
+      </c>
+      <c r="N431" s="2">
+        <v>0</v>
+      </c>
+      <c r="O431" s="2">
+        <v>0</v>
+      </c>
+      <c r="P431" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q431" s="2">
+        <v>0</v>
+      </c>
+      <c r="R431" s="2">
+        <v>0</v>
+      </c>
+      <c r="S431" s="2">
+        <v>0</v>
+      </c>
+      <c r="T431" s="2">
+        <v>0</v>
+      </c>
+      <c r="U431" s="2">
+        <v>33684</v>
+      </c>
+      <c r="V431" s="2">
+        <v>-11.8</v>
+      </c>
+      <c r="W431" s="2">
+        <v>1217.5999999999999</v>
+      </c>
+      <c r="X431" s="2">
+        <v>1481.9</v>
+      </c>
+      <c r="Y431" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z431" s="2">
+        <v>632</v>
+      </c>
+      <c r="AA431" s="2">
+        <v>182460000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BBA92-E76B-418D-AD6F-19DEC52D228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE551F-0A75-4A11-86AE-3DC2E0934CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1989-02:2024-03</t>
-  </si>
-  <si>
     <t>1995-01:2024-03</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
   </si>
   <si>
     <t>2003-07:2024-03</t>
-  </si>
-  <si>
-    <t>1989-01:2024-03</t>
   </si>
   <si>
     <t>2003-05:2024-03</t>
@@ -296,16 +290,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-01-24</t>
   </si>
   <si>
     <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
   </si>
   <si>
     <t>2024-04-22</t>
@@ -330,6 +318,24 @@
   </si>
   <si>
     <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>1989-02:2024-04</t>
+  </si>
+  <si>
+    <t>1995-01:2024-04</t>
+  </si>
+  <si>
+    <t>2003-07:2024-04</t>
+  </si>
+  <si>
+    <t>1989-01:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
   </si>
 </sst>
 </file>
@@ -750,23 +756,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB433"/>
+  <dimension ref="A1:AB434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D395" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
       <selection activeCell="S433" sqref="S433"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1242,257 +1248,257 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37871,6 +37877,92 @@
       </c>
       <c r="AB433" s="3">
         <v>15266</v>
+      </c>
+    </row>
+    <row r="434" spans="1:28">
+      <c r="A434" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B434" s="3">
+        <v>7095</v>
+      </c>
+      <c r="C434" s="3">
+        <v>18206.7</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0</v>
+      </c>
+      <c r="E434" s="3">
+        <v>0</v>
+      </c>
+      <c r="F434" s="3">
+        <v>0</v>
+      </c>
+      <c r="G434" s="3">
+        <v>0</v>
+      </c>
+      <c r="H434" s="3">
+        <v>0</v>
+      </c>
+      <c r="I434" s="3">
+        <v>0</v>
+      </c>
+      <c r="J434" s="3">
+        <v>0</v>
+      </c>
+      <c r="K434" s="3">
+        <v>0</v>
+      </c>
+      <c r="L434" s="3">
+        <v>0</v>
+      </c>
+      <c r="M434" s="3">
+        <v>0</v>
+      </c>
+      <c r="N434" s="3">
+        <v>0</v>
+      </c>
+      <c r="O434" s="3">
+        <v>0</v>
+      </c>
+      <c r="P434" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q434" s="3">
+        <v>0</v>
+      </c>
+      <c r="R434" s="3">
+        <v>0</v>
+      </c>
+      <c r="S434" s="3">
+        <v>0</v>
+      </c>
+      <c r="T434" s="3">
+        <v>0</v>
+      </c>
+      <c r="U434" s="3">
+        <v>50928</v>
+      </c>
+      <c r="V434" s="3">
+        <v>-10.3</v>
+      </c>
+      <c r="W434" s="3">
+        <v>1773.2</v>
+      </c>
+      <c r="X434" s="3">
+        <v>1937.3</v>
+      </c>
+      <c r="Y434" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z434" s="3">
+        <v>830</v>
+      </c>
+      <c r="AA434" s="3">
+        <v>241260000</v>
+      </c>
+      <c r="AB434" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE551F-0A75-4A11-86AE-3DC2E0934CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8014287-A513-48E7-8FF1-FD7CBCD57183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -260,21 +260,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1995-01:2024-03</t>
-  </si>
-  <si>
-    <t>1997-01:2023-12</t>
-  </si>
-  <si>
-    <t>2009-03:2024-03</t>
-  </si>
-  <si>
-    <t>2003-07:2024-03</t>
-  </si>
-  <si>
-    <t>2003-05:2024-03</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -290,52 +275,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2002-01:2024-03</t>
-  </si>
-  <si>
-    <t>2005-11:2024-03</t>
-  </si>
-  <si>
-    <t>2009-01:2024-03</t>
-  </si>
-  <si>
-    <t>2015-04:2024-03</t>
-  </si>
-  <si>
-    <t>2008-09:2024-03</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-05-06</t>
-  </si>
-  <si>
-    <t>1989-02:2024-04</t>
-  </si>
-  <si>
     <t>1995-01:2024-04</t>
   </si>
   <si>
     <t>2003-07:2024-04</t>
   </si>
   <si>
-    <t>1989-01:2024-04</t>
+    <t>1989-02:2024-05</t>
   </si>
   <si>
-    <t>2024-05-17</t>
+    <t>1995-01:2024-05</t>
   </si>
   <si>
-    <t>2024-05-09</t>
+    <t>1997-01:2024-04</t>
+  </si>
+  <si>
+    <t>2002-01:2024-04</t>
+  </si>
+  <si>
+    <t>2005-11:2024-04</t>
+  </si>
+  <si>
+    <t>2009-01:2024-04</t>
+  </si>
+  <si>
+    <t>2009-03:2024-04</t>
+  </si>
+  <si>
+    <t>2015-04:2024-04</t>
+  </si>
+  <si>
+    <t>2008-09:2024-04</t>
+  </si>
+  <si>
+    <t>2003-07:2024-05</t>
+  </si>
+  <si>
+    <t>1989-01:2024-05</t>
+  </si>
+  <si>
+    <t>2003-05:2024-04</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
 </sst>
 </file>
@@ -756,9 +753,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB434"/>
+  <dimension ref="A1:AB435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
       <selection activeCell="S433" sqref="S433"/>
     </sheetView>
   </sheetViews>
@@ -1248,257 +1245,257 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="AA8" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37730,7 +37727,7 @@
         <v>3209.15</v>
       </c>
       <c r="H432" s="3">
-        <v>916.08940900000005</v>
+        <v>1011.780892</v>
       </c>
       <c r="I432" s="3">
         <v>662.16301199999998</v>
@@ -37742,7 +37739,7 @@
         <v>786.98</v>
       </c>
       <c r="L432" s="3">
-        <v>1343.91</v>
+        <v>1343.93</v>
       </c>
       <c r="M432" s="3">
         <v>18964</v>
@@ -37810,13 +37807,13 @@
         <v>0</v>
       </c>
       <c r="F433" s="3">
-        <v>1118.0781999999999</v>
+        <v>1111.672159</v>
       </c>
       <c r="G433" s="3">
         <v>4937.8</v>
       </c>
       <c r="H433" s="3">
-        <v>5009.1425669999999</v>
+        <v>1574.470593</v>
       </c>
       <c r="I433" s="3">
         <v>1144.6011289999999</v>
@@ -37825,10 +37822,10 @@
         <v>33596</v>
       </c>
       <c r="K433" s="3">
-        <v>900.03</v>
+        <v>900.04</v>
       </c>
       <c r="L433" s="3">
-        <v>1671.83</v>
+        <v>1671.88</v>
       </c>
       <c r="M433" s="3">
         <v>20955</v>
@@ -37884,84 +37881,170 @@
         <v>45412</v>
       </c>
       <c r="B434" s="3">
-        <v>7095</v>
+        <v>7095.4</v>
       </c>
       <c r="C434" s="3">
-        <v>18206.7</v>
+        <v>18207</v>
       </c>
       <c r="D434" s="3">
-        <v>0</v>
+        <v>1411.4263269999999</v>
       </c>
       <c r="E434" s="3">
-        <v>0</v>
+        <v>5214.5008690000004</v>
       </c>
       <c r="F434" s="3">
-        <v>0</v>
+        <v>1422.6462509999999</v>
       </c>
       <c r="G434" s="3">
-        <v>0</v>
+        <v>6591.8</v>
       </c>
       <c r="H434" s="3">
-        <v>0</v>
+        <v>2118.6101629999998</v>
       </c>
       <c r="I434" s="3">
-        <v>0</v>
+        <v>1544.0659439999999</v>
       </c>
       <c r="J434" s="3">
-        <v>0</v>
+        <v>30897</v>
       </c>
       <c r="K434" s="3">
-        <v>0</v>
+        <v>1094.94</v>
       </c>
       <c r="L434" s="3">
-        <v>0</v>
+        <v>1981.58</v>
       </c>
       <c r="M434" s="3">
-        <v>0</v>
+        <v>19112</v>
       </c>
       <c r="N434" s="3">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="O434" s="3">
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="P434" s="3">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="Q434" s="3">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="R434" s="3">
-        <v>0</v>
+        <v>3204</v>
       </c>
       <c r="S434" s="3">
-        <v>0</v>
+        <v>30495</v>
       </c>
       <c r="T434" s="3">
-        <v>0</v>
+        <v>4699.2</v>
       </c>
       <c r="U434" s="3">
-        <v>50928</v>
+        <v>50927.9</v>
       </c>
       <c r="V434" s="3">
         <v>-10.3</v>
       </c>
       <c r="W434" s="3">
-        <v>1773.2</v>
+        <v>1773</v>
       </c>
       <c r="X434" s="3">
-        <v>1937.3</v>
+        <v>1937</v>
       </c>
       <c r="Y434" s="3">
-        <v>0</v>
+        <v>597.89326100000005</v>
       </c>
       <c r="Z434" s="3">
-        <v>830</v>
+        <v>830.1</v>
       </c>
       <c r="AA434" s="3">
-        <v>241260000</v>
+        <v>241256000</v>
       </c>
       <c r="AB434" s="3">
+        <v>17196</v>
+      </c>
+    </row>
+    <row r="435" spans="1:28">
+      <c r="A435" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B435" s="3">
+        <v>8910</v>
+      </c>
+      <c r="C435" s="3">
+        <v>22902.899999999998</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0</v>
+      </c>
+      <c r="E435" s="3">
+        <v>0</v>
+      </c>
+      <c r="F435" s="3">
+        <v>0</v>
+      </c>
+      <c r="G435" s="3">
+        <v>0</v>
+      </c>
+      <c r="H435" s="3">
+        <v>0</v>
+      </c>
+      <c r="I435" s="3">
+        <v>0</v>
+      </c>
+      <c r="J435" s="3">
+        <v>0</v>
+      </c>
+      <c r="K435" s="3">
+        <v>0</v>
+      </c>
+      <c r="L435" s="3">
+        <v>0</v>
+      </c>
+      <c r="M435" s="3">
+        <v>0</v>
+      </c>
+      <c r="N435" s="3">
+        <v>0</v>
+      </c>
+      <c r="O435" s="3">
+        <v>0</v>
+      </c>
+      <c r="P435" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>0</v>
+      </c>
+      <c r="R435" s="3">
+        <v>0</v>
+      </c>
+      <c r="S435" s="3">
+        <v>0</v>
+      </c>
+      <c r="T435" s="3">
+        <v>0</v>
+      </c>
+      <c r="U435" s="3">
+        <v>68727</v>
+      </c>
+      <c r="V435" s="3">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="W435" s="3">
+        <v>2210.7000000000003</v>
+      </c>
+      <c r="X435" s="3">
+        <v>2472.4</v>
+      </c>
+      <c r="Y435" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z435" s="3">
+        <v>1033</v>
+      </c>
+      <c r="AA435" s="3">
+        <v>301770000</v>
+      </c>
+      <c r="AB435" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8014287-A513-48E7-8FF1-FD7CBCD57183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF2225-9849-4106-B2BE-05E45450E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -275,64 +275,70 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-04</t>
-  </si>
-  <si>
-    <t>2003-07:2024-04</t>
-  </si>
-  <si>
-    <t>1989-02:2024-05</t>
-  </si>
-  <si>
     <t>1995-01:2024-05</t>
-  </si>
-  <si>
-    <t>1997-01:2024-04</t>
-  </si>
-  <si>
-    <t>2002-01:2024-04</t>
-  </si>
-  <si>
-    <t>2005-11:2024-04</t>
-  </si>
-  <si>
-    <t>2009-01:2024-04</t>
-  </si>
-  <si>
-    <t>2009-03:2024-04</t>
-  </si>
-  <si>
-    <t>2015-04:2024-04</t>
-  </si>
-  <si>
-    <t>2008-09:2024-04</t>
   </si>
   <si>
     <t>2003-07:2024-05</t>
   </si>
   <si>
-    <t>1989-01:2024-05</t>
-  </si>
-  <si>
-    <t>2003-05:2024-04</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>1989-02:2024-06</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>1995-01:2024-06</t>
   </si>
   <si>
-    <t>2024-06-03</t>
+    <t>1997-01:2024-05</t>
   </si>
   <si>
-    <t>2024-05-22</t>
+    <t>2002-01:2024-05</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2005-11:2024-05</t>
+  </si>
+  <si>
+    <t>2009-01:2024-05</t>
+  </si>
+  <si>
+    <t>2009-03:2024-05</t>
+  </si>
+  <si>
+    <t>2015-04:2024-05</t>
+  </si>
+  <si>
+    <t>2008-09:2024-05</t>
+  </si>
+  <si>
+    <t>2003-07:2024-06</t>
+  </si>
+  <si>
+    <t>1989-01:2024-06</t>
+  </si>
+  <si>
+    <t>2003-05:2024-05</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-06-22</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
   </si>
 </sst>
 </file>
@@ -753,9 +759,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB435"/>
+  <dimension ref="A1:AB436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S433" sqref="S433"/>
     </sheetView>
   </sheetViews>
@@ -1245,85 +1251,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="S8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1423,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37822,7 +37828,7 @@
         <v>33596</v>
       </c>
       <c r="K433" s="3">
-        <v>900.04</v>
+        <v>900.07</v>
       </c>
       <c r="L433" s="3">
         <v>1671.88</v>
@@ -37911,7 +37917,7 @@
         <v>1094.94</v>
       </c>
       <c r="L434" s="3">
-        <v>1981.58</v>
+        <v>1981.61</v>
       </c>
       <c r="M434" s="3">
         <v>19112</v>
@@ -37967,84 +37973,170 @@
         <v>45443</v>
       </c>
       <c r="B435" s="3">
-        <v>8910</v>
+        <v>8910.1</v>
       </c>
       <c r="C435" s="3">
-        <v>22902.899999999998</v>
+        <v>22903</v>
       </c>
       <c r="D435" s="3">
-        <v>0</v>
+        <v>1765.750344</v>
       </c>
       <c r="E435" s="3">
-        <v>0</v>
+        <v>6510.8008730000001</v>
       </c>
       <c r="F435" s="3">
-        <v>0</v>
+        <v>1753.577213</v>
       </c>
       <c r="G435" s="3">
-        <v>0</v>
+        <v>8219.7000019999996</v>
       </c>
       <c r="H435" s="3">
-        <v>0</v>
+        <v>2495.8930970000001</v>
       </c>
       <c r="I435" s="3">
-        <v>0</v>
+        <v>1940.022416</v>
       </c>
       <c r="J435" s="3">
-        <v>0</v>
+        <v>31731</v>
       </c>
       <c r="K435" s="3">
-        <v>0</v>
+        <v>967.89</v>
       </c>
       <c r="L435" s="3">
-        <v>0</v>
+        <v>2014.61</v>
       </c>
       <c r="M435" s="3">
-        <v>0</v>
+        <v>19176</v>
       </c>
       <c r="N435" s="3">
-        <v>0</v>
+        <v>1551</v>
       </c>
       <c r="O435" s="3">
-        <v>0</v>
+        <v>2259</v>
       </c>
       <c r="P435" s="3">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="Q435" s="3">
-        <v>0</v>
+        <v>1598</v>
       </c>
       <c r="R435" s="3">
-        <v>0</v>
+        <v>3263</v>
       </c>
       <c r="S435" s="3">
-        <v>0</v>
+        <v>31010</v>
       </c>
       <c r="T435" s="3">
-        <v>0</v>
+        <v>5000.7</v>
       </c>
       <c r="U435" s="3">
-        <v>68727</v>
+        <v>68727.3</v>
       </c>
       <c r="V435" s="3">
         <v>-9.8000000000000007</v>
       </c>
       <c r="W435" s="3">
-        <v>2210.7000000000003</v>
+        <v>2211</v>
       </c>
       <c r="X435" s="3">
-        <v>2472.4</v>
+        <v>2472</v>
       </c>
       <c r="Y435" s="3">
-        <v>0</v>
+        <v>754.66884100000004</v>
       </c>
       <c r="Z435" s="3">
-        <v>1033</v>
+        <v>1032.8</v>
       </c>
       <c r="AA435" s="3">
-        <v>301770000</v>
+        <v>301772000</v>
       </c>
       <c r="AB435" s="3">
+        <v>18951</v>
+      </c>
+    </row>
+    <row r="436" spans="1:28">
+      <c r="A436" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B436" s="3">
+        <v>10705</v>
+      </c>
+      <c r="C436" s="3">
+        <v>27548.400000000001</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0</v>
+      </c>
+      <c r="E436" s="3">
+        <v>0</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0</v>
+      </c>
+      <c r="G436" s="3">
+        <v>0</v>
+      </c>
+      <c r="H436" s="3">
+        <v>0</v>
+      </c>
+      <c r="I436" s="3">
+        <v>0</v>
+      </c>
+      <c r="J436" s="3">
+        <v>0</v>
+      </c>
+      <c r="K436" s="3">
+        <v>0</v>
+      </c>
+      <c r="L436" s="3">
+        <v>0</v>
+      </c>
+      <c r="M436" s="3">
+        <v>0</v>
+      </c>
+      <c r="N436" s="3">
+        <v>0</v>
+      </c>
+      <c r="O436" s="3">
+        <v>0</v>
+      </c>
+      <c r="P436" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q436" s="3">
+        <v>0</v>
+      </c>
+      <c r="R436" s="3">
+        <v>0</v>
+      </c>
+      <c r="S436" s="3">
+        <v>0</v>
+      </c>
+      <c r="T436" s="3">
+        <v>0</v>
+      </c>
+      <c r="U436" s="3">
+        <v>85047</v>
+      </c>
+      <c r="V436" s="3">
+        <v>-10</v>
+      </c>
+      <c r="W436" s="3">
+        <v>2507.6000000000004</v>
+      </c>
+      <c r="X436" s="3">
+        <v>3009.4</v>
+      </c>
+      <c r="Y436" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z436" s="3">
+        <v>1236</v>
+      </c>
+      <c r="AA436" s="3">
+        <v>360090000</v>
+      </c>
+      <c r="AB436" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF2225-9849-4106-B2BE-05E45450E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A29ED-9360-47B3-9CB1-A3EB627FA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -281,9 +281,6 @@
     <t>2003-07:2024-05</t>
   </si>
   <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
     <t>1989-02:2024-06</t>
   </si>
   <si>
@@ -317,13 +314,7 @@
     <t>1989-01:2024-06</t>
   </si>
   <si>
-    <t>2003-05:2024-05</t>
-  </si>
-  <si>
     <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
   </si>
   <si>
     <t>2024-06-24</t>
@@ -335,10 +326,16 @@
     <t>2024-06-22</t>
   </si>
   <si>
-    <t>2024-06-28</t>
+    <t>2003-05:2024-06</t>
   </si>
   <si>
-    <t>2024-06-18</t>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
   </si>
 </sst>
 </file>
@@ -1251,85 +1248,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="X8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1423,82 +1420,82 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>92</v>
@@ -38059,10 +38056,10 @@
         <v>45473</v>
       </c>
       <c r="B436" s="3">
-        <v>10705</v>
+        <v>10704.7</v>
       </c>
       <c r="C436" s="3">
-        <v>27548.400000000001</v>
+        <v>27547.999999999996</v>
       </c>
       <c r="D436" s="3">
         <v>0</v>
@@ -38116,28 +38113,28 @@
         <v>0</v>
       </c>
       <c r="U436" s="3">
-        <v>85047</v>
+        <v>85046.76281</v>
       </c>
       <c r="V436" s="3">
         <v>-10</v>
       </c>
       <c r="W436" s="3">
-        <v>2507.6000000000004</v>
+        <v>2508</v>
       </c>
       <c r="X436" s="3">
-        <v>3009.4</v>
+        <v>3009</v>
       </c>
       <c r="Y436" s="3">
         <v>0</v>
       </c>
       <c r="Z436" s="3">
-        <v>1236</v>
+        <v>1235.5999999999999</v>
       </c>
       <c r="AA436" s="3">
-        <v>360090000</v>
+        <v>360089000</v>
       </c>
       <c r="AB436" s="3">
-        <v>0</v>
+        <v>20454</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A29ED-9360-47B3-9CB1-A3EB627FA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85560AFD-BB0A-4D16-9FE0-EFA71C89987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -275,28 +275,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-05</t>
-  </si>
-  <si>
-    <t>2003-07:2024-05</t>
-  </si>
-  <si>
     <t>1989-02:2024-06</t>
   </si>
   <si>
     <t>1995-01:2024-06</t>
-  </si>
-  <si>
-    <t>1997-01:2024-05</t>
-  </si>
-  <si>
-    <t>2002-01:2024-05</t>
-  </si>
-  <si>
-    <t>2005-11:2024-05</t>
-  </si>
-  <si>
-    <t>2009-01:2024-05</t>
   </si>
   <si>
     <t>2009-03:2024-05</t>
@@ -317,13 +299,7 @@
     <t>2024-07-15</t>
   </si>
   <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
     <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>2024-06-22</t>
   </si>
   <si>
     <t>2003-05:2024-06</t>
@@ -336,6 +312,27 @@
   </si>
   <si>
     <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>1997-01:2024-06</t>
+  </si>
+  <si>
+    <t>2002-01:2024-06</t>
+  </si>
+  <si>
+    <t>2005-11:2024-06</t>
+  </si>
+  <si>
+    <t>2009-01:2024-06</t>
+  </si>
+  <si>
+    <t>2009-03:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
   </si>
 </sst>
 </file>
@@ -758,21 +755,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S433" sqref="S433"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1248,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="V8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="Z10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37911,10 +37908,10 @@
         <v>30897</v>
       </c>
       <c r="K434" s="3">
-        <v>1094.94</v>
+        <v>1078.78</v>
       </c>
       <c r="L434" s="3">
-        <v>1981.61</v>
+        <v>1997.78</v>
       </c>
       <c r="M434" s="3">
         <v>19112</v>
@@ -38000,7 +37997,7 @@
         <v>967.89</v>
       </c>
       <c r="L435" s="3">
-        <v>2014.61</v>
+        <v>2014.64</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38062,31 +38059,31 @@
         <v>27547.999999999996</v>
       </c>
       <c r="D436" s="3">
-        <v>0</v>
+        <v>2108.0913190000001</v>
       </c>
       <c r="E436" s="3">
-        <v>0</v>
+        <v>7790.8008879999998</v>
       </c>
       <c r="F436" s="3">
-        <v>0</v>
+        <v>2056.8190260000001</v>
       </c>
       <c r="G436" s="3">
-        <v>0</v>
+        <v>9792.2000019999996</v>
       </c>
       <c r="H436" s="3">
-        <v>0</v>
+        <v>2836.7340180000001</v>
       </c>
       <c r="I436" s="3">
-        <v>0</v>
+        <v>2313.6516809999998</v>
       </c>
       <c r="J436" s="3">
         <v>0</v>
       </c>
       <c r="K436" s="3">
-        <v>0</v>
+        <v>986.73</v>
       </c>
       <c r="L436" s="3">
-        <v>0</v>
+        <v>2062.35</v>
       </c>
       <c r="M436" s="3">
         <v>0</v>
@@ -38125,7 +38122,7 @@
         <v>3009</v>
       </c>
       <c r="Y436" s="3">
-        <v>0</v>
+        <v>898.94603099999995</v>
       </c>
       <c r="Z436" s="3">
         <v>1235.5999999999999</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85560AFD-BB0A-4D16-9FE0-EFA71C89987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B8B51-6B89-470D-8CE6-00ACC644C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -275,40 +275,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-06</t>
-  </si>
-  <si>
     <t>1995-01:2024-06</t>
-  </si>
-  <si>
-    <t>2009-03:2024-05</t>
-  </si>
-  <si>
-    <t>2015-04:2024-05</t>
-  </si>
-  <si>
-    <t>2008-09:2024-05</t>
   </si>
   <si>
     <t>2003-07:2024-06</t>
   </si>
   <si>
-    <t>1989-01:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
     <t>2003-05:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
   </si>
   <si>
     <t>2024-07-22</t>
@@ -333,6 +306,33 @@
   </si>
   <si>
     <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>1989-02:2024-07</t>
+  </si>
+  <si>
+    <t>1995-01:2024-07</t>
+  </si>
+  <si>
+    <t>2015-04:2024-06</t>
+  </si>
+  <si>
+    <t>2008-09:2024-06</t>
+  </si>
+  <si>
+    <t>2003-07:2024-07</t>
+  </si>
+  <si>
+    <t>1989-01:2024-07</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
   </si>
 </sst>
 </file>
@@ -753,23 +753,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB436"/>
+  <dimension ref="A1:AB437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1245,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38077,7 +38077,7 @@
         <v>2313.6516809999998</v>
       </c>
       <c r="J436" s="3">
-        <v>0</v>
+        <v>33079</v>
       </c>
       <c r="K436" s="3">
         <v>986.73</v>
@@ -38086,28 +38086,28 @@
         <v>2062.35</v>
       </c>
       <c r="M436" s="3">
-        <v>0</v>
+        <v>21017</v>
       </c>
       <c r="N436" s="3">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="O436" s="3">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="P436" s="3">
-        <v>0</v>
+        <v>2549</v>
       </c>
       <c r="Q436" s="3">
-        <v>0</v>
+        <v>1501</v>
       </c>
       <c r="R436" s="3">
-        <v>0</v>
+        <v>3703</v>
       </c>
       <c r="S436" s="3">
-        <v>0</v>
+        <v>32613</v>
       </c>
       <c r="T436" s="3">
-        <v>0</v>
+        <v>5097.4799999999996</v>
       </c>
       <c r="U436" s="3">
         <v>85046.76281</v>
@@ -38132,6 +38132,92 @@
       </c>
       <c r="AB436" s="3">
         <v>20454</v>
+      </c>
+    </row>
+    <row r="437" spans="1:28">
+      <c r="A437" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B437" s="3">
+        <v>12496</v>
+      </c>
+      <c r="C437" s="3">
+        <v>31781.3</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0</v>
+      </c>
+      <c r="E437" s="3">
+        <v>0</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3">
+        <v>0</v>
+      </c>
+      <c r="K437" s="3">
+        <v>0</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0</v>
+      </c>
+      <c r="M437" s="3">
+        <v>0</v>
+      </c>
+      <c r="N437" s="3">
+        <v>0</v>
+      </c>
+      <c r="O437" s="3">
+        <v>0</v>
+      </c>
+      <c r="P437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>0</v>
+      </c>
+      <c r="R437" s="3">
+        <v>0</v>
+      </c>
+      <c r="S437" s="3">
+        <v>0</v>
+      </c>
+      <c r="T437" s="3">
+        <v>0</v>
+      </c>
+      <c r="U437" s="3">
+        <v>100145</v>
+      </c>
+      <c r="V437" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="W437" s="3">
+        <v>2832</v>
+      </c>
+      <c r="X437" s="3">
+        <v>3508</v>
+      </c>
+      <c r="Y437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z437" s="3">
+        <v>1436</v>
+      </c>
+      <c r="AA437" s="3">
+        <v>419150000</v>
+      </c>
+      <c r="AB437" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B8B51-6B89-470D-8CE6-00ACC644C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E049BC80-90F8-4ED5-A9E5-EA8DAA9EF615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -275,64 +275,64 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-06</t>
-  </si>
-  <si>
-    <t>2003-07:2024-06</t>
-  </si>
-  <si>
-    <t>2003-05:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-22</t>
-  </si>
-  <si>
-    <t>1997-01:2024-06</t>
-  </si>
-  <si>
-    <t>2002-01:2024-06</t>
-  </si>
-  <si>
-    <t>2005-11:2024-06</t>
-  </si>
-  <si>
-    <t>2009-01:2024-06</t>
-  </si>
-  <si>
-    <t>2009-03:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>2024-07-23</t>
-  </si>
-  <si>
-    <t>1989-02:2024-07</t>
-  </si>
-  <si>
     <t>1995-01:2024-07</t>
-  </si>
-  <si>
-    <t>2015-04:2024-06</t>
-  </si>
-  <si>
-    <t>2008-09:2024-06</t>
   </si>
   <si>
     <t>2003-07:2024-07</t>
   </si>
   <si>
-    <t>1989-01:2024-07</t>
+    <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>1995-01:2024-08</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>1997-01:2024-07</t>
   </si>
   <si>
-    <t>2024-08-05</t>
+    <t>2002-01:2024-07</t>
+  </si>
+  <si>
+    <t>2005-11:2024-07</t>
+  </si>
+  <si>
+    <t>2009-01:2024-07</t>
+  </si>
+  <si>
+    <t>2009-03:2024-07</t>
+  </si>
+  <si>
+    <t>2015-04:2024-07</t>
+  </si>
+  <si>
+    <t>2008-09:2024-07</t>
+  </si>
+  <si>
+    <t>2003-07:2024-08</t>
+  </si>
+  <si>
+    <t>1989-01:2024-08</t>
+  </si>
+  <si>
+    <t>2003-05:2024-07</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
   </si>
 </sst>
 </file>
@@ -753,9 +753,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB437"/>
+  <dimension ref="A1:AB438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
@@ -1245,10 +1245,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
@@ -1290,7 +1290,7 @@
         <v>80</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>80</v>
@@ -1299,31 +1299,31 @@
         <v>80</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37997,7 +37997,7 @@
         <v>967.89</v>
       </c>
       <c r="L435" s="3">
-        <v>2014.64</v>
+        <v>2014.56</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38083,7 +38083,7 @@
         <v>986.73</v>
       </c>
       <c r="L436" s="3">
-        <v>2062.35</v>
+        <v>2069.5300000000002</v>
       </c>
       <c r="M436" s="3">
         <v>21017</v>
@@ -38142,61 +38142,61 @@
         <v>12496</v>
       </c>
       <c r="C437" s="3">
-        <v>31781.3</v>
+        <v>31781.000000000004</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>2453.616661</v>
       </c>
       <c r="E437" s="3">
-        <v>0</v>
+        <v>9105.7008879999994</v>
       </c>
       <c r="F437" s="3">
-        <v>0</v>
+        <v>2373.6453820000002</v>
       </c>
       <c r="G437" s="3">
-        <v>0</v>
+        <v>11355.700002</v>
       </c>
       <c r="H437" s="3">
-        <v>0</v>
+        <v>3187.5813750000002</v>
       </c>
       <c r="I437" s="3">
-        <v>0</v>
+        <v>2692.0708460000001</v>
       </c>
       <c r="J437" s="3">
-        <v>0</v>
+        <v>31386</v>
       </c>
       <c r="K437" s="3">
-        <v>0</v>
+        <v>1084.1300000000001</v>
       </c>
       <c r="L437" s="3">
-        <v>0</v>
+        <v>1979.43</v>
       </c>
       <c r="M437" s="3">
-        <v>0</v>
+        <v>24167</v>
       </c>
       <c r="N437" s="3">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="O437" s="3">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="P437" s="3">
-        <v>0</v>
+        <v>2281</v>
       </c>
       <c r="Q437" s="3">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="R437" s="3">
-        <v>0</v>
+        <v>4020</v>
       </c>
       <c r="S437" s="3">
-        <v>0</v>
+        <v>35853</v>
       </c>
       <c r="T437" s="3">
-        <v>0</v>
+        <v>5018.16</v>
       </c>
       <c r="U437" s="3">
-        <v>100145</v>
+        <v>100145.44007</v>
       </c>
       <c r="V437" s="3">
         <v>-10.5</v>
@@ -38208,15 +38208,101 @@
         <v>3508</v>
       </c>
       <c r="Y437" s="3">
-        <v>0</v>
+        <v>1048.965696</v>
       </c>
       <c r="Z437" s="3">
-        <v>1436</v>
+        <v>1436.4</v>
       </c>
       <c r="AA437" s="3">
-        <v>419150000</v>
+        <v>419151000</v>
       </c>
       <c r="AB437" s="3">
+        <v>21915</v>
+      </c>
+    </row>
+    <row r="438" spans="1:28">
+      <c r="A438" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B438" s="3">
+        <v>14279</v>
+      </c>
+      <c r="C438" s="3">
+        <v>36691.4</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0</v>
+      </c>
+      <c r="E438" s="3">
+        <v>0</v>
+      </c>
+      <c r="F438" s="3">
+        <v>0</v>
+      </c>
+      <c r="G438" s="3">
+        <v>0</v>
+      </c>
+      <c r="H438" s="3">
+        <v>0</v>
+      </c>
+      <c r="I438" s="3">
+        <v>0</v>
+      </c>
+      <c r="J438" s="3">
+        <v>0</v>
+      </c>
+      <c r="K438" s="3">
+        <v>0</v>
+      </c>
+      <c r="L438" s="3">
+        <v>0</v>
+      </c>
+      <c r="M438" s="3">
+        <v>0</v>
+      </c>
+      <c r="N438" s="3">
+        <v>0</v>
+      </c>
+      <c r="O438" s="3">
+        <v>0</v>
+      </c>
+      <c r="P438" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>0</v>
+      </c>
+      <c r="R438" s="3">
+        <v>0</v>
+      </c>
+      <c r="S438" s="3">
+        <v>0</v>
+      </c>
+      <c r="T438" s="3">
+        <v>0</v>
+      </c>
+      <c r="U438" s="3">
+        <v>115907</v>
+      </c>
+      <c r="V438" s="3">
+        <v>-10.7</v>
+      </c>
+      <c r="W438" s="3">
+        <v>3250.6</v>
+      </c>
+      <c r="X438" s="3">
+        <v>4000.3999999999996</v>
+      </c>
+      <c r="Y438" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z438" s="3">
+        <v>1637</v>
+      </c>
+      <c r="AA438" s="3">
+        <v>472530000</v>
+      </c>
+      <c r="AB438" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E049BC80-90F8-4ED5-A9E5-EA8DAA9EF615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D94B72-7C16-43C7-8EB0-D1FCF9AACBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -275,28 +275,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-07</t>
-  </si>
-  <si>
-    <t>2003-07:2024-07</t>
-  </si>
-  <si>
     <t>1989-02:2024-08</t>
   </si>
   <si>
     <t>1995-01:2024-08</t>
-  </si>
-  <si>
-    <t>1997-01:2024-07</t>
-  </si>
-  <si>
-    <t>2002-01:2024-07</t>
-  </si>
-  <si>
-    <t>2005-11:2024-07</t>
-  </si>
-  <si>
-    <t>2009-01:2024-07</t>
   </si>
   <si>
     <t>2009-03:2024-07</t>
@@ -314,25 +296,43 @@
     <t>1989-01:2024-08</t>
   </si>
   <si>
-    <t>2003-05:2024-07</t>
-  </si>
-  <si>
     <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
   </si>
   <si>
     <t>2024-09-04</t>
   </si>
   <si>
-    <t>2024-08-22</t>
+    <t>2024-09-19</t>
   </si>
   <si>
-    <t>2024-09-05</t>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>1997-01:2024-08</t>
+  </si>
+  <si>
+    <t>2002-01:2024-08</t>
+  </si>
+  <si>
+    <t>2005-11:2024-08</t>
+  </si>
+  <si>
+    <t>2009-01:2024-08</t>
+  </si>
+  <si>
+    <t>2009-03:2024-08</t>
+  </si>
+  <si>
+    <t>2003-05:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -755,24 +755,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1245,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="V8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="AA8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37650,10 +37650,10 @@
         <v>30923</v>
       </c>
       <c r="K431" s="3">
-        <v>1002.12</v>
+        <v>998.74</v>
       </c>
       <c r="L431" s="3">
-        <v>1664.98</v>
+        <v>1668.52</v>
       </c>
       <c r="M431" s="3">
         <v>24473</v>
@@ -37825,7 +37825,7 @@
         <v>900.07</v>
       </c>
       <c r="L433" s="3">
-        <v>1671.88</v>
+        <v>1672.56</v>
       </c>
       <c r="M433" s="3">
         <v>20955</v>
@@ -37911,7 +37911,7 @@
         <v>1078.78</v>
       </c>
       <c r="L434" s="3">
-        <v>1997.78</v>
+        <v>1999.25</v>
       </c>
       <c r="M434" s="3">
         <v>19112</v>
@@ -37997,7 +37997,7 @@
         <v>967.89</v>
       </c>
       <c r="L435" s="3">
-        <v>2014.56</v>
+        <v>2015.35</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38080,7 +38080,7 @@
         <v>33079</v>
       </c>
       <c r="K436" s="3">
-        <v>986.73</v>
+        <v>986.72</v>
       </c>
       <c r="L436" s="3">
         <v>2069.5300000000002</v>
@@ -38169,7 +38169,7 @@
         <v>1084.1300000000001</v>
       </c>
       <c r="L437" s="3">
-        <v>1979.43</v>
+        <v>1979.49</v>
       </c>
       <c r="M437" s="3">
         <v>24167</v>
@@ -38225,37 +38225,37 @@
         <v>45535</v>
       </c>
       <c r="B438" s="3">
-        <v>14279</v>
+        <v>14279.5</v>
       </c>
       <c r="C438" s="3">
-        <v>36691.4</v>
+        <v>36691</v>
       </c>
       <c r="D438" s="3">
-        <v>0</v>
+        <v>2811.0078440000002</v>
       </c>
       <c r="E438" s="3">
-        <v>0</v>
+        <v>10255.904972</v>
       </c>
       <c r="F438" s="3">
-        <v>0</v>
+        <v>2651.466007</v>
       </c>
       <c r="G438" s="3">
-        <v>0</v>
+        <v>12715.741346999999</v>
       </c>
       <c r="H438" s="3">
-        <v>0</v>
+        <v>3561.5330589999999</v>
       </c>
       <c r="I438" s="3">
-        <v>0</v>
+        <v>3035.3572039999999</v>
       </c>
       <c r="J438" s="3">
         <v>0</v>
       </c>
       <c r="K438" s="3">
-        <v>0</v>
+        <v>1069.96</v>
       </c>
       <c r="L438" s="3">
-        <v>0</v>
+        <v>2042.54</v>
       </c>
       <c r="M438" s="3">
         <v>0</v>
@@ -38282,28 +38282,28 @@
         <v>0</v>
       </c>
       <c r="U438" s="3">
-        <v>115907</v>
+        <v>115906.71167</v>
       </c>
       <c r="V438" s="3">
         <v>-10.7</v>
       </c>
       <c r="W438" s="3">
-        <v>3250.6</v>
+        <v>3251</v>
       </c>
       <c r="X438" s="3">
-        <v>4000.3999999999996</v>
+        <v>3999.9999999999995</v>
       </c>
       <c r="Y438" s="3">
-        <v>0</v>
+        <v>1211.461742</v>
       </c>
       <c r="Z438" s="3">
-        <v>1637</v>
+        <v>1636.6</v>
       </c>
       <c r="AA438" s="3">
-        <v>472530000</v>
+        <v>472532000</v>
       </c>
       <c r="AB438" s="3">
-        <v>0</v>
+        <v>23389</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D94B72-7C16-43C7-8EB0-D1FCF9AACBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05618F4-D2CD-47C9-9BF2-3593C0059625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05618F4-D2CD-47C9-9BF2-3593C0059625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057EFF4-E6D3-43B1-B6E2-48A84BBF100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057EFF4-E6D3-43B1-B6E2-48A84BBF100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89272D01-DEE2-49E4-B641-CA48635AB54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89272D01-DEE2-49E4-B641-CA48635AB54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74DF3A-88FA-4B0F-A99A-25F2403BAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74DF3A-88FA-4B0F-A99A-25F2403BAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD8D30-3BBD-40FD-93BC-959D9E32DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -281,15 +281,6 @@
     <t>1995-01:2024-08</t>
   </si>
   <si>
-    <t>2009-03:2024-07</t>
-  </si>
-  <si>
-    <t>2015-04:2024-07</t>
-  </si>
-  <si>
-    <t>2008-09:2024-07</t>
-  </si>
-  <si>
     <t>2003-07:2024-08</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
   </si>
   <si>
     <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
   </si>
   <si>
     <t>2024-09-19</t>
@@ -333,6 +321,15 @@
   </si>
   <si>
     <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2015-04:2024-08</t>
+  </si>
+  <si>
+    <t>2008-09:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
   </si>
 </sst>
 </file>
@@ -1254,52 +1251,52 @@
         <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>72</v>
@@ -1308,22 +1305,22 @@
         <v>72</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1414,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38249,7 +38246,7 @@
         <v>3035.3572039999999</v>
       </c>
       <c r="J438" s="3">
-        <v>0</v>
+        <v>31667</v>
       </c>
       <c r="K438" s="3">
         <v>1069.96</v>
@@ -38258,28 +38255,28 @@
         <v>2042.54</v>
       </c>
       <c r="M438" s="3">
-        <v>0</v>
+        <v>25482</v>
       </c>
       <c r="N438" s="3">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="O438" s="3">
-        <v>0</v>
+        <v>2394</v>
       </c>
       <c r="P438" s="3">
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="Q438" s="3">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="R438" s="3">
-        <v>0</v>
+        <v>4033</v>
       </c>
       <c r="S438" s="3">
-        <v>0</v>
+        <v>37189</v>
       </c>
       <c r="T438" s="3">
-        <v>0</v>
+        <v>4967.3100000000004</v>
       </c>
       <c r="U438" s="3">
         <v>115906.71167</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD8D30-3BBD-40FD-93BC-959D9E32DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1BFBB-87AC-477F-82C0-4EC2899EB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -756,20 +756,20 @@
       <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1BFBB-87AC-477F-82C0-4EC2899EB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88100522-0C02-4473-BE7A-5501BC8CC8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88100522-0C02-4473-BE7A-5501BC8CC8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA8E03B-31B7-4CD8-A28F-3B1C43F6F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -752,24 +752,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
       <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA8E03B-31B7-4CD8-A28F-3B1C43F6F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EAEAF-7E0E-4C21-832F-92740D4A860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -293,9 +293,6 @@
     <t>2024-09-19</t>
   </si>
   <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
     <t>1997-01:2024-08</t>
   </si>
   <si>
@@ -330,6 +327,15 @@
   </si>
   <si>
     <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>1995-01:2024-09</t>
+  </si>
+  <si>
+    <t>2003-07:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB438"/>
+  <dimension ref="A1:AB439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
       <selection activeCell="A438" sqref="A438"/>
@@ -1245,58 +1251,58 @@
         <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>72</v>
@@ -1305,10 +1311,10 @@
         <v>72</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>73</v>
@@ -1320,7 +1326,7 @@
         <v>75</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,58 +1423,58 @@
         <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>77</v>
@@ -1477,13 +1483,13 @@
         <v>76</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>77</v>
@@ -1492,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38301,6 +38307,92 @@
       </c>
       <c r="AB438" s="3">
         <v>23389</v>
+      </c>
+    </row>
+    <row r="439" spans="1:28">
+      <c r="A439" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B439" s="3">
+        <v>0</v>
+      </c>
+      <c r="C439" s="3">
+        <v>41238.800000000003</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0</v>
+      </c>
+      <c r="E439" s="3">
+        <v>0</v>
+      </c>
+      <c r="F439" s="3">
+        <v>0</v>
+      </c>
+      <c r="G439" s="3">
+        <v>0</v>
+      </c>
+      <c r="H439" s="3">
+        <v>0</v>
+      </c>
+      <c r="I439" s="3">
+        <v>0</v>
+      </c>
+      <c r="J439" s="3">
+        <v>0</v>
+      </c>
+      <c r="K439" s="3">
+        <v>0</v>
+      </c>
+      <c r="L439" s="3">
+        <v>0</v>
+      </c>
+      <c r="M439" s="3">
+        <v>0</v>
+      </c>
+      <c r="N439" s="3">
+        <v>0</v>
+      </c>
+      <c r="O439" s="3">
+        <v>0</v>
+      </c>
+      <c r="P439" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q439" s="3">
+        <v>0</v>
+      </c>
+      <c r="R439" s="3">
+        <v>0</v>
+      </c>
+      <c r="S439" s="3">
+        <v>0</v>
+      </c>
+      <c r="T439" s="3">
+        <v>0</v>
+      </c>
+      <c r="U439" s="3">
+        <v>0</v>
+      </c>
+      <c r="V439" s="3">
+        <v>0</v>
+      </c>
+      <c r="W439" s="3">
+        <v>3698.4</v>
+      </c>
+      <c r="X439" s="3">
+        <v>4519.8999999999996</v>
+      </c>
+      <c r="Y439" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z439" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA439" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB439" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EAEAF-7E0E-4C21-832F-92740D4A860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C9516-B3FF-4953-B933-76BF6FE09CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -275,22 +275,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-08</t>
-  </si>
-  <si>
     <t>1995-01:2024-08</t>
   </si>
   <si>
     <t>2003-07:2024-08</t>
-  </si>
-  <si>
-    <t>1989-01:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
   </si>
   <si>
     <t>1997-01:2024-08</t>
@@ -336,6 +324,15 @@
   </si>
   <si>
     <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>1989-01:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -1248,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38314,10 +38311,10 @@
         <v>45565</v>
       </c>
       <c r="B439" s="3">
-        <v>0</v>
+        <v>15987</v>
       </c>
       <c r="C439" s="3">
-        <v>41238.800000000003</v>
+        <v>41239</v>
       </c>
       <c r="D439" s="3">
         <v>0</v>
@@ -38371,25 +38368,25 @@
         <v>0</v>
       </c>
       <c r="U439" s="3">
-        <v>0</v>
+        <v>132670</v>
       </c>
       <c r="V439" s="3">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="W439" s="3">
-        <v>3698.4</v>
+        <v>3698</v>
       </c>
       <c r="X439" s="3">
-        <v>4519.8999999999996</v>
+        <v>4520</v>
       </c>
       <c r="Y439" s="3">
         <v>0</v>
       </c>
       <c r="Z439" s="3">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="AA439" s="3">
-        <v>0</v>
+        <v>531260000</v>
       </c>
       <c r="AB439" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C9516-B3FF-4953-B933-76BF6FE09CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B621D-E369-4451-B2C0-E3FB38B561FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>2003-07:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
   </si>
   <si>
     <t>1989-02:2024-09</t>
@@ -1245,7 +1242,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>86</v>
@@ -1302,10 +1299,10 @@
         <v>84</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>87</v>
@@ -1317,10 +1314,10 @@
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>79</v>
@@ -1417,10 +1414,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>80</v>
@@ -1474,25 +1471,25 @@
         <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>82</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C9516-B3FF-4953-B933-76BF6FE09CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AFAD5-D80A-43F6-8764-2C5E31FD836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>2003-07:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
   </si>
   <si>
     <t>1989-02:2024-09</t>
@@ -1245,7 +1242,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>86</v>
@@ -1302,10 +1299,10 @@
         <v>84</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>87</v>
@@ -1317,10 +1314,10 @@
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>79</v>
@@ -1417,10 +1414,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>80</v>
@@ -1474,25 +1471,25 @@
         <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>82</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AFAD5-D80A-43F6-8764-2C5E31FD836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A5540-BAB6-45A4-AEE8-3DEC62C8C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,16 +296,10 @@
     <t>2009-03:2024-08</t>
   </si>
   <si>
-    <t>2003-05:2024-08</t>
-  </si>
-  <si>
     <t>2024-09-25</t>
   </si>
   <si>
     <t>2024-09-24</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
   </si>
   <si>
     <t>2015-04:2024-08</t>
@@ -330,6 +324,12 @@
   </si>
   <si>
     <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2003-05:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1242,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
@@ -1287,7 +1287,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>78</v>
@@ -1296,31 +1296,31 @@
         <v>78</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1414,85 +1414,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38386,7 +38386,7 @@
         <v>531260000</v>
       </c>
       <c r="AB439" s="3">
-        <v>0</v>
+        <v>24643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A5540-BAB6-45A4-AEE8-3DEC62C8C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387F79F4-A6C5-4B47-9160-50A497C75CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -752,24 +755,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1414,7 +1417,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>88</v>
@@ -1486,7 +1489,7 @@
         <v>79</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>88</v>
@@ -37736,7 +37739,7 @@
         <v>786.98</v>
       </c>
       <c r="L432" s="3">
-        <v>1343.93</v>
+        <v>1344.07</v>
       </c>
       <c r="M432" s="3">
         <v>18964</v>
@@ -38308,7 +38311,7 @@
         <v>45565</v>
       </c>
       <c r="B439" s="3">
-        <v>15987</v>
+        <v>15986.9</v>
       </c>
       <c r="C439" s="3">
         <v>41239</v>
@@ -38380,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="3">
-        <v>1830</v>
+        <v>1830.3</v>
       </c>
       <c r="AA439" s="3">
         <v>531260000</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387F79F4-A6C5-4B47-9160-50A497C75CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89BDE2-C72F-443C-B9F4-F15BD8D30FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
   </si>
 </sst>
 </file>
@@ -759,20 +762,20 @@
       <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1447,7 +1450,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>83</v>
@@ -37997,7 +38000,7 @@
         <v>967.89</v>
       </c>
       <c r="L435" s="3">
-        <v>2015.35</v>
+        <v>2015.95</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38080,7 +38083,7 @@
         <v>33079</v>
       </c>
       <c r="K436" s="3">
-        <v>986.72</v>
+        <v>986.35</v>
       </c>
       <c r="L436" s="3">
         <v>2069.5300000000002</v>
@@ -38166,10 +38169,10 @@
         <v>31386</v>
       </c>
       <c r="K437" s="3">
-        <v>1084.1300000000001</v>
+        <v>1085.6600000000001</v>
       </c>
       <c r="L437" s="3">
-        <v>1979.49</v>
+        <v>1977.97</v>
       </c>
       <c r="M437" s="3">
         <v>24167</v>
@@ -38255,7 +38258,7 @@
         <v>1069.96</v>
       </c>
       <c r="L438" s="3">
-        <v>2042.54</v>
+        <v>2040.58</v>
       </c>
       <c r="M438" s="3">
         <v>25482</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89BDE2-C72F-443C-B9F4-F15BD8D30FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B58E88A-C75B-490A-8C18-5FA5D1B176CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>2024-09-25</t>
   </si>
   <si>
-    <t>2024-09-24</t>
-  </si>
-  <si>
     <t>2015-04:2024-08</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2009-03:2024-09</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1248,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
@@ -1275,10 +1275,10 @@
         <v>78</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>78</v>
@@ -1293,7 +1293,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>78</v>
@@ -1302,31 +1302,31 @@
         <v>78</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,10 +1420,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>79</v>
@@ -1444,61 +1444,61 @@
         <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>79</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38341,10 +38341,10 @@
         <v>0</v>
       </c>
       <c r="K439" s="3">
-        <v>0</v>
+        <v>1036.27</v>
       </c>
       <c r="L439" s="3">
-        <v>0</v>
+        <v>2001.72</v>
       </c>
       <c r="M439" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B58E88A-C75B-490A-8C18-5FA5D1B176CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462CF63-1D27-4AB1-9A89-CE5BE3A0C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -275,28 +275,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-08</t>
-  </si>
-  <si>
-    <t>2003-07:2024-08</t>
-  </si>
-  <si>
-    <t>1997-01:2024-08</t>
-  </si>
-  <si>
-    <t>2002-01:2024-08</t>
-  </si>
-  <si>
-    <t>2005-11:2024-08</t>
-  </si>
-  <si>
-    <t>2009-01:2024-08</t>
-  </si>
-  <si>
     <t>2009-03:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
   </si>
   <si>
     <t>2015-04:2024-08</t>
@@ -336,6 +315,21 @@
   </si>
   <si>
     <t>2009-03:2024-09</t>
+  </si>
+  <si>
+    <t>1997-01:2024-09</t>
+  </si>
+  <si>
+    <t>2002-01:2024-09</t>
+  </si>
+  <si>
+    <t>2005-11:2024-09</t>
+  </si>
+  <si>
+    <t>2009-01:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
   </si>
 </sst>
 </file>
@@ -1248,85 +1242,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="N8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1414,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38320,22 +38314,22 @@
         <v>41239</v>
       </c>
       <c r="D439" s="3">
-        <v>0</v>
+        <v>3165.6189559999998</v>
       </c>
       <c r="E439" s="3">
-        <v>0</v>
+        <v>11532.405078</v>
       </c>
       <c r="F439" s="3">
-        <v>0</v>
+        <v>2986.8224230000001</v>
       </c>
       <c r="G439" s="3">
-        <v>0</v>
+        <v>14381.715702</v>
       </c>
       <c r="H439" s="3">
-        <v>0</v>
+        <v>3937.5431600000002</v>
       </c>
       <c r="I439" s="3">
-        <v>0</v>
+        <v>3408.0781470000002</v>
       </c>
       <c r="J439" s="3">
         <v>0</v>
@@ -38383,7 +38377,7 @@
         <v>4520</v>
       </c>
       <c r="Y439" s="3">
-        <v>0</v>
+        <v>1377.6421519999999</v>
       </c>
       <c r="Z439" s="3">
         <v>1830.3</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462CF63-1D27-4AB1-9A89-CE5BE3A0C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1919FF1-C126-4AE3-81BF-50E15EA8D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -275,40 +275,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2009-03:2024-08</t>
-  </si>
-  <si>
-    <t>2015-04:2024-08</t>
-  </si>
-  <si>
-    <t>2008-09:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
     <t>1995-01:2024-09</t>
   </si>
   <si>
     <t>2003-07:2024-09</t>
   </si>
   <si>
-    <t>1989-02:2024-09</t>
-  </si>
-  <si>
-    <t>1989-01:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
     <t>2003-05:2024-09</t>
   </si>
   <si>
     <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
   </si>
   <si>
     <t>2024-10-23</t>
@@ -330,6 +306,33 @@
   </si>
   <si>
     <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>1995-01:2024-10</t>
+  </si>
+  <si>
+    <t>2015-04:2024-09</t>
+  </si>
+  <si>
+    <t>2008-09:2024-09</t>
+  </si>
+  <si>
+    <t>2003-07:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>1989-02:2024-10</t>
+  </si>
+  <si>
+    <t>1989-01:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -750,26 +753,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB439"/>
+  <dimension ref="A1:AB440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1242,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1414,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38332,7 +38335,7 @@
         <v>3408.0781470000002</v>
       </c>
       <c r="J439" s="3">
-        <v>0</v>
+        <v>34083</v>
       </c>
       <c r="K439" s="3">
         <v>1036.27</v>
@@ -38341,28 +38344,28 @@
         <v>2001.72</v>
       </c>
       <c r="M439" s="3">
-        <v>0</v>
+        <v>23244</v>
       </c>
       <c r="N439" s="3">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="O439" s="3">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="P439" s="3">
-        <v>0</v>
+        <v>2536</v>
       </c>
       <c r="Q439" s="3">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="R439" s="3">
-        <v>0</v>
+        <v>3867</v>
       </c>
       <c r="S439" s="3">
-        <v>0</v>
+        <v>34810</v>
       </c>
       <c r="T439" s="3">
-        <v>0</v>
+        <v>4834.41</v>
       </c>
       <c r="U439" s="3">
         <v>132670</v>
@@ -38387,6 +38390,92 @@
       </c>
       <c r="AB439" s="3">
         <v>24643</v>
+      </c>
+    </row>
+    <row r="440" spans="1:28">
+      <c r="A440" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B440" s="3">
+        <v>17764</v>
+      </c>
+      <c r="C440" s="3">
+        <v>45707.4</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0</v>
+      </c>
+      <c r="E440" s="3">
+        <v>0</v>
+      </c>
+      <c r="F440" s="3">
+        <v>0</v>
+      </c>
+      <c r="G440" s="3">
+        <v>0</v>
+      </c>
+      <c r="H440" s="3">
+        <v>0</v>
+      </c>
+      <c r="I440" s="3">
+        <v>0</v>
+      </c>
+      <c r="J440" s="3">
+        <v>0</v>
+      </c>
+      <c r="K440" s="3">
+        <v>0</v>
+      </c>
+      <c r="L440" s="3">
+        <v>0</v>
+      </c>
+      <c r="M440" s="3">
+        <v>0</v>
+      </c>
+      <c r="N440" s="3">
+        <v>0</v>
+      </c>
+      <c r="O440" s="3">
+        <v>0</v>
+      </c>
+      <c r="P440" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q440" s="3">
+        <v>0</v>
+      </c>
+      <c r="R440" s="3">
+        <v>0</v>
+      </c>
+      <c r="S440" s="3">
+        <v>0</v>
+      </c>
+      <c r="T440" s="3">
+        <v>0</v>
+      </c>
+      <c r="U440" s="3">
+        <v>150116</v>
+      </c>
+      <c r="V440" s="3">
+        <v>-10.3</v>
+      </c>
+      <c r="W440" s="3">
+        <v>4092.1</v>
+      </c>
+      <c r="X440" s="3">
+        <v>4915.6000000000004</v>
+      </c>
+      <c r="Y440" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z440" s="3">
+        <v>2039</v>
+      </c>
+      <c r="AA440" s="3">
+        <v>590590000</v>
+      </c>
+      <c r="AB440" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1919FF1-C126-4AE3-81BF-50E15EA8D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A8FB5-40C0-4940-9D1A-4834A5BC20E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -275,34 +275,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-09</t>
-  </si>
-  <si>
     <t>2003-07:2024-09</t>
-  </si>
-  <si>
-    <t>2003-05:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
   </si>
   <si>
     <t>2009-03:2024-09</t>
   </si>
   <si>
     <t>1997-01:2024-09</t>
-  </si>
-  <si>
-    <t>2002-01:2024-09</t>
-  </si>
-  <si>
-    <t>2005-11:2024-09</t>
-  </si>
-  <si>
-    <t>2009-01:2024-09</t>
   </si>
   <si>
     <t>2024-10-24</t>
@@ -320,19 +299,49 @@
     <t>2003-07:2024-10</t>
   </si>
   <si>
-    <t>2024-11-07</t>
-  </si>
-  <si>
     <t>2024-11-01</t>
   </si>
   <si>
     <t>1989-02:2024-10</t>
   </si>
   <si>
+    <t>2002-01:2024-10</t>
+  </si>
+  <si>
+    <t>2005-11:2024-10</t>
+  </si>
+  <si>
+    <t>2009-01:2024-10</t>
+  </si>
+  <si>
+    <t>2009-03:2024-10</t>
+  </si>
+  <si>
     <t>1989-01:2024-10</t>
   </si>
   <si>
+    <t>2003-05:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
     <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
   </si>
 </sst>
 </file>
@@ -755,24 +764,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1245,85 +1254,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="U8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="AB8" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1417,85 +1426,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -22345,7 +22354,7 @@
         <v>190.86745300000001</v>
       </c>
       <c r="L253" s="3">
-        <v>381</v>
+        <v>381.21</v>
       </c>
       <c r="M253" s="3">
         <v>11752</v>
@@ -22366,7 +22375,7 @@
         <v>1879</v>
       </c>
       <c r="S253" s="3">
-        <v>18281</v>
+        <v>18271</v>
       </c>
       <c r="T253" s="3">
         <v>5611.84</v>
@@ -22431,7 +22440,7 @@
         <v>283.09497499999998</v>
       </c>
       <c r="L254" s="3">
-        <v>633</v>
+        <v>632.96</v>
       </c>
       <c r="M254" s="3">
         <v>10713</v>
@@ -22452,7 +22461,7 @@
         <v>1879</v>
       </c>
       <c r="S254" s="3">
-        <v>17861</v>
+        <v>17847</v>
       </c>
       <c r="T254" s="3">
         <v>5391.32</v>
@@ -22517,7 +22526,7 @@
         <v>197.87087600000001</v>
       </c>
       <c r="L255" s="3">
-        <v>745</v>
+        <v>745.09</v>
       </c>
       <c r="M255" s="3">
         <v>9984</v>
@@ -22538,7 +22547,7 @@
         <v>1901</v>
       </c>
       <c r="S255" s="3">
-        <v>17262</v>
+        <v>17288.5</v>
       </c>
       <c r="T255" s="3">
         <v>5995.8</v>
@@ -22603,7 +22612,7 @@
         <v>463.30711700000001</v>
       </c>
       <c r="L256" s="3">
-        <v>1144</v>
+        <v>1144.07</v>
       </c>
       <c r="M256" s="3">
         <v>11837</v>
@@ -22624,7 +22633,7 @@
         <v>1901</v>
       </c>
       <c r="S256" s="3">
-        <v>19364</v>
+        <v>19383</v>
       </c>
       <c r="T256" s="3">
         <v>6869.46</v>
@@ -22689,7 +22698,7 @@
         <v>490.46378499999997</v>
       </c>
       <c r="L257" s="3">
-        <v>898</v>
+        <v>898.25</v>
       </c>
       <c r="M257" s="3">
         <v>12772</v>
@@ -22710,7 +22719,7 @@
         <v>1901</v>
       </c>
       <c r="S257" s="3">
-        <v>19984</v>
+        <v>19994.5</v>
       </c>
       <c r="T257" s="3">
         <v>6897.99</v>
@@ -22775,7 +22784,7 @@
         <v>384.63664399999999</v>
       </c>
       <c r="L258" s="3">
-        <v>793</v>
+        <v>792.79</v>
       </c>
       <c r="M258" s="3">
         <v>13094</v>
@@ -22796,7 +22805,7 @@
         <v>2151</v>
       </c>
       <c r="S258" s="3">
-        <v>20697</v>
+        <v>20710</v>
       </c>
       <c r="T258" s="3">
         <v>6765.28</v>
@@ -22861,7 +22870,7 @@
         <v>428.29683699999998</v>
       </c>
       <c r="L259" s="3">
-        <v>826</v>
+        <v>826.35</v>
       </c>
       <c r="M259" s="3">
         <v>12443</v>
@@ -22882,7 +22891,7 @@
         <v>2181</v>
       </c>
       <c r="S259" s="3">
-        <v>20229</v>
+        <v>20216.5</v>
       </c>
       <c r="T259" s="3">
         <v>6831.19</v>
@@ -22947,7 +22956,7 @@
         <v>221.24760800000001</v>
       </c>
       <c r="L260" s="3">
-        <v>893</v>
+        <v>892.54</v>
       </c>
       <c r="M260" s="3">
         <v>12552</v>
@@ -22968,7 +22977,7 @@
         <v>2181</v>
       </c>
       <c r="S260" s="3">
-        <v>20355</v>
+        <v>20372.5</v>
       </c>
       <c r="T260" s="3">
         <v>6834.72</v>
@@ -23033,7 +23042,7 @@
         <v>286.22562699999997</v>
       </c>
       <c r="L261" s="3">
-        <v>979</v>
+        <v>979.05</v>
       </c>
       <c r="M261" s="3">
         <v>13523</v>
@@ -23054,7 +23063,7 @@
         <v>2174</v>
       </c>
       <c r="S261" s="3">
-        <v>21110</v>
+        <v>21076</v>
       </c>
       <c r="T261" s="3">
         <v>6783.45</v>
@@ -23119,7 +23128,7 @@
         <v>349.65317800000003</v>
       </c>
       <c r="L262" s="3">
-        <v>1289</v>
+        <v>1288.83</v>
       </c>
       <c r="M262" s="3">
         <v>13826</v>
@@ -23140,7 +23149,7 @@
         <v>2024</v>
       </c>
       <c r="S262" s="3">
-        <v>21972</v>
+        <v>21983</v>
       </c>
       <c r="T262" s="3">
         <v>7081.29</v>
@@ -23205,7 +23214,7 @@
         <v>475.770532</v>
       </c>
       <c r="L263" s="3">
-        <v>1132</v>
+        <v>1132.07</v>
       </c>
       <c r="M263" s="3">
         <v>14371</v>
@@ -23226,7 +23235,7 @@
         <v>2201</v>
       </c>
       <c r="S263" s="3">
-        <v>21128</v>
+        <v>21161.5</v>
       </c>
       <c r="T263" s="3">
         <v>4115.32</v>
@@ -23291,7 +23300,7 @@
         <v>274.34229199999999</v>
       </c>
       <c r="L264" s="3">
-        <v>1036</v>
+        <v>1036.3499999999999</v>
       </c>
       <c r="M264" s="3">
         <v>11263</v>
@@ -23312,7 +23321,7 @@
         <v>2049</v>
       </c>
       <c r="S264" s="3">
-        <v>17027</v>
+        <v>17012</v>
       </c>
       <c r="T264" s="3">
         <v>3882.94</v>
@@ -23377,7 +23386,7 @@
         <v>337.86396999999999</v>
       </c>
       <c r="L265" s="3">
-        <v>1184</v>
+        <v>1184.4000000000001</v>
       </c>
       <c r="M265" s="3">
         <v>14130</v>
@@ -23398,7 +23407,7 @@
         <v>2122</v>
       </c>
       <c r="S265" s="3">
-        <v>21397</v>
+        <v>21443</v>
       </c>
       <c r="T265" s="3">
         <v>4324.07</v>
@@ -23463,7 +23472,7 @@
         <v>396.350705</v>
       </c>
       <c r="L266" s="3">
-        <v>955</v>
+        <v>955.31</v>
       </c>
       <c r="M266" s="3">
         <v>13541</v>
@@ -23484,7 +23493,7 @@
         <v>1999</v>
       </c>
       <c r="S266" s="3">
-        <v>21333</v>
+        <v>21323.5</v>
       </c>
       <c r="T266" s="3">
         <v>4469.92</v>
@@ -23549,7 +23558,7 @@
         <v>385.79839399999997</v>
       </c>
       <c r="L267" s="3">
-        <v>714</v>
+        <v>713.96</v>
       </c>
       <c r="M267" s="3">
         <v>13271</v>
@@ -23570,7 +23579,7 @@
         <v>1974</v>
       </c>
       <c r="S267" s="3">
-        <v>21370</v>
+        <v>21369.5</v>
       </c>
       <c r="T267" s="3">
         <v>4620.51</v>
@@ -23635,7 +23644,7 @@
         <v>364.26746200000002</v>
       </c>
       <c r="L268" s="3">
-        <v>846</v>
+        <v>846.38</v>
       </c>
       <c r="M268" s="3">
         <v>12819</v>
@@ -23656,7 +23665,7 @@
         <v>1956</v>
       </c>
       <c r="S268" s="3">
-        <v>20882</v>
+        <v>20855.5</v>
       </c>
       <c r="T268" s="3">
         <v>4620.71</v>
@@ -23721,7 +23730,7 @@
         <v>314.55763999999999</v>
       </c>
       <c r="L269" s="3">
-        <v>994</v>
+        <v>993.94</v>
       </c>
       <c r="M269" s="3">
         <v>13768</v>
@@ -23742,7 +23751,7 @@
         <v>1977</v>
       </c>
       <c r="S269" s="3">
-        <v>21556</v>
+        <v>21542.5</v>
       </c>
       <c r="T269" s="3">
         <v>4324.92</v>
@@ -23807,7 +23816,7 @@
         <v>387.56671399999999</v>
       </c>
       <c r="L270" s="3">
-        <v>939</v>
+        <v>938.59</v>
       </c>
       <c r="M270" s="3">
         <v>14463</v>
@@ -23828,7 +23837,7 @@
         <v>1985</v>
       </c>
       <c r="S270" s="3">
-        <v>22352</v>
+        <v>22367.5</v>
       </c>
       <c r="T270" s="3">
         <v>4307.95</v>
@@ -23893,7 +23902,7 @@
         <v>416.61636800000002</v>
       </c>
       <c r="L271" s="3">
-        <v>1116</v>
+        <v>1115.78</v>
       </c>
       <c r="M271" s="3">
         <v>12742</v>
@@ -23914,7 +23923,7 @@
         <v>1978</v>
       </c>
       <c r="S271" s="3">
-        <v>20637</v>
+        <v>20598.5</v>
       </c>
       <c r="T271" s="3">
         <v>4407.2700000000004</v>
@@ -23979,7 +23988,7 @@
         <v>397.52209099999999</v>
       </c>
       <c r="L272" s="3">
-        <v>835</v>
+        <v>834.94</v>
       </c>
       <c r="M272" s="3">
         <v>13782</v>
@@ -24000,7 +24009,7 @@
         <v>2005</v>
       </c>
       <c r="S272" s="3">
-        <v>21712</v>
+        <v>21727</v>
       </c>
       <c r="T272" s="3">
         <v>4412.04</v>
@@ -24065,7 +24074,7 @@
         <v>430.96417700000001</v>
       </c>
       <c r="L273" s="3">
-        <v>957</v>
+        <v>957.49</v>
       </c>
       <c r="M273" s="3">
         <v>13829</v>
@@ -24086,7 +24095,7 @@
         <v>2027</v>
       </c>
       <c r="S273" s="3">
-        <v>21975</v>
+        <v>21992.5</v>
       </c>
       <c r="T273" s="3">
         <v>4524.24</v>
@@ -24151,7 +24160,7 @@
         <v>545.49102100000005</v>
       </c>
       <c r="L274" s="3">
-        <v>1189</v>
+        <v>1188.5</v>
       </c>
       <c r="M274" s="3">
         <v>14905</v>
@@ -24172,7 +24181,7 @@
         <v>2098</v>
       </c>
       <c r="S274" s="3">
-        <v>22931</v>
+        <v>22940</v>
       </c>
       <c r="T274" s="3">
         <v>4789.3500000000004</v>
@@ -24237,7 +24246,7 @@
         <v>557.633599</v>
       </c>
       <c r="L275" s="3">
-        <v>1077</v>
+        <v>1077.0899999999999</v>
       </c>
       <c r="M275" s="3">
         <v>15259</v>
@@ -24258,7 +24267,7 @@
         <v>2151</v>
       </c>
       <c r="S275" s="3">
-        <v>21835</v>
+        <v>21873</v>
       </c>
       <c r="T275" s="3">
         <v>4629.9799999999996</v>
@@ -24323,7 +24332,7 @@
         <v>198.58597</v>
       </c>
       <c r="L276" s="3">
-        <v>471</v>
+        <v>471.39</v>
       </c>
       <c r="M276" s="3">
         <v>12854</v>
@@ -24344,7 +24353,7 @@
         <v>2130</v>
       </c>
       <c r="S276" s="3">
-        <v>18578</v>
+        <v>18562</v>
       </c>
       <c r="T276" s="3">
         <v>4478.05</v>
@@ -24409,7 +24418,7 @@
         <v>293.15267699999998</v>
       </c>
       <c r="L277" s="3">
-        <v>594</v>
+        <v>593.66</v>
       </c>
       <c r="M277" s="3">
         <v>15842</v>
@@ -24430,7 +24439,7 @@
         <v>2231</v>
       </c>
       <c r="S277" s="3">
-        <v>23992</v>
+        <v>24039</v>
       </c>
       <c r="T277" s="3">
         <v>4814.22</v>
@@ -24495,7 +24504,7 @@
         <v>318.89700599999998</v>
       </c>
       <c r="L278" s="3">
-        <v>784</v>
+        <v>784.27</v>
       </c>
       <c r="M278" s="3">
         <v>15039</v>
@@ -24516,7 +24525,7 @@
         <v>2143</v>
       </c>
       <c r="S278" s="3">
-        <v>23659</v>
+        <v>23685</v>
       </c>
       <c r="T278" s="3">
         <v>4820</v>
@@ -24581,7 +24590,7 @@
         <v>213.01961</v>
       </c>
       <c r="L279" s="3">
-        <v>1144</v>
+        <v>1143.72</v>
       </c>
       <c r="M279" s="3">
         <v>15129</v>
@@ -24602,7 +24611,7 @@
         <v>2045</v>
       </c>
       <c r="S279" s="3">
-        <v>23918</v>
+        <v>23919</v>
       </c>
       <c r="T279" s="3">
         <v>4997</v>
@@ -24667,7 +24676,7 @@
         <v>333.88940500000001</v>
       </c>
       <c r="L280" s="3">
-        <v>1033</v>
+        <v>1033.33</v>
       </c>
       <c r="M280" s="3">
         <v>15331</v>
@@ -24688,7 +24697,7 @@
         <v>2033</v>
       </c>
       <c r="S280" s="3">
-        <v>22995</v>
+        <v>23000.5</v>
       </c>
       <c r="T280" s="3">
         <v>5210</v>
@@ -24753,7 +24762,7 @@
         <v>405.37375300000002</v>
       </c>
       <c r="L281" s="3">
-        <v>1349</v>
+        <v>1348.5</v>
       </c>
       <c r="M281" s="3">
         <v>16625</v>
@@ -24774,7 +24783,7 @@
         <v>2128</v>
       </c>
       <c r="S281" s="3">
-        <v>24039</v>
+        <v>24042</v>
       </c>
       <c r="T281" s="3">
         <v>5187</v>
@@ -24839,7 +24848,7 @@
         <v>328.42787199999998</v>
       </c>
       <c r="L282" s="3">
-        <v>1319</v>
+        <v>1318.58</v>
       </c>
       <c r="M282" s="3">
         <v>16948</v>
@@ -24860,7 +24869,7 @@
         <v>2754</v>
       </c>
       <c r="S282" s="3">
-        <v>24952</v>
+        <v>24945.5</v>
       </c>
       <c r="T282" s="3">
         <v>5294</v>
@@ -24925,7 +24934,7 @@
         <v>389.08442400000001</v>
       </c>
       <c r="L283" s="3">
-        <v>1511</v>
+        <v>1511.49</v>
       </c>
       <c r="M283" s="3">
         <v>15411</v>
@@ -24946,7 +24955,7 @@
         <v>2951</v>
       </c>
       <c r="S283" s="3">
-        <v>24865</v>
+        <v>24848</v>
       </c>
       <c r="T283" s="3">
         <v>5189</v>
@@ -25011,7 +25020,7 @@
         <v>416.28218399999997</v>
       </c>
       <c r="L284" s="3">
-        <v>1141</v>
+        <v>1141.44</v>
       </c>
       <c r="M284" s="3">
         <v>14648</v>
@@ -25032,7 +25041,7 @@
         <v>3115</v>
       </c>
       <c r="S284" s="3">
-        <v>24262</v>
+        <v>24255.5</v>
       </c>
       <c r="T284" s="3">
         <v>4995</v>
@@ -25097,7 +25106,7 @@
         <v>510.29280499999999</v>
       </c>
       <c r="L285" s="3">
-        <v>1694</v>
+        <v>1693.63</v>
       </c>
       <c r="M285" s="3">
         <v>15012</v>
@@ -25118,7 +25127,7 @@
         <v>3280</v>
       </c>
       <c r="S285" s="3">
-        <v>24629</v>
+        <v>24590</v>
       </c>
       <c r="T285" s="3">
         <v>4680</v>
@@ -25183,7 +25192,7 @@
         <v>500.79096399999997</v>
       </c>
       <c r="L286" s="3">
-        <v>1623</v>
+        <v>1622.89</v>
       </c>
       <c r="M286" s="3">
         <v>16787</v>
@@ -25204,7 +25213,7 @@
         <v>3369</v>
       </c>
       <c r="S286" s="3">
-        <v>26149</v>
+        <v>26168</v>
       </c>
       <c r="T286" s="3">
         <v>4881</v>
@@ -25269,7 +25278,7 @@
         <v>344.897175</v>
       </c>
       <c r="L287" s="3">
-        <v>1277</v>
+        <v>1277.17</v>
       </c>
       <c r="M287" s="3">
         <v>14418</v>
@@ -25290,7 +25299,7 @@
         <v>2706</v>
       </c>
       <c r="S287" s="3">
-        <v>21123</v>
+        <v>21171</v>
       </c>
       <c r="T287" s="3">
         <v>4709</v>
@@ -25355,7 +25364,7 @@
         <v>465.15473700000001</v>
       </c>
       <c r="L288" s="3">
-        <v>1237</v>
+        <v>1237.1199999999999</v>
       </c>
       <c r="M288" s="3">
         <v>15419</v>
@@ -25376,7 +25385,7 @@
         <v>2932</v>
       </c>
       <c r="S288" s="3">
-        <v>22681</v>
+        <v>22679.5</v>
       </c>
       <c r="T288" s="3">
         <v>4649</v>
@@ -25441,7 +25450,7 @@
         <v>414.45445699999999</v>
       </c>
       <c r="L289" s="3">
-        <v>1294</v>
+        <v>1294.44</v>
       </c>
       <c r="M289" s="3">
         <v>16880</v>
@@ -25462,7 +25471,7 @@
         <v>3235</v>
       </c>
       <c r="S289" s="3">
-        <v>26381</v>
+        <v>26421.5</v>
       </c>
       <c r="T289" s="3">
         <v>5236</v>
@@ -25527,7 +25536,7 @@
         <v>509.29674699999998</v>
       </c>
       <c r="L290" s="3">
-        <v>1478</v>
+        <v>1478.05</v>
       </c>
       <c r="M290" s="3">
         <v>14936</v>
@@ -25548,7 +25557,7 @@
         <v>3256</v>
       </c>
       <c r="S290" s="3">
-        <v>24952</v>
+        <v>24943.5</v>
       </c>
       <c r="T290" s="3">
         <v>5014</v>
@@ -25613,7 +25622,7 @@
         <v>386.54440299999999</v>
       </c>
       <c r="L291" s="3">
-        <v>1665</v>
+        <v>1665.36</v>
       </c>
       <c r="M291" s="3">
         <v>14768</v>
@@ -25634,7 +25643,7 @@
         <v>3269</v>
       </c>
       <c r="S291" s="3">
-        <v>25047</v>
+        <v>25049</v>
       </c>
       <c r="T291" s="3">
         <v>5220</v>
@@ -25699,7 +25708,7 @@
         <v>649.02198599999997</v>
       </c>
       <c r="L292" s="3">
-        <v>1604</v>
+        <v>1603.68</v>
       </c>
       <c r="M292" s="3">
         <v>14468</v>
@@ -25720,7 +25729,7 @@
         <v>3225</v>
       </c>
       <c r="S292" s="3">
-        <v>24743</v>
+        <v>24727.5</v>
       </c>
       <c r="T292" s="3">
         <v>5383</v>
@@ -25785,7 +25794,7 @@
         <v>392.55283300000002</v>
       </c>
       <c r="L293" s="3">
-        <v>1629</v>
+        <v>1628.99</v>
       </c>
       <c r="M293" s="3">
         <v>15758</v>
@@ -25806,7 +25815,7 @@
         <v>3352</v>
       </c>
       <c r="S293" s="3">
-        <v>25692</v>
+        <v>25697.5</v>
       </c>
       <c r="T293" s="3">
         <v>5065</v>
@@ -25871,7 +25880,7 @@
         <v>256.966294</v>
       </c>
       <c r="L294" s="3">
-        <v>1471</v>
+        <v>1471.33</v>
       </c>
       <c r="M294" s="3">
         <v>15715</v>
@@ -25892,7 +25901,7 @@
         <v>3302</v>
       </c>
       <c r="S294" s="3">
-        <v>25325</v>
+        <v>25301.5</v>
       </c>
       <c r="T294" s="3">
         <v>4852</v>
@@ -25957,7 +25966,7 @@
         <v>242.026005</v>
       </c>
       <c r="L295" s="3">
-        <v>1244</v>
+        <v>1243.83</v>
       </c>
       <c r="M295" s="3">
         <v>13968</v>
@@ -25978,7 +25987,7 @@
         <v>3156</v>
       </c>
       <c r="S295" s="3">
-        <v>24203</v>
+        <v>24189.5</v>
       </c>
       <c r="T295" s="3">
         <v>4783.38</v>
@@ -26043,7 +26052,7 @@
         <v>360.652376</v>
       </c>
       <c r="L296" s="3">
-        <v>1320</v>
+        <v>1320.05</v>
       </c>
       <c r="M296" s="3">
         <v>14341</v>
@@ -26064,7 +26073,7 @@
         <v>3218</v>
       </c>
       <c r="S296" s="3">
-        <v>24654</v>
+        <v>24668.5</v>
       </c>
       <c r="T296" s="3">
         <v>4999</v>
@@ -26129,7 +26138,7 @@
         <v>581.39292</v>
       </c>
       <c r="L297" s="3">
-        <v>1776</v>
+        <v>1776.12</v>
       </c>
       <c r="M297" s="3">
         <v>15653</v>
@@ -26150,7 +26159,7 @@
         <v>3369</v>
       </c>
       <c r="S297" s="3">
-        <v>25821</v>
+        <v>25802.5</v>
       </c>
       <c r="T297" s="3">
         <v>5013</v>
@@ -26215,7 +26224,7 @@
         <v>758.06075399999997</v>
       </c>
       <c r="L298" s="3">
-        <v>2142</v>
+        <v>2142.1799999999998</v>
       </c>
       <c r="M298" s="3">
         <v>17420</v>
@@ -26236,7 +26245,7 @@
         <v>3549</v>
       </c>
       <c r="S298" s="3">
-        <v>27200</v>
+        <v>27187</v>
       </c>
       <c r="T298" s="3">
         <v>4908</v>
@@ -26301,7 +26310,7 @@
         <v>714.39037699999994</v>
       </c>
       <c r="L299" s="3">
-        <v>1801</v>
+        <v>1800.96</v>
       </c>
       <c r="M299" s="3">
         <v>18209</v>
@@ -26322,7 +26331,7 @@
         <v>2749</v>
       </c>
       <c r="S299" s="3">
-        <v>26052</v>
+        <v>26053</v>
       </c>
       <c r="T299" s="3">
         <v>5041</v>
@@ -26387,7 +26396,7 @@
         <v>539.76342799999998</v>
       </c>
       <c r="L300" s="3">
-        <v>1272</v>
+        <v>1272.1600000000001</v>
       </c>
       <c r="M300" s="3">
         <v>13300</v>
@@ -26408,7 +26417,7 @@
         <v>2558</v>
       </c>
       <c r="S300" s="3">
-        <v>19631</v>
+        <v>19640</v>
       </c>
       <c r="T300" s="3">
         <v>4950.82</v>
@@ -26473,7 +26482,7 @@
         <v>463.64076299999999</v>
       </c>
       <c r="L301" s="3">
-        <v>1589</v>
+        <v>1588.72</v>
       </c>
       <c r="M301" s="3">
         <v>16286</v>
@@ -26494,7 +26503,7 @@
         <v>2382</v>
       </c>
       <c r="S301" s="3">
-        <v>23921</v>
+        <v>23945</v>
       </c>
       <c r="T301" s="3">
         <v>5331.8</v>
@@ -26559,7 +26568,7 @@
         <v>694.991713</v>
       </c>
       <c r="L302" s="3">
-        <v>1654</v>
+        <v>1654.15</v>
       </c>
       <c r="M302" s="3">
         <v>14882</v>
@@ -26580,7 +26589,7 @@
         <v>2221</v>
       </c>
       <c r="S302" s="3">
-        <v>23455</v>
+        <v>23495</v>
       </c>
       <c r="T302" s="3">
         <v>5156</v>
@@ -26645,7 +26654,7 @@
         <v>649.47002899999995</v>
       </c>
       <c r="L303" s="3">
-        <v>1671</v>
+        <v>1671.19</v>
       </c>
       <c r="M303" s="3">
         <v>14468</v>
@@ -26666,7 +26675,7 @@
         <v>2108</v>
       </c>
       <c r="S303" s="3">
-        <v>24102</v>
+        <v>24143.5</v>
       </c>
       <c r="T303" s="3">
         <v>5308.03</v>
@@ -26731,7 +26740,7 @@
         <v>470.21080499999999</v>
       </c>
       <c r="L304" s="3">
-        <v>1334</v>
+        <v>1333.58</v>
       </c>
       <c r="M304" s="3">
         <v>14252</v>
@@ -26752,7 +26761,7 @@
         <v>2193</v>
       </c>
       <c r="S304" s="3">
-        <v>24109</v>
+        <v>24080</v>
       </c>
       <c r="T304" s="3">
         <v>5398.09</v>
@@ -26817,7 +26826,7 @@
         <v>587.79901400000006</v>
       </c>
       <c r="L305" s="3">
-        <v>1689</v>
+        <v>1689.32</v>
       </c>
       <c r="M305" s="3">
         <v>16259</v>
@@ -26838,7 +26847,7 @@
         <v>2564</v>
       </c>
       <c r="S305" s="3">
-        <v>25880</v>
+        <v>25903</v>
       </c>
       <c r="T305" s="3">
         <v>5309.76</v>
@@ -26903,7 +26912,7 @@
         <v>628.97187399999996</v>
       </c>
       <c r="L306" s="3">
-        <v>1601</v>
+        <v>1601.31</v>
       </c>
       <c r="M306" s="3">
         <v>17785</v>
@@ -26924,7 +26933,7 @@
         <v>2453</v>
       </c>
       <c r="S306" s="3">
-        <v>27252</v>
+        <v>27259.5</v>
       </c>
       <c r="T306" s="3">
         <v>5240.16</v>
@@ -26989,7 +26998,7 @@
         <v>725.22635300000002</v>
       </c>
       <c r="L307" s="3">
-        <v>1504</v>
+        <v>1504.09</v>
       </c>
       <c r="M307" s="3">
         <v>15286</v>
@@ -27010,7 +27019,7 @@
         <v>2159</v>
       </c>
       <c r="S307" s="3">
-        <v>23769</v>
+        <v>23762.5</v>
       </c>
       <c r="T307" s="3">
         <v>5395.19</v>
@@ -27075,7 +27084,7 @@
         <v>605.26726599999995</v>
       </c>
       <c r="L308" s="3">
-        <v>1450</v>
+        <v>1449.66</v>
       </c>
       <c r="M308" s="3">
         <v>15629</v>
@@ -27096,7 +27105,7 @@
         <v>2348</v>
       </c>
       <c r="S308" s="3">
-        <v>25805</v>
+        <v>25811</v>
       </c>
       <c r="T308" s="3">
         <v>5464.57</v>
@@ -27161,7 +27170,7 @@
         <v>660.13632900000005</v>
       </c>
       <c r="L309" s="3">
-        <v>1652</v>
+        <v>1652.42</v>
       </c>
       <c r="M309" s="3">
         <v>16485</v>
@@ -27182,7 +27191,7 @@
         <v>2632</v>
       </c>
       <c r="S309" s="3">
-        <v>26604</v>
+        <v>26564</v>
       </c>
       <c r="T309" s="3">
         <v>5340.29</v>
@@ -27247,7 +27256,7 @@
         <v>801.57275700000002</v>
       </c>
       <c r="L310" s="3">
-        <v>1985</v>
+        <v>1985.29</v>
       </c>
       <c r="M310" s="3">
         <v>18446</v>
@@ -27268,7 +27277,7 @@
         <v>2538</v>
       </c>
       <c r="S310" s="3">
-        <v>27937</v>
+        <v>27889.5</v>
       </c>
       <c r="T310" s="3">
         <v>5384.7</v>
@@ -27333,7 +27342,7 @@
         <v>570.17699500000003</v>
       </c>
       <c r="L311" s="3">
-        <v>2235</v>
+        <v>2235.0300000000002</v>
       </c>
       <c r="M311" s="3">
         <v>0</v>
@@ -27419,7 +27428,7 @@
         <v>353.813783</v>
       </c>
       <c r="L312" s="3">
-        <v>1389</v>
+        <v>1388.5</v>
       </c>
       <c r="M312" s="3">
         <v>0</v>
@@ -27505,7 +27514,7 @@
         <v>373.00556</v>
       </c>
       <c r="L313" s="3">
-        <v>1513</v>
+        <v>1513.48</v>
       </c>
       <c r="M313" s="3">
         <v>16894</v>
@@ -27526,7 +27535,7 @@
         <v>2395</v>
       </c>
       <c r="S313" s="3">
-        <v>26358</v>
+        <v>26413</v>
       </c>
       <c r="T313" s="3">
         <v>5198.83</v>
@@ -27591,7 +27600,7 @@
         <v>646.97669599999995</v>
       </c>
       <c r="L314" s="3">
-        <v>1436</v>
+        <v>1436.5</v>
       </c>
       <c r="M314" s="3">
         <v>15350</v>
@@ -27612,7 +27621,7 @@
         <v>2299</v>
       </c>
       <c r="S314" s="3">
-        <v>25308</v>
+        <v>25300.5</v>
       </c>
       <c r="T314" s="3">
         <v>5218.72</v>
@@ -27677,7 +27686,7 @@
         <v>588.162823</v>
       </c>
       <c r="L315" s="3">
-        <v>1341</v>
+        <v>1341.17</v>
       </c>
       <c r="M315" s="3">
         <v>15310</v>
@@ -27698,7 +27707,7 @@
         <v>2325</v>
       </c>
       <c r="S315" s="3">
-        <v>25555</v>
+        <v>25562</v>
       </c>
       <c r="T315" s="3">
         <v>5241.43</v>
@@ -27763,7 +27772,7 @@
         <v>571.65281800000002</v>
       </c>
       <c r="L316" s="3">
-        <v>1344</v>
+        <v>1344.11</v>
       </c>
       <c r="M316" s="3">
         <v>15579</v>
@@ -27784,7 +27793,7 @@
         <v>2342</v>
       </c>
       <c r="S316" s="3">
-        <v>25737</v>
+        <v>25726</v>
       </c>
       <c r="T316" s="3">
         <v>5457.51</v>
@@ -27849,7 +27858,7 @@
         <v>504.88591000000002</v>
       </c>
       <c r="L317" s="3">
-        <v>1280</v>
+        <v>1280.1400000000001</v>
       </c>
       <c r="M317" s="3">
         <v>16491</v>
@@ -27870,7 +27879,7 @@
         <v>2405</v>
       </c>
       <c r="S317" s="3">
-        <v>26444</v>
+        <v>26447.5</v>
       </c>
       <c r="T317" s="3">
         <v>5370.77</v>
@@ -27935,7 +27944,7 @@
         <v>383.53589099999999</v>
       </c>
       <c r="L318" s="3">
-        <v>1134</v>
+        <v>1133.8499999999999</v>
       </c>
       <c r="M318" s="3">
         <v>16491</v>
@@ -27956,7 +27965,7 @@
         <v>2415</v>
       </c>
       <c r="S318" s="3">
-        <v>26546</v>
+        <v>26559.5</v>
       </c>
       <c r="T318" s="3">
         <v>5299.18</v>
@@ -28021,7 +28030,7 @@
         <v>450.10046399999999</v>
       </c>
       <c r="L319" s="3">
-        <v>1185</v>
+        <v>1184.8</v>
       </c>
       <c r="M319" s="3">
         <v>14154</v>
@@ -28042,7 +28051,7 @@
         <v>2174</v>
       </c>
       <c r="S319" s="3">
-        <v>23939</v>
+        <v>23921.5</v>
       </c>
       <c r="T319" s="3">
         <v>5272.7</v>
@@ -28107,7 +28116,7 @@
         <v>544.18908199999998</v>
       </c>
       <c r="L320" s="3">
-        <v>1072</v>
+        <v>1071.74</v>
       </c>
       <c r="M320" s="3">
         <v>14431</v>
@@ -28128,7 +28137,7 @@
         <v>2228</v>
       </c>
       <c r="S320" s="3">
-        <v>24498</v>
+        <v>24487.5</v>
       </c>
       <c r="T320" s="3">
         <v>5342.46</v>
@@ -28193,7 +28202,7 @@
         <v>495.60626000000002</v>
       </c>
       <c r="L321" s="3">
-        <v>1223</v>
+        <v>1223.48</v>
       </c>
       <c r="M321" s="3">
         <v>16938</v>
@@ -28214,7 +28223,7 @@
         <v>2634</v>
       </c>
       <c r="S321" s="3">
-        <v>27320</v>
+        <v>27813</v>
       </c>
       <c r="T321" s="3">
         <v>4584.9399999999996</v>
@@ -28279,7 +28288,7 @@
         <v>761.90184299999999</v>
       </c>
       <c r="L322" s="3">
-        <v>1407</v>
+        <v>1406.53</v>
       </c>
       <c r="M322" s="3">
         <v>19515</v>
@@ -28300,7 +28309,7 @@
         <v>2616</v>
       </c>
       <c r="S322" s="3">
-        <v>29609</v>
+        <v>30012.5</v>
       </c>
       <c r="T322" s="3">
         <v>4924.1000000000004</v>
@@ -28365,7 +28374,7 @@
         <v>401.15926400000001</v>
       </c>
       <c r="L323" s="3">
-        <v>961</v>
+        <v>955.01</v>
       </c>
       <c r="M323" s="3">
         <v>17813.72</v>
@@ -28386,7 +28395,7 @@
         <v>900.7</v>
       </c>
       <c r="S323" s="3">
-        <v>25294</v>
+        <v>25628.02</v>
       </c>
       <c r="T323" s="3">
         <v>4508.6499999999996</v>
@@ -28451,7 +28460,7 @@
         <v>394.983969</v>
       </c>
       <c r="L324" s="3">
-        <v>751</v>
+        <v>757.19</v>
       </c>
       <c r="M324" s="3">
         <v>12881.03</v>
@@ -28472,7 +28481,7 @@
         <v>697.4</v>
       </c>
       <c r="S324" s="3">
-        <v>19018</v>
+        <v>19241.330000000002</v>
       </c>
       <c r="T324" s="3">
         <v>4207.8999999999996</v>
@@ -28537,7 +28546,7 @@
         <v>294.68424299999998</v>
       </c>
       <c r="L325" s="3">
-        <v>873</v>
+        <v>871.69</v>
       </c>
       <c r="M325" s="3">
         <v>15463</v>
@@ -28558,7 +28567,7 @@
         <v>1616</v>
       </c>
       <c r="S325" s="3">
-        <v>23826</v>
+        <v>23841.8</v>
       </c>
       <c r="T325" s="3">
         <v>4478.3</v>
@@ -28623,7 +28632,7 @@
         <v>374.78756199999998</v>
       </c>
       <c r="L326" s="3">
-        <v>1119</v>
+        <v>1119.1300000000001</v>
       </c>
       <c r="M326" s="3">
         <v>15116</v>
@@ -28644,7 +28653,7 @@
         <v>2183</v>
       </c>
       <c r="S326" s="3">
-        <v>26180</v>
+        <v>26146.5</v>
       </c>
       <c r="T326" s="3">
         <v>4403.2299999999996</v>
@@ -28709,7 +28718,7 @@
         <v>187.68815799999999</v>
       </c>
       <c r="L327" s="3">
-        <v>882</v>
+        <v>882.42</v>
       </c>
       <c r="M327" s="3">
         <v>15477</v>
@@ -28730,7 +28739,7 @@
         <v>2160</v>
       </c>
       <c r="S327" s="3">
-        <v>27140</v>
+        <v>27169.5</v>
       </c>
       <c r="T327" s="3">
         <v>4439.22</v>
@@ -28792,10 +28801,10 @@
         <v>26750</v>
       </c>
       <c r="K328" s="3">
-        <v>507.72273200000001</v>
+        <v>497.38</v>
       </c>
       <c r="L328" s="3">
-        <v>873</v>
+        <v>872.7</v>
       </c>
       <c r="M328" s="3">
         <v>15156</v>
@@ -28816,7 +28825,7 @@
         <v>2178</v>
       </c>
       <c r="S328" s="3">
-        <v>26110</v>
+        <v>26022.5</v>
       </c>
       <c r="T328" s="3">
         <v>4528</v>
@@ -28878,10 +28887,10 @@
         <v>26555</v>
       </c>
       <c r="K329" s="3">
-        <v>661.46591999999998</v>
+        <v>665.51</v>
       </c>
       <c r="L329" s="3">
-        <v>965</v>
+        <v>965.34</v>
       </c>
       <c r="M329" s="3">
         <v>16596</v>
@@ -28902,7 +28911,7 @@
         <v>2336</v>
       </c>
       <c r="S329" s="3">
-        <v>28013</v>
+        <v>28015</v>
       </c>
       <c r="T329" s="3">
         <v>4422.09</v>
@@ -28964,10 +28973,10 @@
         <v>25199</v>
       </c>
       <c r="K330" s="3">
-        <v>414.69004000000001</v>
+        <v>414.15</v>
       </c>
       <c r="L330" s="3">
-        <v>934</v>
+        <v>933.72</v>
       </c>
       <c r="M330" s="3">
         <v>17194</v>
@@ -28988,7 +28997,7 @@
         <v>2339</v>
       </c>
       <c r="S330" s="3">
-        <v>28056</v>
+        <v>28078</v>
       </c>
       <c r="T330" s="3">
         <v>4393</v>
@@ -29050,10 +29059,10 @@
         <v>25702</v>
       </c>
       <c r="K331" s="3">
-        <v>396.19970999999998</v>
+        <v>395.51</v>
       </c>
       <c r="L331" s="3">
-        <v>917</v>
+        <v>917.57</v>
       </c>
       <c r="M331" s="3">
         <v>14311</v>
@@ -29074,7 +29083,7 @@
         <v>2100</v>
       </c>
       <c r="S331" s="3">
-        <v>25235</v>
+        <v>25201.5</v>
       </c>
       <c r="T331" s="3">
         <v>4385</v>
@@ -29136,10 +29145,10 @@
         <v>26018.3</v>
       </c>
       <c r="K332" s="3">
-        <v>308.22374400000001</v>
+        <v>307.51</v>
       </c>
       <c r="L332" s="3">
-        <v>720</v>
+        <v>720.55</v>
       </c>
       <c r="M332" s="3">
         <v>14178.25</v>
@@ -29160,7 +29169,7 @@
         <v>2133.5</v>
       </c>
       <c r="S332" s="3">
-        <v>25592</v>
+        <v>25592.15</v>
       </c>
       <c r="T332" s="3">
         <v>4447</v>
@@ -29222,10 +29231,10 @@
         <v>26287</v>
       </c>
       <c r="K333" s="3">
-        <v>407.26306799999998</v>
+        <v>406.52</v>
       </c>
       <c r="L333" s="3">
-        <v>835</v>
+        <v>835.35</v>
       </c>
       <c r="M333" s="3">
         <v>16023.87</v>
@@ -29246,7 +29255,7 @@
         <v>2358.6</v>
       </c>
       <c r="S333" s="3">
-        <v>28295</v>
+        <v>28285.17</v>
       </c>
       <c r="T333" s="3">
         <v>4377</v>
@@ -29308,10 +29317,10 @@
         <v>27094</v>
       </c>
       <c r="K334" s="3">
-        <v>444.51079700000003</v>
+        <v>444.51</v>
       </c>
       <c r="L334" s="3">
-        <v>965</v>
+        <v>965.13</v>
       </c>
       <c r="M334" s="3">
         <v>17439</v>
@@ -29332,7 +29341,7 @@
         <v>2484</v>
       </c>
       <c r="S334" s="3">
-        <v>29796</v>
+        <v>29783</v>
       </c>
       <c r="T334" s="3">
         <v>4181</v>
@@ -29397,7 +29406,7 @@
         <v>336.657285</v>
       </c>
       <c r="L335" s="3">
-        <v>765</v>
+        <v>764.4</v>
       </c>
       <c r="M335" s="3">
         <v>17000</v>
@@ -29418,7 +29427,7 @@
         <v>817</v>
       </c>
       <c r="S335" s="3">
-        <v>27000</v>
+        <v>26987.5</v>
       </c>
       <c r="T335" s="3">
         <v>4066.04</v>
@@ -29483,7 +29492,7 @@
         <v>296.77737200000001</v>
       </c>
       <c r="L336" s="3">
-        <v>679</v>
+        <v>678.6</v>
       </c>
       <c r="M336" s="3">
         <v>12292</v>
@@ -29504,7 +29513,7 @@
         <v>634</v>
       </c>
       <c r="S336" s="3">
-        <v>20980</v>
+        <v>21019.5</v>
       </c>
       <c r="T336" s="3">
         <v>3792.09</v>
@@ -29569,7 +29578,7 @@
         <v>509.17713700000002</v>
       </c>
       <c r="L337" s="3">
-        <v>1004</v>
+        <v>1003.8</v>
       </c>
       <c r="M337" s="3">
         <v>15728</v>
@@ -29590,7 +29599,7 @@
         <v>1722</v>
       </c>
       <c r="S337" s="3">
-        <v>27535</v>
+        <v>27758.5</v>
       </c>
       <c r="T337" s="3">
         <v>4380</v>
@@ -29655,7 +29664,7 @@
         <v>536.77911800000004</v>
       </c>
       <c r="L338" s="3">
-        <v>887</v>
+        <v>885.95</v>
       </c>
       <c r="M338" s="3">
         <v>14424</v>
@@ -29676,7 +29685,7 @@
         <v>1190</v>
       </c>
       <c r="S338" s="3">
-        <v>25020</v>
+        <v>24866</v>
       </c>
       <c r="T338" s="3">
         <v>4407</v>
@@ -29741,7 +29750,7 @@
         <v>442.32057500000002</v>
       </c>
       <c r="L339" s="3">
-        <v>948</v>
+        <v>946.99</v>
       </c>
       <c r="M339" s="3">
         <v>14583</v>
@@ -29762,7 +29771,7 @@
         <v>971</v>
       </c>
       <c r="S339" s="3">
-        <v>24303</v>
+        <v>24231</v>
       </c>
       <c r="T339" s="3">
         <v>4616</v>
@@ -29827,7 +29836,7 @@
         <v>581.48544400000003</v>
       </c>
       <c r="L340" s="3">
-        <v>976</v>
+        <v>975.66</v>
       </c>
       <c r="M340" s="3">
         <v>15374</v>
@@ -29913,7 +29922,7 @@
         <v>446.15274499999998</v>
       </c>
       <c r="L341" s="3">
-        <v>1162</v>
+        <v>1161.02</v>
       </c>
       <c r="M341" s="3">
         <v>17351</v>
@@ -29934,7 +29943,7 @@
         <v>1024</v>
       </c>
       <c r="S341" s="3">
-        <v>26576</v>
+        <v>26572.5</v>
       </c>
       <c r="T341" s="3">
         <v>4466</v>
@@ -29999,7 +30008,7 @@
         <v>648.64307199999996</v>
       </c>
       <c r="L342" s="3">
-        <v>1354</v>
+        <v>1351.09</v>
       </c>
       <c r="M342" s="3">
         <v>18167</v>
@@ -30020,7 +30029,7 @@
         <v>1054</v>
       </c>
       <c r="S342" s="3">
-        <v>27372</v>
+        <v>27366</v>
       </c>
       <c r="T342" s="3">
         <v>4625</v>
@@ -30085,7 +30094,7 @@
         <v>555.51862800000004</v>
       </c>
       <c r="L343" s="3">
-        <v>1024</v>
+        <v>1023.81</v>
       </c>
       <c r="M343" s="3">
         <v>15799</v>
@@ -30106,7 +30115,7 @@
         <v>956</v>
       </c>
       <c r="S343" s="3">
-        <v>24901</v>
+        <v>24851.5</v>
       </c>
       <c r="T343" s="3">
         <v>4646</v>
@@ -30171,7 +30180,7 @@
         <v>515.89689299999998</v>
       </c>
       <c r="L344" s="3">
-        <v>947</v>
+        <v>944.35</v>
       </c>
       <c r="M344" s="3">
         <v>15549</v>
@@ -30192,7 +30201,7 @@
         <v>982</v>
       </c>
       <c r="S344" s="3">
-        <v>25473</v>
+        <v>25434</v>
       </c>
       <c r="T344" s="3">
         <v>4729</v>
@@ -30257,7 +30266,7 @@
         <v>474.97776599999997</v>
       </c>
       <c r="L345" s="3">
-        <v>1326</v>
+        <v>1326.34</v>
       </c>
       <c r="M345" s="3">
         <v>16384</v>
@@ -30278,7 +30287,7 @@
         <v>1045</v>
       </c>
       <c r="S345" s="3">
-        <v>27145</v>
+        <v>27100.5</v>
       </c>
       <c r="T345" s="3">
         <v>4576</v>
@@ -30343,7 +30352,7 @@
         <v>586.31334400000003</v>
       </c>
       <c r="L346" s="3">
-        <v>1340</v>
+        <v>1339.74</v>
       </c>
       <c r="M346" s="3">
         <v>18477</v>
@@ -30364,7 +30373,7 @@
         <v>1124</v>
       </c>
       <c r="S346" s="3">
-        <v>29161</v>
+        <v>29209.5</v>
       </c>
       <c r="T346" s="3">
         <v>4460</v>
@@ -30429,7 +30438,7 @@
         <v>616.24102400000004</v>
       </c>
       <c r="L347" s="3">
-        <v>1169</v>
+        <v>1168.19</v>
       </c>
       <c r="M347" s="3">
         <v>16180</v>
@@ -30450,7 +30459,7 @@
         <v>3517</v>
       </c>
       <c r="S347" s="3">
-        <v>27426</v>
+        <v>27278.5</v>
       </c>
       <c r="T347" s="3">
         <v>4159</v>
@@ -30515,7 +30524,7 @@
         <v>433.13905299999999</v>
       </c>
       <c r="L348" s="3">
-        <v>829</v>
+        <v>828.98</v>
       </c>
       <c r="M348" s="3">
         <v>13240</v>
@@ -30536,7 +30545,7 @@
         <v>2990</v>
       </c>
       <c r="S348" s="3">
-        <v>23333</v>
+        <v>23370</v>
       </c>
       <c r="T348" s="3">
         <v>3880.8</v>
@@ -30601,7 +30610,7 @@
         <v>642.19318399999997</v>
       </c>
       <c r="L349" s="3">
-        <v>882</v>
+        <v>881.7</v>
       </c>
       <c r="M349" s="3">
         <v>16484</v>
@@ -30622,7 +30631,7 @@
         <v>3371</v>
       </c>
       <c r="S349" s="3">
-        <v>27632</v>
+        <v>27681</v>
       </c>
       <c r="T349" s="3">
         <v>4429.51</v>
@@ -30687,7 +30696,7 @@
         <v>846.31490099999996</v>
       </c>
       <c r="L350" s="3">
-        <v>1054</v>
+        <v>1053.43</v>
       </c>
       <c r="M350" s="3">
         <v>14330</v>
@@ -30708,7 +30717,7 @@
         <v>3170</v>
       </c>
       <c r="S350" s="3">
-        <v>24733</v>
+        <v>24787</v>
       </c>
       <c r="T350" s="3">
         <v>4514.62</v>
@@ -30773,7 +30782,7 @@
         <v>464.95946800000002</v>
       </c>
       <c r="L351" s="3">
-        <v>1016</v>
+        <v>1016.33</v>
       </c>
       <c r="M351" s="3">
         <v>14527</v>
@@ -30794,7 +30803,7 @@
         <v>3145</v>
       </c>
       <c r="S351" s="3">
-        <v>24541</v>
+        <v>24536.5</v>
       </c>
       <c r="T351" s="3">
         <v>4364.8</v>
@@ -30859,7 +30868,7 @@
         <v>579.41000099999997</v>
       </c>
       <c r="L352" s="3">
-        <v>988</v>
+        <v>978.09</v>
       </c>
       <c r="M352" s="3">
         <v>15189</v>
@@ -30880,7 +30889,7 @@
         <v>3669</v>
       </c>
       <c r="S352" s="3">
-        <v>25678</v>
+        <v>25711</v>
       </c>
       <c r="T352" s="3">
         <v>4592.05</v>
@@ -30945,7 +30954,7 @@
         <v>557.82973500000003</v>
       </c>
       <c r="L353" s="3">
-        <v>939</v>
+        <v>927.27</v>
       </c>
       <c r="M353" s="3">
         <v>17890</v>
@@ -30966,7 +30975,7 @@
         <v>3406</v>
       </c>
       <c r="S353" s="3">
-        <v>27667</v>
+        <v>27531.5</v>
       </c>
       <c r="T353" s="3">
         <v>4567.3</v>
@@ -31031,7 +31040,7 @@
         <v>562.48760300000004</v>
       </c>
       <c r="L354" s="3">
-        <v>1248</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="M354" s="3">
         <v>17663</v>
@@ -31052,7 +31061,7 @@
         <v>3291</v>
       </c>
       <c r="S354" s="3">
-        <v>26992</v>
+        <v>27080</v>
       </c>
       <c r="T354" s="3">
         <v>4519.6000000000004</v>
@@ -31117,7 +31126,7 @@
         <v>603.33331899999996</v>
       </c>
       <c r="L355" s="3">
-        <v>1133</v>
+        <v>1133.06</v>
       </c>
       <c r="M355" s="3">
         <v>15180</v>
@@ -31138,7 +31147,7 @@
         <v>3598</v>
       </c>
       <c r="S355" s="3">
-        <v>25889</v>
+        <v>25905.5</v>
       </c>
       <c r="T355" s="3">
         <v>4368.6000000000004</v>
@@ -31203,7 +31212,7 @@
         <v>527.153458</v>
       </c>
       <c r="L356" s="3">
-        <v>739</v>
+        <v>738.82</v>
       </c>
       <c r="M356" s="3">
         <v>14213</v>
@@ -31224,7 +31233,7 @@
         <v>3148</v>
       </c>
       <c r="S356" s="3">
-        <v>24245</v>
+        <v>24198</v>
       </c>
       <c r="T356" s="3">
         <v>3945.04</v>
@@ -31289,7 +31298,7 @@
         <v>527.31722400000001</v>
       </c>
       <c r="L357" s="3">
-        <v>896</v>
+        <v>896.29</v>
       </c>
       <c r="M357" s="3">
         <v>15264</v>
@@ -31310,7 +31319,7 @@
         <v>3164</v>
       </c>
       <c r="S357" s="3">
-        <v>26559</v>
+        <v>26571</v>
       </c>
       <c r="T357" s="3">
         <v>4044.1</v>
@@ -31375,7 +31384,7 @@
         <v>611.97950500000002</v>
       </c>
       <c r="L358" s="3">
-        <v>989</v>
+        <v>989.3</v>
       </c>
       <c r="M358" s="3">
         <v>17928</v>
@@ -31396,7 +31405,7 @@
         <v>3296</v>
       </c>
       <c r="S358" s="3">
-        <v>28999</v>
+        <v>28947</v>
       </c>
       <c r="T358" s="3">
         <v>4061.82</v>
@@ -31461,7 +31470,7 @@
         <v>511.43010099999998</v>
       </c>
       <c r="L359" s="3">
-        <v>1250</v>
+        <v>1249.57</v>
       </c>
       <c r="M359" s="3">
         <v>18497</v>
@@ -31482,7 +31491,7 @@
         <v>3434</v>
       </c>
       <c r="S359" s="3">
-        <v>30886</v>
+        <v>30959</v>
       </c>
       <c r="T359" s="3">
         <v>4181.2299999999996</v>
@@ -31547,7 +31556,7 @@
         <v>306.37611800000002</v>
       </c>
       <c r="L360" s="3">
-        <v>992</v>
+        <v>991.62</v>
       </c>
       <c r="M360" s="3">
         <v>12584</v>
@@ -31568,7 +31577,7 @@
         <v>2074</v>
       </c>
       <c r="S360" s="3">
-        <v>21379</v>
+        <v>21228.5</v>
       </c>
       <c r="T360" s="3">
         <v>3739</v>
@@ -31633,7 +31642,7 @@
         <v>400.85578900000002</v>
       </c>
       <c r="L361" s="3">
-        <v>1329</v>
+        <v>1329.14</v>
       </c>
       <c r="M361" s="3">
         <v>15832</v>
@@ -31654,7 +31663,7 @@
         <v>2849</v>
       </c>
       <c r="S361" s="3">
-        <v>26206</v>
+        <v>26392</v>
       </c>
       <c r="T361" s="3">
         <v>4118.9799999999996</v>
@@ -31719,7 +31728,7 @@
         <v>452.82320299999998</v>
       </c>
       <c r="L362" s="3">
-        <v>974</v>
+        <v>974.18</v>
       </c>
       <c r="M362" s="3">
         <v>15023</v>
@@ -31740,7 +31749,7 @@
         <v>3122</v>
       </c>
       <c r="S362" s="3">
-        <v>24967</v>
+        <v>24976.5</v>
       </c>
       <c r="T362" s="3">
         <v>4222.8999999999996</v>
@@ -31805,7 +31814,7 @@
         <v>607.84196599999996</v>
       </c>
       <c r="L363" s="3">
-        <v>832</v>
+        <v>832.16</v>
       </c>
       <c r="M363" s="3">
         <v>15824</v>
@@ -31891,7 +31900,7 @@
         <v>644.98883499999999</v>
       </c>
       <c r="L364" s="3">
-        <v>1068</v>
+        <v>1068.01</v>
       </c>
       <c r="M364" s="3">
         <v>15863</v>
@@ -31912,7 +31921,7 @@
         <v>3268</v>
       </c>
       <c r="S364" s="3">
-        <v>25483</v>
+        <v>25481.5</v>
       </c>
       <c r="T364" s="3">
         <v>4161.8</v>
@@ -31977,7 +31986,7 @@
         <v>747.97552099999996</v>
       </c>
       <c r="L365" s="3">
-        <v>1240</v>
+        <v>1240.02</v>
       </c>
       <c r="M365" s="3">
         <v>18121</v>
@@ -31998,7 +32007,7 @@
         <v>3173</v>
       </c>
       <c r="S365" s="3">
-        <v>27616</v>
+        <v>27643</v>
       </c>
       <c r="T365" s="3">
         <v>4219.09</v>
@@ -32063,7 +32072,7 @@
         <v>700.44890099999998</v>
       </c>
       <c r="L366" s="3">
-        <v>1276</v>
+        <v>1275.55</v>
       </c>
       <c r="M366" s="3">
         <v>18555</v>
@@ -32084,7 +32093,7 @@
         <v>3556</v>
       </c>
       <c r="S366" s="3">
-        <v>28443</v>
+        <v>28431</v>
       </c>
       <c r="T366" s="3">
         <v>4406</v>
@@ -32149,7 +32158,7 @@
         <v>660.60562700000003</v>
       </c>
       <c r="L367" s="3">
-        <v>1016</v>
+        <v>1016.39</v>
       </c>
       <c r="M367" s="3">
         <v>15753</v>
@@ -32170,7 +32179,7 @@
         <v>3310</v>
       </c>
       <c r="S367" s="3">
-        <v>25835</v>
+        <v>25891.5</v>
       </c>
       <c r="T367" s="3">
         <v>4604</v>
@@ -32235,7 +32244,7 @@
         <v>608.49070700000004</v>
       </c>
       <c r="L368" s="3">
-        <v>961</v>
+        <v>960.51</v>
       </c>
       <c r="M368" s="3">
         <v>15558</v>
@@ -32256,7 +32265,7 @@
         <v>3332</v>
       </c>
       <c r="S368" s="3">
-        <v>26638</v>
+        <v>26594.5</v>
       </c>
       <c r="T368" s="3">
         <v>4408</v>
@@ -32321,7 +32330,7 @@
         <v>488.60906399999999</v>
       </c>
       <c r="L369" s="3">
-        <v>821</v>
+        <v>821.39</v>
       </c>
       <c r="M369" s="3">
         <v>16294</v>
@@ -32342,7 +32351,7 @@
         <v>2855</v>
       </c>
       <c r="S369" s="3">
-        <v>27993</v>
+        <v>27943.5</v>
       </c>
       <c r="T369" s="3">
         <v>4222</v>
@@ -32407,7 +32416,7 @@
         <v>312.78895399999999</v>
       </c>
       <c r="L370" s="3">
-        <v>435</v>
+        <v>435.21</v>
       </c>
       <c r="M370" s="3">
         <v>19211</v>
@@ -32428,7 +32437,7 @@
         <v>2774</v>
       </c>
       <c r="S370" s="3">
-        <v>30526</v>
+        <v>30537</v>
       </c>
       <c r="T370" s="3">
         <v>4576</v>
@@ -32493,7 +32502,7 @@
         <v>736.85159599999997</v>
       </c>
       <c r="L371" s="3">
-        <v>1328</v>
+        <v>1328.15</v>
       </c>
       <c r="M371" s="3">
         <v>17042</v>
@@ -32514,7 +32523,7 @@
         <v>2438</v>
       </c>
       <c r="S371" s="3">
-        <v>28063</v>
+        <v>28084</v>
       </c>
       <c r="T371" s="3">
         <v>4528</v>
@@ -32579,7 +32588,7 @@
         <v>291.04816299999999</v>
       </c>
       <c r="L372" s="3">
-        <v>649</v>
+        <v>648.95000000000005</v>
       </c>
       <c r="M372" s="3">
         <v>15204</v>
@@ -32600,7 +32609,7 @@
         <v>2183</v>
       </c>
       <c r="S372" s="3">
-        <v>25127</v>
+        <v>25012</v>
       </c>
       <c r="T372" s="3">
         <v>4045</v>
@@ -32665,7 +32674,7 @@
         <v>613.62198100000001</v>
       </c>
       <c r="L373" s="3">
-        <v>775</v>
+        <v>775.38</v>
       </c>
       <c r="M373" s="3">
         <v>16250</v>
@@ -32686,7 +32695,7 @@
         <v>2585</v>
       </c>
       <c r="S373" s="3">
-        <v>27129</v>
+        <v>27331</v>
       </c>
       <c r="T373" s="3">
         <v>4529</v>
@@ -32751,7 +32760,7 @@
         <v>742.597893</v>
       </c>
       <c r="L374" s="3">
-        <v>822</v>
+        <v>822.4</v>
       </c>
       <c r="M374" s="3">
         <v>15115</v>
@@ -32772,7 +32781,7 @@
         <v>3039</v>
       </c>
       <c r="S374" s="3">
-        <v>25824</v>
+        <v>25814</v>
       </c>
       <c r="T374" s="3">
         <v>4627</v>
@@ -32837,7 +32846,7 @@
         <v>591.68444</v>
       </c>
       <c r="L375" s="3">
-        <v>1166</v>
+        <v>1166.32</v>
       </c>
       <c r="M375" s="3">
         <v>15606</v>
@@ -32858,7 +32867,7 @@
         <v>3027</v>
       </c>
       <c r="S375" s="3">
-        <v>25735</v>
+        <v>25805.5</v>
       </c>
       <c r="T375" s="3">
         <v>4659</v>
@@ -32923,7 +32932,7 @@
         <v>654.98768199999995</v>
       </c>
       <c r="L376" s="3">
-        <v>1776</v>
+        <v>1146.01</v>
       </c>
       <c r="M376" s="3">
         <v>16509</v>
@@ -32944,7 +32953,7 @@
         <v>3154</v>
       </c>
       <c r="S376" s="3">
-        <v>26793</v>
+        <v>26771.5</v>
       </c>
       <c r="T376" s="3">
         <v>4786</v>
@@ -33009,7 +33018,7 @@
         <v>774.784131</v>
       </c>
       <c r="L377" s="3">
-        <v>2142</v>
+        <v>1430.22</v>
       </c>
       <c r="M377" s="3">
         <v>18821</v>
@@ -33030,7 +33039,7 @@
         <v>3594</v>
       </c>
       <c r="S377" s="3">
-        <v>29456</v>
+        <v>29472.5</v>
       </c>
       <c r="T377" s="3">
         <v>4639</v>
@@ -33095,7 +33104,7 @@
         <v>906.70605</v>
       </c>
       <c r="L378" s="3">
-        <v>1654</v>
+        <v>1463.29</v>
       </c>
       <c r="M378" s="3">
         <v>19484</v>
@@ -33116,7 +33125,7 @@
         <v>3513</v>
       </c>
       <c r="S378" s="3">
-        <v>29876</v>
+        <v>29909</v>
       </c>
       <c r="T378" s="3">
         <v>4723</v>
@@ -33181,7 +33190,7 @@
         <v>796.50388299999997</v>
       </c>
       <c r="L379" s="3">
-        <v>1395</v>
+        <v>1395.5</v>
       </c>
       <c r="M379" s="3">
         <v>17034</v>
@@ -33202,7 +33211,7 @@
         <v>3469</v>
       </c>
       <c r="S379" s="3">
-        <v>27762</v>
+        <v>27729</v>
       </c>
       <c r="T379" s="3">
         <v>4608</v>
@@ -33288,7 +33297,7 @@
         <v>3353</v>
       </c>
       <c r="S380" s="3">
-        <v>26830</v>
+        <v>26778.5</v>
       </c>
       <c r="T380" s="3">
         <v>4493</v>
@@ -33374,7 +33383,7 @@
         <v>3064</v>
       </c>
       <c r="S381" s="3">
-        <v>30652</v>
+        <v>30673.5</v>
       </c>
       <c r="T381" s="3">
         <v>4702</v>
@@ -33460,7 +33469,7 @@
         <v>2420</v>
       </c>
       <c r="S382" s="3">
-        <v>31469</v>
+        <v>31450</v>
       </c>
       <c r="T382" s="3">
         <v>4327</v>
@@ -33525,7 +33534,7 @@
         <v>981.27979700000003</v>
       </c>
       <c r="L383" s="3">
-        <v>1915.890238</v>
+        <v>1915.89</v>
       </c>
       <c r="M383" s="3">
         <v>17435</v>
@@ -33546,7 +33555,7 @@
         <v>2390</v>
       </c>
       <c r="S383" s="3">
-        <v>28297</v>
+        <v>28069</v>
       </c>
       <c r="T383" s="3">
         <v>4419</v>
@@ -33611,7 +33620,7 @@
         <v>534.407332</v>
       </c>
       <c r="L384" s="3">
-        <v>1057.6827659999999</v>
+        <v>1057.68</v>
       </c>
       <c r="M384" s="3">
         <v>11540</v>
@@ -33632,7 +33641,7 @@
         <v>1877</v>
       </c>
       <c r="S384" s="3">
-        <v>20673</v>
+        <v>20697</v>
       </c>
       <c r="T384" s="3">
         <v>3725</v>
@@ -33697,7 +33706,7 @@
         <v>563.41999999999996</v>
       </c>
       <c r="L385" s="3">
-        <v>1267</v>
+        <v>1267.28</v>
       </c>
       <c r="M385" s="3">
         <v>15402</v>
@@ -33718,7 +33727,7 @@
         <v>2949</v>
       </c>
       <c r="S385" s="3">
-        <v>26529</v>
+        <v>26664</v>
       </c>
       <c r="T385" s="3">
         <v>4530</v>
@@ -33783,7 +33792,7 @@
         <v>627.69000000000005</v>
       </c>
       <c r="L386" s="3">
-        <v>1520</v>
+        <v>1519.9</v>
       </c>
       <c r="M386" s="3">
         <v>15796</v>
@@ -33804,7 +33813,7 @@
         <v>2786</v>
       </c>
       <c r="S386" s="3">
-        <v>26488</v>
+        <v>26628</v>
       </c>
       <c r="T386" s="3">
         <v>4576</v>
@@ -33869,7 +33878,7 @@
         <v>485.151386</v>
       </c>
       <c r="L387" s="3">
-        <v>932.15672300000006</v>
+        <v>932.16</v>
       </c>
       <c r="M387" s="3">
         <v>16869</v>
@@ -33890,7 +33899,7 @@
         <v>2972</v>
       </c>
       <c r="S387" s="3">
-        <v>27618</v>
+        <v>27637</v>
       </c>
       <c r="T387" s="3">
         <v>4583</v>
@@ -33955,7 +33964,7 @@
         <v>625.59125100000006</v>
       </c>
       <c r="L388" s="3">
-        <v>1198.8869709999999</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="M388" s="3">
         <v>17308</v>
@@ -33976,7 +33985,7 @@
         <v>3302</v>
       </c>
       <c r="S388" s="3">
-        <v>28061</v>
+        <v>28063.5</v>
       </c>
       <c r="T388" s="3">
         <v>4812</v>
@@ -34041,7 +34050,7 @@
         <v>736.76744599999995</v>
       </c>
       <c r="L389" s="3">
-        <v>1124.6462690000001</v>
+        <v>1124.6500000000001</v>
       </c>
       <c r="M389" s="3">
         <v>18368</v>
@@ -34062,7 +34071,7 @@
         <v>3324</v>
       </c>
       <c r="S389" s="3">
-        <v>28900</v>
+        <v>28922.5</v>
       </c>
       <c r="T389" s="3">
         <v>4786</v>
@@ -34127,7 +34136,7 @@
         <v>717.17807600000003</v>
       </c>
       <c r="L390" s="3">
-        <v>870.85663699999998</v>
+        <v>870.86</v>
       </c>
       <c r="M390" s="3">
         <v>20144</v>
@@ -34148,7 +34157,7 @@
         <v>3478</v>
       </c>
       <c r="S390" s="3">
-        <v>31291</v>
+        <v>31327</v>
       </c>
       <c r="T390" s="3">
         <v>4931</v>
@@ -34213,7 +34222,7 @@
         <v>671.80579699999998</v>
       </c>
       <c r="L391" s="3">
-        <v>860.25342599999999</v>
+        <v>860.25</v>
       </c>
       <c r="M391" s="3">
         <v>16955</v>
@@ -34234,7 +34243,7 @@
         <v>3384</v>
       </c>
       <c r="S391" s="3">
-        <v>27758</v>
+        <v>27741</v>
       </c>
       <c r="T391" s="3">
         <v>4858</v>
@@ -34299,7 +34308,7 @@
         <v>589.70099800000003</v>
       </c>
       <c r="L392" s="3">
-        <v>527.09457599999996</v>
+        <v>527.09</v>
       </c>
       <c r="M392" s="3">
         <v>16204</v>
@@ -34320,7 +34329,7 @@
         <v>3540</v>
       </c>
       <c r="S392" s="3">
-        <v>28303</v>
+        <v>28314.5</v>
       </c>
       <c r="T392" s="3">
         <v>4820</v>
@@ -34385,7 +34394,7 @@
         <v>372.20901199999997</v>
       </c>
       <c r="L393" s="3">
-        <v>434.762047</v>
+        <v>434.76</v>
       </c>
       <c r="M393" s="3">
         <v>19419</v>
@@ -34406,7 +34415,7 @@
         <v>3667</v>
       </c>
       <c r="S393" s="3">
-        <v>32992</v>
+        <v>32956.5</v>
       </c>
       <c r="T393" s="3">
         <v>4914</v>
@@ -34471,7 +34480,7 @@
         <v>357.02704699999998</v>
       </c>
       <c r="L394" s="3">
-        <v>1507.998855</v>
+        <v>1508</v>
       </c>
       <c r="M394" s="3">
         <v>23128</v>
@@ -34492,7 +34501,7 @@
         <v>3198</v>
       </c>
       <c r="S394" s="3">
-        <v>36785</v>
+        <v>36828</v>
       </c>
       <c r="T394" s="3">
         <v>4822</v>
@@ -34557,7 +34566,7 @@
         <v>312.18340799999999</v>
       </c>
       <c r="L395" s="3">
-        <v>911.97159199999999</v>
+        <v>919.91</v>
       </c>
       <c r="M395" s="3">
         <v>22235</v>
@@ -34578,7 +34587,7 @@
         <v>2705</v>
       </c>
       <c r="S395" s="3">
-        <v>35187</v>
+        <v>35219</v>
       </c>
       <c r="T395" s="3">
         <v>4717</v>
@@ -34643,7 +34652,7 @@
         <v>322.66886099999999</v>
       </c>
       <c r="L396" s="3">
-        <v>876.17113900000004</v>
+        <v>868.55</v>
       </c>
       <c r="M396" s="3">
         <v>14167</v>
@@ -34664,7 +34673,7 @@
         <v>1752</v>
       </c>
       <c r="S396" s="3">
-        <v>24546</v>
+        <v>24355.5</v>
       </c>
       <c r="T396" s="3">
         <v>4207</v>
@@ -34729,7 +34738,7 @@
         <v>490.54521199999999</v>
       </c>
       <c r="L397" s="3">
-        <v>1215.4828399999999</v>
+        <v>1201.6500000000001</v>
       </c>
       <c r="M397" s="3">
         <v>19643</v>
@@ -34750,7 +34759,7 @@
         <v>3244</v>
       </c>
       <c r="S397" s="3">
-        <v>32429</v>
+        <v>32624.5</v>
       </c>
       <c r="T397" s="3">
         <v>4785</v>
@@ -34815,7 +34824,7 @@
         <v>348.31278800000001</v>
       </c>
       <c r="L398" s="3">
-        <v>1049.253334</v>
+        <v>1046.0899999999999</v>
       </c>
       <c r="M398" s="3">
         <v>17796</v>
@@ -34836,7 +34845,7 @@
         <v>2969</v>
       </c>
       <c r="S398" s="3">
-        <v>29710</v>
+        <v>29879</v>
       </c>
       <c r="T398" s="3">
         <v>4639</v>
@@ -34901,7 +34910,7 @@
         <v>341.19250899999997</v>
       </c>
       <c r="L399" s="3">
-        <v>1012.699374</v>
+        <v>1012.34</v>
       </c>
       <c r="M399" s="3">
         <v>17772</v>
@@ -34922,7 +34931,7 @@
         <v>3230</v>
       </c>
       <c r="S399" s="3">
-        <v>29054</v>
+        <v>28910.5</v>
       </c>
       <c r="T399" s="3">
         <v>4525</v>
@@ -34987,7 +34996,7 @@
         <v>413.42101200000002</v>
       </c>
       <c r="L400" s="3">
-        <v>1314.8614560000001</v>
+        <v>1307.3499999999999</v>
       </c>
       <c r="M400" s="3">
         <v>18714</v>
@@ -35008,7 +35017,7 @@
         <v>3300</v>
       </c>
       <c r="S400" s="3">
-        <v>29694</v>
+        <v>29717.5</v>
       </c>
       <c r="T400" s="3">
         <v>4513</v>
@@ -35073,7 +35082,7 @@
         <v>377.12907899999999</v>
       </c>
       <c r="L401" s="3">
-        <v>1454.650609</v>
+        <v>1453.17</v>
       </c>
       <c r="M401" s="3">
         <v>20374</v>
@@ -35094,7 +35103,7 @@
         <v>3096</v>
       </c>
       <c r="S401" s="3">
-        <v>30984</v>
+        <v>31028.5</v>
       </c>
       <c r="T401" s="3">
         <v>4553</v>
@@ -35159,7 +35168,7 @@
         <v>468.28305399999999</v>
       </c>
       <c r="L402" s="3">
-        <v>1303.866677</v>
+        <v>1303.92</v>
       </c>
       <c r="M402" s="3">
         <v>20021</v>
@@ -35180,7 +35189,7 @@
         <v>3074</v>
       </c>
       <c r="S402" s="3">
-        <v>30752</v>
+        <v>30712.5</v>
       </c>
       <c r="T402" s="3">
         <v>4997</v>
@@ -35245,7 +35254,7 @@
         <v>434.64770600000003</v>
       </c>
       <c r="L403" s="3">
-        <v>1587.5617810000001</v>
+        <v>1585.46</v>
       </c>
       <c r="M403" s="3">
         <v>17869</v>
@@ -35266,7 +35275,7 @@
         <v>3187</v>
       </c>
       <c r="S403" s="3">
-        <v>28027</v>
+        <v>27952.5</v>
       </c>
       <c r="T403" s="3">
         <v>4499</v>
@@ -35331,7 +35340,7 @@
         <v>438.40175099999999</v>
       </c>
       <c r="L404" s="3">
-        <v>1400.878054</v>
+        <v>1400.86</v>
       </c>
       <c r="M404" s="3">
         <v>16762</v>
@@ -35352,7 +35361,7 @@
         <v>3814</v>
       </c>
       <c r="S404" s="3">
-        <v>28594</v>
+        <v>28559.5</v>
       </c>
       <c r="T404" s="3">
         <v>4338</v>
@@ -35417,7 +35426,7 @@
         <v>774.16560000000004</v>
       </c>
       <c r="L405" s="3">
-        <v>1588.1255880000001</v>
+        <v>1588.21</v>
       </c>
       <c r="M405" s="3">
         <v>18390</v>
@@ -35438,7 +35447,7 @@
         <v>3617</v>
       </c>
       <c r="S405" s="3">
-        <v>31479</v>
+        <v>31454.5</v>
       </c>
       <c r="T405" s="3">
         <v>4165</v>
@@ -35503,7 +35512,7 @@
         <v>748.79557</v>
       </c>
       <c r="L406" s="3">
-        <v>1271.7040500000001</v>
+        <v>1271.7</v>
       </c>
       <c r="M406" s="3">
         <v>21675</v>
@@ -35524,7 +35533,7 @@
         <v>4118</v>
       </c>
       <c r="S406" s="3">
-        <v>35819</v>
+        <v>35920</v>
       </c>
       <c r="T406" s="3">
         <v>4599</v>
@@ -35589,7 +35598,7 @@
         <v>551.11530600000003</v>
       </c>
       <c r="L407" s="3">
-        <v>1059.1937499999999</v>
+        <v>1058.05</v>
       </c>
       <c r="M407" s="3">
         <v>20894</v>
@@ -35610,7 +35619,7 @@
         <v>2686</v>
       </c>
       <c r="S407" s="3">
-        <v>33590</v>
+        <v>33667</v>
       </c>
       <c r="T407" s="3">
         <v>4624</v>
@@ -35675,7 +35684,7 @@
         <v>298.65801599999998</v>
       </c>
       <c r="L408" s="3">
-        <v>410.39013699999998</v>
+        <v>410.39</v>
       </c>
       <c r="M408" s="3">
         <v>18132</v>
@@ -35696,7 +35705,7 @@
         <v>2052</v>
       </c>
       <c r="S408" s="3">
-        <v>28739</v>
+        <v>28462</v>
       </c>
       <c r="T408" s="3">
         <v>4129</v>
@@ -35761,7 +35770,7 @@
         <v>376.22104000000002</v>
       </c>
       <c r="L409" s="3">
-        <v>505.468863</v>
+        <v>505.49</v>
       </c>
       <c r="M409" s="3">
         <v>19157</v>
@@ -35782,7 +35791,7 @@
         <v>3168</v>
       </c>
       <c r="S409" s="3">
-        <v>31666</v>
+        <v>31885.5</v>
       </c>
       <c r="T409" s="3">
         <v>4895</v>
@@ -35847,7 +35856,7 @@
         <v>425.64461999999997</v>
       </c>
       <c r="L410" s="3">
-        <v>741.92252199999996</v>
+        <v>741.94</v>
       </c>
       <c r="M410" s="3">
         <v>16120</v>
@@ -35868,7 +35877,7 @@
         <v>2744</v>
       </c>
       <c r="S410" s="3">
-        <v>26640</v>
+        <v>26690.5</v>
       </c>
       <c r="T410" s="3">
         <v>4627</v>
@@ -35933,7 +35942,7 @@
         <v>456.52141399999999</v>
       </c>
       <c r="L411" s="3">
-        <v>599.27978599999994</v>
+        <v>598.69000000000005</v>
       </c>
       <c r="M411" s="3">
         <v>16550</v>
@@ -35954,7 +35963,7 @@
         <v>2834</v>
       </c>
       <c r="S411" s="3">
-        <v>26916</v>
+        <v>27124.5</v>
       </c>
       <c r="T411" s="3">
         <v>4778</v>
@@ -36019,7 +36028,7 @@
         <v>498.30828100000002</v>
       </c>
       <c r="L412" s="3">
-        <v>524.49379099999999</v>
+        <v>524.35</v>
       </c>
       <c r="M412" s="3">
         <v>18531</v>
@@ -36040,7 +36049,7 @@
         <v>3226</v>
       </c>
       <c r="S412" s="3">
-        <v>29336</v>
+        <v>29395.5</v>
       </c>
       <c r="T412" s="3">
         <v>4766</v>
@@ -36105,7 +36114,7 @@
         <v>611.80191200000002</v>
       </c>
       <c r="L413" s="3">
-        <v>692.51334699999995</v>
+        <v>692.51</v>
       </c>
       <c r="M413" s="3">
         <v>21923</v>
@@ -36126,7 +36135,7 @@
         <v>3193</v>
       </c>
       <c r="S413" s="3">
-        <v>32295</v>
+        <v>32190.5</v>
       </c>
       <c r="T413" s="3">
         <v>4530</v>
@@ -36191,7 +36200,7 @@
         <v>640.60362699999996</v>
       </c>
       <c r="L414" s="3">
-        <v>913.07637299999999</v>
+        <v>912.02</v>
       </c>
       <c r="M414" s="3">
         <v>24078</v>
@@ -36212,7 +36221,7 @@
         <v>3327</v>
       </c>
       <c r="S414" s="3">
-        <v>34958</v>
+        <v>34799.5</v>
       </c>
       <c r="T414" s="3">
         <v>4657</v>
@@ -36277,7 +36286,7 @@
         <v>684.47882300000003</v>
       </c>
       <c r="L415" s="3">
-        <v>1029.9911770000001</v>
+        <v>1030.1600000000001</v>
       </c>
       <c r="M415" s="3">
         <v>19874</v>
@@ -36298,7 +36307,7 @@
         <v>3473</v>
       </c>
       <c r="S415" s="3">
-        <v>31084</v>
+        <v>31070.5</v>
       </c>
       <c r="T415" s="3">
         <v>4721</v>
@@ -36363,7 +36372,7 @@
         <v>620.78621899999996</v>
       </c>
       <c r="L416" s="3">
-        <v>1076.7537809999999</v>
+        <v>1076.77</v>
       </c>
       <c r="M416" s="3">
         <v>18352</v>
@@ -36384,7 +36393,7 @@
         <v>3822</v>
       </c>
       <c r="S416" s="3">
-        <v>30362</v>
+        <v>30337</v>
       </c>
       <c r="T416" s="3">
         <v>4593</v>
@@ -36449,7 +36458,7 @@
         <v>573.21654100000001</v>
       </c>
       <c r="L417" s="3">
-        <v>1228.793459</v>
+        <v>1221.52</v>
       </c>
       <c r="M417" s="3">
         <v>19718</v>
@@ -36470,7 +36479,7 @@
         <v>3980</v>
       </c>
       <c r="S417" s="3">
-        <v>31616</v>
+        <v>31526</v>
       </c>
       <c r="T417" s="3">
         <v>4540</v>
@@ -36535,7 +36544,7 @@
         <v>646.48585600000001</v>
       </c>
       <c r="L418" s="3">
-        <v>1118.214144</v>
+        <v>1118.21</v>
       </c>
       <c r="M418" s="3">
         <v>23084</v>
@@ -36556,7 +36565,7 @@
         <v>3803</v>
       </c>
       <c r="S418" s="3">
-        <v>36941</v>
+        <v>36912.5</v>
       </c>
       <c r="T418" s="3">
         <v>4758</v>
@@ -36621,7 +36630,7 @@
         <v>619.65163800000005</v>
       </c>
       <c r="L419" s="3">
-        <v>1325.7183620000001</v>
+        <v>1325.24</v>
       </c>
       <c r="M419" s="3">
         <v>20188</v>
@@ -36642,7 +36651,7 @@
         <v>2596</v>
       </c>
       <c r="S419" s="3">
-        <v>32644</v>
+        <v>32571</v>
       </c>
       <c r="T419" s="3">
         <v>4565</v>
@@ -36707,7 +36716,7 @@
         <v>691.36936000000003</v>
       </c>
       <c r="L420" s="3">
-        <v>954.82064000000003</v>
+        <v>954.15</v>
       </c>
       <c r="M420" s="3">
         <v>19654</v>
@@ -36728,7 +36737,7 @@
         <v>2609</v>
       </c>
       <c r="S420" s="3">
-        <v>31847</v>
+        <v>31778</v>
       </c>
       <c r="T420" s="3">
         <v>4740</v>
@@ -36814,7 +36823,7 @@
         <v>3271</v>
       </c>
       <c r="S421" s="3">
-        <v>34349</v>
+        <v>34449.5</v>
       </c>
       <c r="T421" s="3">
         <v>5148</v>
@@ -36900,7 +36909,7 @@
         <v>2945</v>
       </c>
       <c r="S422" s="3">
-        <v>29200</v>
+        <v>29135.5</v>
       </c>
       <c r="T422" s="3">
         <v>4892</v>
@@ -36986,7 +36995,7 @@
         <v>3360</v>
       </c>
       <c r="S423" s="3">
-        <v>30931</v>
+        <v>31001.5</v>
       </c>
       <c r="T423" s="3">
         <v>4914</v>
@@ -37051,7 +37060,7 @@
         <v>773.99</v>
       </c>
       <c r="L424" s="3">
-        <v>1992.94</v>
+        <v>1992.9</v>
       </c>
       <c r="M424" s="3">
         <v>22164</v>
@@ -37072,7 +37081,7 @@
         <v>3829</v>
       </c>
       <c r="S424" s="3">
-        <v>33722</v>
+        <v>33735</v>
       </c>
       <c r="T424" s="3">
         <v>4899</v>
@@ -37158,7 +37167,7 @@
         <v>3661</v>
       </c>
       <c r="S425" s="3">
-        <v>35535</v>
+        <v>35578.5</v>
       </c>
       <c r="T425" s="3">
         <v>4873</v>
@@ -37223,7 +37232,7 @@
         <v>957.31</v>
       </c>
       <c r="L426" s="3">
-        <v>2153.38</v>
+        <v>2152.7199999999998</v>
       </c>
       <c r="M426" s="3">
         <v>23834</v>
@@ -37244,7 +37253,7 @@
         <v>3737</v>
       </c>
       <c r="S426" s="3">
-        <v>35530</v>
+        <v>35546</v>
       </c>
       <c r="T426" s="3">
         <v>5003</v>
@@ -37309,7 +37318,7 @@
         <v>1082.48</v>
       </c>
       <c r="L427" s="3">
-        <v>1839.49</v>
+        <v>1838.15</v>
       </c>
       <c r="M427" s="3">
         <v>20979</v>
@@ -37330,7 +37339,7 @@
         <v>3566</v>
       </c>
       <c r="S427" s="3">
-        <v>32505</v>
+        <v>32409</v>
       </c>
       <c r="T427" s="3">
         <v>5149</v>
@@ -37416,7 +37425,7 @@
         <v>3508</v>
       </c>
       <c r="S428" s="3">
-        <v>31964</v>
+        <v>31998</v>
       </c>
       <c r="T428" s="3">
         <v>4976</v>
@@ -37502,7 +37511,7 @@
         <v>4044</v>
       </c>
       <c r="S429" s="3">
-        <v>36028</v>
+        <v>35923</v>
       </c>
       <c r="T429" s="3">
         <v>4896</v>
@@ -37588,7 +37597,7 @@
         <v>4044</v>
       </c>
       <c r="S430" s="3">
-        <v>40079</v>
+        <v>40037</v>
       </c>
       <c r="T430" s="3">
         <v>5091</v>
@@ -37674,7 +37683,7 @@
         <v>2958</v>
       </c>
       <c r="S431" s="3">
-        <v>38546</v>
+        <v>38496</v>
       </c>
       <c r="T431" s="3">
         <v>4870.5</v>
@@ -37760,7 +37769,7 @@
         <v>2413</v>
       </c>
       <c r="S432" s="3">
-        <v>31412</v>
+        <v>31307</v>
       </c>
       <c r="T432" s="3">
         <v>4535.3999999999996</v>
@@ -37846,7 +37855,7 @@
         <v>3452</v>
       </c>
       <c r="S433" s="3">
-        <v>34554</v>
+        <v>34518</v>
       </c>
       <c r="T433" s="3">
         <v>4691.6000000000004</v>
@@ -37932,7 +37941,7 @@
         <v>3204</v>
       </c>
       <c r="S434" s="3">
-        <v>30495</v>
+        <v>30309</v>
       </c>
       <c r="T434" s="3">
         <v>4699.2</v>
@@ -37994,10 +38003,10 @@
         <v>31731</v>
       </c>
       <c r="K435" s="3">
-        <v>967.89</v>
+        <v>958.68</v>
       </c>
       <c r="L435" s="3">
-        <v>2015.95</v>
+        <v>2025.16</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38018,7 +38027,7 @@
         <v>3263</v>
       </c>
       <c r="S435" s="3">
-        <v>31010</v>
+        <v>31007</v>
       </c>
       <c r="T435" s="3">
         <v>5000.7</v>
@@ -38104,7 +38113,7 @@
         <v>3703</v>
       </c>
       <c r="S436" s="3">
-        <v>32613</v>
+        <v>32593</v>
       </c>
       <c r="T436" s="3">
         <v>5097.4799999999996</v>
@@ -38166,10 +38175,10 @@
         <v>31386</v>
       </c>
       <c r="K437" s="3">
-        <v>1085.6600000000001</v>
+        <v>1083.79</v>
       </c>
       <c r="L437" s="3">
-        <v>1977.97</v>
+        <v>1979.84</v>
       </c>
       <c r="M437" s="3">
         <v>24167</v>
@@ -38190,7 +38199,7 @@
         <v>4020</v>
       </c>
       <c r="S437" s="3">
-        <v>35853</v>
+        <v>35779</v>
       </c>
       <c r="T437" s="3">
         <v>5018.16</v>
@@ -38252,7 +38261,7 @@
         <v>31667</v>
       </c>
       <c r="K438" s="3">
-        <v>1069.96</v>
+        <v>1069.22</v>
       </c>
       <c r="L438" s="3">
         <v>2040.58</v>
@@ -38276,7 +38285,7 @@
         <v>4033</v>
       </c>
       <c r="S438" s="3">
-        <v>37189</v>
+        <v>37141</v>
       </c>
       <c r="T438" s="3">
         <v>4967.3100000000004</v>
@@ -38341,7 +38350,7 @@
         <v>1036.27</v>
       </c>
       <c r="L439" s="3">
-        <v>2001.72</v>
+        <v>2001.7</v>
       </c>
       <c r="M439" s="3">
         <v>23244</v>
@@ -38362,13 +38371,13 @@
         <v>3867</v>
       </c>
       <c r="S439" s="3">
-        <v>34810</v>
+        <v>34790</v>
       </c>
       <c r="T439" s="3">
         <v>4834.41</v>
       </c>
       <c r="U439" s="3">
-        <v>132670</v>
+        <v>132669.82897999999</v>
       </c>
       <c r="V439" s="3">
         <v>-10.7</v>
@@ -38397,37 +38406,37 @@
         <v>45596</v>
       </c>
       <c r="B440" s="3">
-        <v>17764</v>
+        <v>17763.5</v>
       </c>
       <c r="C440" s="3">
-        <v>45707.4</v>
+        <v>45707</v>
       </c>
       <c r="D440" s="3">
-        <v>0</v>
+        <v>3514.176277</v>
       </c>
       <c r="E440" s="3">
         <v>0</v>
       </c>
       <c r="F440" s="3">
-        <v>0</v>
+        <v>3297.6690840000001</v>
       </c>
       <c r="G440" s="3">
         <v>0</v>
       </c>
       <c r="H440" s="3">
-        <v>0</v>
+        <v>4359.8416269999998</v>
       </c>
       <c r="I440" s="3">
-        <v>0</v>
+        <v>3747.276429</v>
       </c>
       <c r="J440" s="3">
         <v>0</v>
       </c>
       <c r="K440" s="3">
-        <v>0</v>
+        <v>995.69</v>
       </c>
       <c r="L440" s="3">
-        <v>0</v>
+        <v>1864.23</v>
       </c>
       <c r="M440" s="3">
         <v>0</v>
@@ -38454,28 +38463,28 @@
         <v>0</v>
       </c>
       <c r="U440" s="3">
-        <v>150116</v>
+        <v>150115.96653000001</v>
       </c>
       <c r="V440" s="3">
         <v>-10.3</v>
       </c>
       <c r="W440" s="3">
-        <v>4092.1</v>
+        <v>4092</v>
       </c>
       <c r="X440" s="3">
-        <v>4915.6000000000004</v>
+        <v>4916</v>
       </c>
       <c r="Y440" s="3">
-        <v>0</v>
+        <v>1522.9309800000001</v>
       </c>
       <c r="Z440" s="3">
-        <v>2039</v>
+        <v>2038.8</v>
       </c>
       <c r="AA440" s="3">
-        <v>590590000</v>
+        <v>590586000</v>
       </c>
       <c r="AB440" s="3">
-        <v>0</v>
+        <v>26998</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A8FB5-40C0-4940-9D1A-4834A5BC20E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D3991-1237-41CD-95BB-01C9164F5EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30693,10 +30693,10 @@
         <v>24783</v>
       </c>
       <c r="K350" s="3">
-        <v>846.31490099999996</v>
+        <v>836.58</v>
       </c>
       <c r="L350" s="3">
-        <v>1053.43</v>
+        <v>1054.1400000000001</v>
       </c>
       <c r="M350" s="3">
         <v>14330</v>
@@ -30779,10 +30779,10 @@
         <v>24581</v>
       </c>
       <c r="K351" s="3">
-        <v>464.95946800000002</v>
+        <v>464.74</v>
       </c>
       <c r="L351" s="3">
-        <v>1016.33</v>
+        <v>1016.55</v>
       </c>
       <c r="M351" s="3">
         <v>14527</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D3991-1237-41CD-95BB-01C9164F5EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD266C60-08F4-4298-93C5-D5AAD2F761FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31040,7 +31040,7 @@
         <v>562.48760300000004</v>
       </c>
       <c r="L354" s="3">
-        <v>1247.3800000000001</v>
+        <v>1252.72</v>
       </c>
       <c r="M354" s="3">
         <v>17663</v>
@@ -31126,7 +31126,7 @@
         <v>603.33331899999996</v>
       </c>
       <c r="L355" s="3">
-        <v>1133.06</v>
+        <v>1135.42</v>
       </c>
       <c r="M355" s="3">
         <v>15180</v>
@@ -31209,10 +31209,10 @@
         <v>23503</v>
       </c>
       <c r="K356" s="3">
-        <v>527.153458</v>
+        <v>526.01</v>
       </c>
       <c r="L356" s="3">
-        <v>738.82</v>
+        <v>738.71</v>
       </c>
       <c r="M356" s="3">
         <v>14213</v>
@@ -31295,10 +31295,10 @@
         <v>24825</v>
       </c>
       <c r="K357" s="3">
-        <v>527.31722400000001</v>
+        <v>535.98</v>
       </c>
       <c r="L357" s="3">
-        <v>896.29</v>
+        <v>885.61</v>
       </c>
       <c r="M357" s="3">
         <v>15264</v>
@@ -31381,10 +31381,10 @@
         <v>26020</v>
       </c>
       <c r="K358" s="3">
-        <v>611.97950500000002</v>
+        <v>611.97</v>
       </c>
       <c r="L358" s="3">
-        <v>989.3</v>
+        <v>975.26</v>
       </c>
       <c r="M358" s="3">
         <v>17928</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD266C60-08F4-4298-93C5-D5AAD2F761FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A743EFB-46B9-42B1-9B0E-A17F2F699A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -278,9 +278,6 @@
     <t>2003-07:2024-09</t>
   </si>
   <si>
-    <t>2009-03:2024-09</t>
-  </si>
-  <si>
     <t>1997-01:2024-09</t>
   </si>
   <si>
@@ -290,16 +287,7 @@
     <t>1995-01:2024-10</t>
   </si>
   <si>
-    <t>2015-04:2024-09</t>
-  </si>
-  <si>
-    <t>2008-09:2024-09</t>
-  </si>
-  <si>
     <t>2003-07:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
   </si>
   <si>
     <t>1989-02:2024-10</t>
@@ -342,6 +330,15 @@
   </si>
   <si>
     <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2015-04:2024-10</t>
+  </si>
+  <si>
+    <t>2008-09:2024-10</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
   </si>
 </sst>
 </file>
@@ -1254,85 +1251,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1426,85 +1423,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="W10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38430,7 +38427,7 @@
         <v>3747.276429</v>
       </c>
       <c r="J440" s="3">
-        <v>0</v>
+        <v>33594</v>
       </c>
       <c r="K440" s="3">
         <v>995.69</v>
@@ -38439,28 +38436,28 @@
         <v>1864.23</v>
       </c>
       <c r="M440" s="3">
-        <v>0</v>
+        <v>20423</v>
       </c>
       <c r="N440" s="3">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="O440" s="3">
-        <v>0</v>
+        <v>2706</v>
       </c>
       <c r="P440" s="3">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="Q440" s="3">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="R440" s="3">
-        <v>0</v>
+        <v>3933</v>
       </c>
       <c r="S440" s="3">
-        <v>0</v>
+        <v>33502</v>
       </c>
       <c r="T440" s="3">
-        <v>0</v>
+        <v>4989.66</v>
       </c>
       <c r="U440" s="3">
         <v>150115.96653000001</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A743EFB-46B9-42B1-9B0E-A17F2F699A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5CAD91-4D74-4914-8105-46F051520F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -287,9 +287,6 @@
     <t>1995-01:2024-10</t>
   </si>
   <si>
-    <t>2003-07:2024-10</t>
-  </si>
-  <si>
     <t>1989-02:2024-10</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>2024-11-19</t>
   </si>
   <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
     <t>2024-11-25</t>
   </si>
   <si>
@@ -339,6 +333,15 @@
   </si>
   <si>
     <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>1995-01:2024-11</t>
+  </si>
+  <si>
+    <t>2003-07:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB440"/>
+  <dimension ref="A1:AB441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
       <selection activeCell="A434" sqref="A434"/>
@@ -1251,10 +1254,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>75</v>
@@ -1263,73 +1266,73 @@
         <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="Z8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1423,85 +1426,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="W10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38482,6 +38485,92 @@
       </c>
       <c r="AB440" s="3">
         <v>26998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:28">
+      <c r="A441" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B441" s="3">
+        <v>0</v>
+      </c>
+      <c r="C441" s="3">
+        <v>50558.7</v>
+      </c>
+      <c r="D441" s="3">
+        <v>0</v>
+      </c>
+      <c r="E441" s="3">
+        <v>0</v>
+      </c>
+      <c r="F441" s="3">
+        <v>0</v>
+      </c>
+      <c r="G441" s="3">
+        <v>0</v>
+      </c>
+      <c r="H441" s="3">
+        <v>0</v>
+      </c>
+      <c r="I441" s="3">
+        <v>0</v>
+      </c>
+      <c r="J441" s="3">
+        <v>0</v>
+      </c>
+      <c r="K441" s="3">
+        <v>0</v>
+      </c>
+      <c r="L441" s="3">
+        <v>0</v>
+      </c>
+      <c r="M441" s="3">
+        <v>0</v>
+      </c>
+      <c r="N441" s="3">
+        <v>0</v>
+      </c>
+      <c r="O441" s="3">
+        <v>0</v>
+      </c>
+      <c r="P441" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q441" s="3">
+        <v>0</v>
+      </c>
+      <c r="R441" s="3">
+        <v>0</v>
+      </c>
+      <c r="S441" s="3">
+        <v>0</v>
+      </c>
+      <c r="T441" s="3">
+        <v>0</v>
+      </c>
+      <c r="U441" s="3">
+        <v>0</v>
+      </c>
+      <c r="V441" s="3">
+        <v>0</v>
+      </c>
+      <c r="W441" s="3">
+        <v>4494</v>
+      </c>
+      <c r="X441" s="3">
+        <v>5439.2</v>
+      </c>
+      <c r="Y441" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z441" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA441" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB441" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5CAD91-4D74-4914-8105-46F051520F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099F2D8-B331-4FEA-A58C-F82940F8625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -287,9 +287,6 @@
     <t>1995-01:2024-10</t>
   </si>
   <si>
-    <t>1989-02:2024-10</t>
-  </si>
-  <si>
     <t>2002-01:2024-10</t>
   </si>
   <si>
@@ -302,25 +299,13 @@
     <t>2009-03:2024-10</t>
   </si>
   <si>
-    <t>1989-01:2024-10</t>
-  </si>
-  <si>
     <t>2003-05:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-19</t>
   </si>
   <si>
     <t>2024-11-25</t>
   </si>
   <si>
     <t>2024-11-23</t>
-  </si>
-  <si>
-    <t>2024-11-21</t>
-  </si>
-  <si>
-    <t>2024-11-15</t>
   </si>
   <si>
     <t>2024-11-22</t>
@@ -342,6 +327,15 @@
   </si>
   <si>
     <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>1989-02:2024-11</t>
+  </si>
+  <si>
+    <t>1989-01:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -764,24 +758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
       <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1254,10 +1248,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>75</v>
@@ -1266,73 +1260,73 @@
         <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="V8" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1426,85 +1420,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38492,7 +38486,7 @@
         <v>45626</v>
       </c>
       <c r="B441" s="3">
-        <v>0</v>
+        <v>19492</v>
       </c>
       <c r="C441" s="3">
         <v>50558.7</v>
@@ -38549,10 +38543,10 @@
         <v>0</v>
       </c>
       <c r="U441" s="3">
-        <v>0</v>
+        <v>167068</v>
       </c>
       <c r="V441" s="3">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="W441" s="3">
         <v>4494</v>
@@ -38564,10 +38558,10 @@
         <v>0</v>
       </c>
       <c r="Z441" s="3">
-        <v>0</v>
+        <v>2246</v>
       </c>
       <c r="AA441" s="3">
-        <v>0</v>
+        <v>649100000</v>
       </c>
       <c r="AB441" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099F2D8-B331-4FEA-A58C-F82940F8625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01A365-ED46-4540-82AB-1F57B424E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -275,15 +275,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2003-07:2024-09</t>
-  </si>
-  <si>
-    <t>1997-01:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-24</t>
-  </si>
-  <si>
     <t>1995-01:2024-10</t>
   </si>
   <si>
@@ -336,6 +327,15 @@
   </si>
   <si>
     <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>1997-01:2024-10</t>
+  </si>
+  <si>
+    <t>2003-07:2024-10</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
   </si>
 </sst>
 </file>
@@ -762,20 +762,20 @@
       <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1248,85 +1248,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="V8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1420,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Y10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38409,13 +38409,13 @@
         <v>3514.176277</v>
       </c>
       <c r="E440" s="3">
-        <v>0</v>
+        <v>12779.705078000001</v>
       </c>
       <c r="F440" s="3">
         <v>3297.6690840000001</v>
       </c>
       <c r="G440" s="3">
-        <v>0</v>
+        <v>16084.515702000001</v>
       </c>
       <c r="H440" s="3">
         <v>4359.8416269999998</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01A365-ED46-4540-82AB-1F57B424E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05DAAC-5D01-4629-A8D5-7CA957BDFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -290,16 +290,10 @@
     <t>2009-03:2024-10</t>
   </si>
   <si>
-    <t>2003-05:2024-10</t>
-  </si>
-  <si>
     <t>2024-11-25</t>
   </si>
   <si>
     <t>2024-11-23</t>
-  </si>
-  <si>
-    <t>2024-11-22</t>
   </si>
   <si>
     <t>2015-04:2024-10</t>
@@ -336,6 +330,15 @@
   </si>
   <si>
     <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>2003-05:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
   </si>
 </sst>
 </file>
@@ -1248,22 +1251,22 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>74</v>
@@ -1293,7 +1296,7 @@
         <v>76</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>76</v>
@@ -1302,31 +1305,31 @@
         <v>76</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1423,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="L10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38489,7 +38492,7 @@
         <v>19492</v>
       </c>
       <c r="C441" s="3">
-        <v>50558.7</v>
+        <v>50559</v>
       </c>
       <c r="D441" s="3">
         <v>0</v>
@@ -38552,7 +38555,7 @@
         <v>4494</v>
       </c>
       <c r="X441" s="3">
-        <v>5439.2</v>
+        <v>5439</v>
       </c>
       <c r="Y441" s="3">
         <v>0</v>
@@ -38564,7 +38567,7 @@
         <v>649100000</v>
       </c>
       <c r="AB441" s="3">
-        <v>0</v>
+        <v>31157</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05DAAC-5D01-4629-A8D5-7CA957BDFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B2BFAD-D9FF-4421-B651-72A8D2E9B9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -275,36 +275,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-10</t>
-  </si>
-  <si>
-    <t>2002-01:2024-10</t>
-  </si>
-  <si>
-    <t>2005-11:2024-10</t>
-  </si>
-  <si>
-    <t>2009-01:2024-10</t>
-  </si>
-  <si>
-    <t>2009-03:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>2024-11-23</t>
-  </si>
-  <si>
-    <t>2015-04:2024-10</t>
-  </si>
-  <si>
-    <t>2008-09:2024-10</t>
-  </si>
-  <si>
-    <t>2024-12-04</t>
-  </si>
-  <si>
     <t>1995-01:2024-11</t>
   </si>
   <si>
@@ -323,9 +293,6 @@
     <t>2024-12-16</t>
   </si>
   <si>
-    <t>1997-01:2024-10</t>
-  </si>
-  <si>
     <t>2003-07:2024-10</t>
   </si>
   <si>
@@ -339,6 +306,36 @@
   </si>
   <si>
     <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>1997-01:2024-11</t>
+  </si>
+  <si>
+    <t>2002-01:2024-11</t>
+  </si>
+  <si>
+    <t>2005-11:2024-11</t>
+  </si>
+  <si>
+    <t>2009-01:2024-11</t>
+  </si>
+  <si>
+    <t>2009-03:2024-11</t>
+  </si>
+  <si>
+    <t>2015-04:2024-11</t>
+  </si>
+  <si>
+    <t>2008-09:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
   </si>
 </sst>
 </file>
@@ -761,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="M442" sqref="M442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1251,85 +1248,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1423,85 +1420,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37656,10 +37653,10 @@
         <v>30923</v>
       </c>
       <c r="K431" s="3">
-        <v>998.74</v>
+        <v>998.33</v>
       </c>
       <c r="L431" s="3">
-        <v>1668.52</v>
+        <v>1668.93</v>
       </c>
       <c r="M431" s="3">
         <v>24473</v>
@@ -38000,10 +37997,10 @@
         <v>31731</v>
       </c>
       <c r="K435" s="3">
-        <v>958.68</v>
+        <v>960.66</v>
       </c>
       <c r="L435" s="3">
-        <v>2025.16</v>
+        <v>2023.07</v>
       </c>
       <c r="M435" s="3">
         <v>19176</v>
@@ -38172,10 +38169,10 @@
         <v>31386</v>
       </c>
       <c r="K437" s="3">
-        <v>1083.79</v>
+        <v>1085.6600000000001</v>
       </c>
       <c r="L437" s="3">
-        <v>1979.84</v>
+        <v>1977.93</v>
       </c>
       <c r="M437" s="3">
         <v>24167</v>
@@ -38261,7 +38258,7 @@
         <v>1069.22</v>
       </c>
       <c r="L438" s="3">
-        <v>2040.58</v>
+        <v>2040.56</v>
       </c>
       <c r="M438" s="3">
         <v>25482</v>
@@ -38430,10 +38427,10 @@
         <v>33594</v>
       </c>
       <c r="K440" s="3">
-        <v>995.69</v>
+        <v>995.67</v>
       </c>
       <c r="L440" s="3">
-        <v>1864.23</v>
+        <v>1857.41</v>
       </c>
       <c r="M440" s="3">
         <v>20423</v>
@@ -38495,55 +38492,55 @@
         <v>50559</v>
       </c>
       <c r="D441" s="3">
-        <v>0</v>
+        <v>3862.0852150000001</v>
       </c>
       <c r="E441" s="3">
-        <v>0</v>
+        <v>13862.205078000001</v>
       </c>
       <c r="F441" s="3">
-        <v>0</v>
+        <v>3581.6819190000001</v>
       </c>
       <c r="G441" s="3">
         <v>0</v>
       </c>
       <c r="H441" s="3">
-        <v>0</v>
+        <v>4781.0387019999998</v>
       </c>
       <c r="I441" s="3">
-        <v>0</v>
+        <v>4109.205962</v>
       </c>
       <c r="J441" s="3">
-        <v>0</v>
+        <v>34333</v>
       </c>
       <c r="K441" s="3">
-        <v>0</v>
+        <v>1229.51</v>
       </c>
       <c r="L441" s="3">
-        <v>0</v>
+        <v>2250.5700000000002</v>
       </c>
       <c r="M441" s="3">
-        <v>0</v>
+        <v>22375</v>
       </c>
       <c r="N441" s="3">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="O441" s="3">
-        <v>0</v>
+        <v>2516</v>
       </c>
       <c r="P441" s="3">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="Q441" s="3">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="R441" s="3">
-        <v>0</v>
+        <v>4590</v>
       </c>
       <c r="S441" s="3">
-        <v>0</v>
+        <v>37515</v>
       </c>
       <c r="T441" s="3">
-        <v>0</v>
+        <v>4972.32</v>
       </c>
       <c r="U441" s="3">
         <v>167068</v>
@@ -38558,7 +38555,7 @@
         <v>5439</v>
       </c>
       <c r="Y441" s="3">
-        <v>0</v>
+        <v>1671.861652</v>
       </c>
       <c r="Z441" s="3">
         <v>2246</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B2BFAD-D9FF-4421-B651-72A8D2E9B9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93702B14-BDAB-4710-AA9A-A15578D933D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -278,21 +278,6 @@
     <t>1995-01:2024-11</t>
   </si>
   <si>
-    <t>2003-07:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>1989-02:2024-11</t>
-  </si>
-  <si>
-    <t>1989-01:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
     <t>2003-07:2024-10</t>
   </si>
   <si>
@@ -300,9 +285,6 @@
   </si>
   <si>
     <t>2003-05:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
   </si>
   <si>
     <t>2024-12-20</t>
@@ -336,6 +318,24 @@
   </si>
   <si>
     <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>1989-02:2024-12</t>
+  </si>
+  <si>
+    <t>1995-01:2024-12</t>
+  </si>
+  <si>
+    <t>2003-07:2024-12</t>
+  </si>
+  <si>
+    <t>1989-01:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
   </si>
 </sst>
 </file>
@@ -756,26 +756,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB441"/>
+  <dimension ref="A1:AB442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="M442" sqref="M442"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -1248,85 +1248,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="X8" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1420,85 +1420,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -37478,7 +37478,7 @@
         <v>4167.7298300000002</v>
       </c>
       <c r="J429" s="3">
-        <v>34092</v>
+        <v>34326</v>
       </c>
       <c r="K429" s="3">
         <v>991.97</v>
@@ -37487,22 +37487,22 @@
         <v>1944.5</v>
       </c>
       <c r="M429" s="3">
-        <v>21382</v>
+        <v>22369</v>
       </c>
       <c r="N429" s="3">
-        <v>1290</v>
+        <v>1374</v>
       </c>
       <c r="O429" s="3">
-        <v>2366</v>
+        <v>2572</v>
       </c>
       <c r="P429" s="3">
-        <v>2639</v>
+        <v>2563</v>
       </c>
       <c r="Q429" s="3">
-        <v>4202</v>
+        <v>4159</v>
       </c>
       <c r="R429" s="3">
-        <v>4044</v>
+        <v>4588</v>
       </c>
       <c r="S429" s="3">
         <v>35923</v>
@@ -38565,6 +38565,92 @@
       </c>
       <c r="AB441" s="3">
         <v>31157</v>
+      </c>
+    </row>
+    <row r="442" spans="1:28">
+      <c r="A442" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B442" s="3">
+        <v>21282</v>
+      </c>
+      <c r="C442" s="3">
+        <v>55341.499999999993</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0</v>
+      </c>
+      <c r="E442" s="3">
+        <v>0</v>
+      </c>
+      <c r="F442" s="3">
+        <v>0</v>
+      </c>
+      <c r="G442" s="3">
+        <v>0</v>
+      </c>
+      <c r="H442" s="3">
+        <v>0</v>
+      </c>
+      <c r="I442" s="3">
+        <v>0</v>
+      </c>
+      <c r="J442" s="3">
+        <v>0</v>
+      </c>
+      <c r="K442" s="3">
+        <v>0</v>
+      </c>
+      <c r="L442" s="3">
+        <v>0</v>
+      </c>
+      <c r="M442" s="3">
+        <v>0</v>
+      </c>
+      <c r="N442" s="3">
+        <v>0</v>
+      </c>
+      <c r="O442" s="3">
+        <v>0</v>
+      </c>
+      <c r="P442" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q442" s="3">
+        <v>0</v>
+      </c>
+      <c r="R442" s="3">
+        <v>0</v>
+      </c>
+      <c r="S442" s="3">
+        <v>0</v>
+      </c>
+      <c r="T442" s="3">
+        <v>0</v>
+      </c>
+      <c r="U442" s="3">
+        <v>182524</v>
+      </c>
+      <c r="V442" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="W442" s="3">
+        <v>4823.3</v>
+      </c>
+      <c r="X442" s="3">
+        <v>5813.7</v>
+      </c>
+      <c r="Y442" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z442" s="3">
+        <v>2464</v>
+      </c>
+      <c r="AA442" s="3">
+        <v>708430000</v>
+      </c>
+      <c r="AB442" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93702B14-BDAB-4710-AA9A-A15578D933D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FCBFF-8F97-4A19-9D31-A91FB815FA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <t>2025-01-17</t>
   </si>
   <si>
-    <t>2025-01-13</t>
+    <t>2025-01-18</t>
   </si>
 </sst>
 </file>
@@ -762,20 +762,20 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -38486,7 +38486,7 @@
         <v>45626</v>
       </c>
       <c r="B441" s="3">
-        <v>19492</v>
+        <v>19491.7</v>
       </c>
       <c r="C441" s="3">
         <v>50559</v>
@@ -38543,7 +38543,7 @@
         <v>4972.32</v>
       </c>
       <c r="U441" s="3">
-        <v>167068</v>
+        <v>167067.54686</v>
       </c>
       <c r="V441" s="3">
         <v>-10.1</v>
@@ -38558,10 +38558,10 @@
         <v>1671.861652</v>
       </c>
       <c r="Z441" s="3">
-        <v>2246</v>
+        <v>2245.6</v>
       </c>
       <c r="AA441" s="3">
-        <v>649100000</v>
+        <v>649098000</v>
       </c>
       <c r="AB441" s="3">
         <v>31157</v>
@@ -38575,7 +38575,7 @@
         <v>21282</v>
       </c>
       <c r="C442" s="3">
-        <v>55341.499999999993</v>
+        <v>55342</v>
       </c>
       <c r="D442" s="3">
         <v>0</v>
@@ -38635,10 +38635,10 @@
         <v>-9.5</v>
       </c>
       <c r="W442" s="3">
-        <v>4823.3</v>
+        <v>4823</v>
       </c>
       <c r="X442" s="3">
-        <v>5813.7</v>
+        <v>5814</v>
       </c>
       <c r="Y442" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FCBFF-8F97-4A19-9D31-A91FB815FA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7BC0BC-FFBE-4B25-AF83-EF8A58715537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1423,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>92</v>
@@ -1477,7 +1480,7 @@
         <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>91</v>
@@ -1492,10 +1495,10 @@
         <v>84</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>76</v>
@@ -38572,7 +38575,7 @@
         <v>45657</v>
       </c>
       <c r="B442" s="3">
-        <v>21282</v>
+        <v>21282.3</v>
       </c>
       <c r="C442" s="3">
         <v>55342</v>
@@ -38629,7 +38632,7 @@
         <v>0</v>
       </c>
       <c r="U442" s="3">
-        <v>182524</v>
+        <v>182523.70134</v>
       </c>
       <c r="V442" s="3">
         <v>-9.5</v>
@@ -38644,10 +38647,10 @@
         <v>0</v>
       </c>
       <c r="Z442" s="3">
-        <v>2464</v>
+        <v>2463.6999999999998</v>
       </c>
       <c r="AA442" s="3">
-        <v>708430000</v>
+        <v>708434000</v>
       </c>
       <c r="AB442" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7BC0BC-FFBE-4B25-AF83-EF8A58715537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73338E5B-58B9-4E10-AA88-0AA368FBE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -317,9 +317,6 @@
     <t>2025-01-03</t>
   </si>
   <si>
-    <t>2024-12-24</t>
-  </si>
-  <si>
     <t>1989-02:2024-12</t>
   </si>
   <si>
@@ -339,6 +336,12 @@
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2009-03:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1254,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>72</v>
@@ -1278,10 +1281,10 @@
         <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>81</v>
@@ -1308,25 +1311,25 @@
         <v>83</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>75</v>
@@ -1423,10 +1426,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>84</v>
@@ -1450,10 +1453,10 @@
         <v>85</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>85</v>
@@ -1480,25 +1483,25 @@
         <v>85</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="X10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>84</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>76</v>
@@ -37914,10 +37917,10 @@
         <v>30897</v>
       </c>
       <c r="K434" s="3">
-        <v>1078.78</v>
+        <v>1072.18</v>
       </c>
       <c r="L434" s="3">
-        <v>1999.25</v>
+        <v>2005.85</v>
       </c>
       <c r="M434" s="3">
         <v>19112</v>
@@ -38347,7 +38350,7 @@
         <v>1036.27</v>
       </c>
       <c r="L439" s="3">
-        <v>2001.7</v>
+        <v>2001.77</v>
       </c>
       <c r="M439" s="3">
         <v>23244</v>
@@ -38602,10 +38605,10 @@
         <v>0</v>
       </c>
       <c r="K442" s="3">
-        <v>0</v>
+        <v>1070.99</v>
       </c>
       <c r="L442" s="3">
-        <v>0</v>
+        <v>2128.5</v>
       </c>
       <c r="M442" s="3">
         <v>0</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73338E5B-58B9-4E10-AA88-0AA368FBE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE402B86-E313-4379-B854-F43636C22029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -275,31 +275,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-11</t>
-  </si>
-  <si>
-    <t>2003-07:2024-10</t>
-  </si>
-  <si>
-    <t>2024-12-17</t>
-  </si>
-  <si>
     <t>2003-05:2024-11</t>
   </si>
   <si>
     <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>1997-01:2024-11</t>
-  </si>
-  <si>
-    <t>2002-01:2024-11</t>
-  </si>
-  <si>
-    <t>2005-11:2024-11</t>
-  </si>
-  <si>
-    <t>2009-01:2024-11</t>
   </si>
   <si>
     <t>2009-03:2024-11</t>
@@ -309,9 +288,6 @@
   </si>
   <si>
     <t>2008-09:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
   </si>
   <si>
     <t>2025-01-03</t>
@@ -342,6 +318,21 @@
   </si>
   <si>
     <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>1997-01:2024-12</t>
+  </si>
+  <si>
+    <t>2002-01:2024-12</t>
+  </si>
+  <si>
+    <t>2005-11:2024-12</t>
+  </si>
+  <si>
+    <t>2009-01:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -1254,85 +1245,85 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1426,85 +1417,85 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AB10" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -38175,10 +38166,10 @@
         <v>31386</v>
       </c>
       <c r="K437" s="3">
-        <v>1085.6600000000001</v>
+        <v>1083.79</v>
       </c>
       <c r="L437" s="3">
-        <v>1977.93</v>
+        <v>1979.8</v>
       </c>
       <c r="M437" s="3">
         <v>24167</v>
@@ -38264,7 +38255,7 @@
         <v>1069.22</v>
       </c>
       <c r="L438" s="3">
-        <v>2040.56</v>
+        <v>2040.57</v>
       </c>
       <c r="M438" s="3">
         <v>25482</v>
@@ -38584,22 +38575,22 @@
         <v>55342</v>
       </c>
       <c r="D442" s="3">
-        <v>0</v>
+        <v>4234.6490629999998</v>
       </c>
       <c r="E442" s="3">
-        <v>0</v>
+        <v>15037.20594</v>
       </c>
       <c r="F442" s="3">
-        <v>0</v>
+        <v>3847.9844410000001</v>
       </c>
       <c r="G442" s="3">
-        <v>0</v>
+        <v>19552.194619999998</v>
       </c>
       <c r="H442" s="3">
-        <v>0</v>
+        <v>5199.4216669999996</v>
       </c>
       <c r="I442" s="3">
-        <v>0</v>
+        <v>4471.0773639999998</v>
       </c>
       <c r="J442" s="3">
         <v>0</v>
@@ -38647,7 +38638,7 @@
         <v>5814</v>
       </c>
       <c r="Y442" s="3">
-        <v>0</v>
+        <v>1831.089579</v>
       </c>
       <c r="Z442" s="3">
         <v>2463.6999999999998</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE402B86-E313-4379-B854-F43636C22029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D831EF-034C-45DE-BDF0-871B62669A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37561,7 +37561,7 @@
         <v>4602.3960939999997</v>
       </c>
       <c r="J430" s="3">
-        <v>35118</v>
+        <v>34833</v>
       </c>
       <c r="K430" s="3">
         <v>1146.42</v>
@@ -37570,28 +37570,28 @@
         <v>2020.39</v>
       </c>
       <c r="M430" s="3">
-        <v>25731</v>
+        <v>25734</v>
       </c>
       <c r="N430" s="3">
-        <v>1232</v>
+        <v>1400</v>
       </c>
       <c r="O430" s="3">
-        <v>2386</v>
+        <v>2598</v>
       </c>
       <c r="P430" s="3">
-        <v>2264</v>
+        <v>2337</v>
       </c>
       <c r="Q430" s="3">
-        <v>4380</v>
+        <v>4600</v>
       </c>
       <c r="R430" s="3">
-        <v>4044</v>
+        <v>5093</v>
       </c>
       <c r="S430" s="3">
         <v>40037</v>
       </c>
       <c r="T430" s="3">
-        <v>5091</v>
+        <v>5129.2299999999996</v>
       </c>
       <c r="U430" s="3">
         <v>202292.98824000001</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D831EF-034C-45DE-BDF0-871B62669A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC7AB4-27C3-4DA5-9453-BE70EB3E1779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -281,18 +281,6 @@
     <t>2024-12-20</t>
   </si>
   <si>
-    <t>2009-03:2024-11</t>
-  </si>
-  <si>
-    <t>2015-04:2024-11</t>
-  </si>
-  <si>
-    <t>2008-09:2024-11</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
     <t>1989-02:2024-12</t>
   </si>
   <si>
@@ -333,6 +321,15 @@
   </si>
   <si>
     <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2015-04:2024-12</t>
+  </si>
+  <si>
+    <t>2008-09:2024-12</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
   </si>
 </sst>
 </file>
@@ -1245,82 +1242,82 @@
         <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="R8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="W8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="Z8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>72</v>
@@ -1417,82 +1414,82 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>73</v>
@@ -37561,7 +37558,7 @@
         <v>4602.3960939999997</v>
       </c>
       <c r="J430" s="3">
-        <v>34833</v>
+        <v>35125</v>
       </c>
       <c r="K430" s="3">
         <v>1146.42</v>
@@ -37570,28 +37567,28 @@
         <v>2020.39</v>
       </c>
       <c r="M430" s="3">
-        <v>25734</v>
+        <v>25737</v>
       </c>
       <c r="N430" s="3">
-        <v>1400</v>
+        <v>1225</v>
       </c>
       <c r="O430" s="3">
-        <v>2598</v>
+        <v>2381</v>
       </c>
       <c r="P430" s="3">
-        <v>2337</v>
+        <v>2262</v>
       </c>
       <c r="Q430" s="3">
-        <v>4600</v>
+        <v>4382</v>
       </c>
       <c r="R430" s="3">
-        <v>5093</v>
+        <v>4045</v>
       </c>
       <c r="S430" s="3">
-        <v>40037</v>
+        <v>40032</v>
       </c>
       <c r="T430" s="3">
-        <v>5129.2299999999996</v>
+        <v>5092</v>
       </c>
       <c r="U430" s="3">
         <v>202292.98824000001</v>
@@ -38593,7 +38590,7 @@
         <v>4471.0773639999998</v>
       </c>
       <c r="J442" s="3">
-        <v>0</v>
+        <v>34833</v>
       </c>
       <c r="K442" s="3">
         <v>1070.99</v>
@@ -38602,28 +38599,28 @@
         <v>2128.5</v>
       </c>
       <c r="M442" s="3">
-        <v>0</v>
+        <v>25734</v>
       </c>
       <c r="N442" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="O442" s="3">
-        <v>0</v>
+        <v>2598</v>
       </c>
       <c r="P442" s="3">
-        <v>0</v>
+        <v>2337</v>
       </c>
       <c r="Q442" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="R442" s="3">
-        <v>0</v>
+        <v>5093</v>
       </c>
       <c r="S442" s="3">
-        <v>0</v>
+        <v>41762</v>
       </c>
       <c r="T442" s="3">
-        <v>0</v>
+        <v>5129.2299999999996</v>
       </c>
       <c r="U442" s="3">
         <v>182523.70134</v>

--- a/inst/extdata/apparent consumption of fossils.xlsx
+++ b/inst/extdata/apparent consumption of fossils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC7AB4-27C3-4DA5-9453-BE70EB3E1779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA691B-1003-4439-9AC5-395FF0F9D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -296,9 +296,6 @@
     <t>2025-01-17</t>
   </si>
   <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
     <t>2025-01-21</t>
   </si>
   <si>
@@ -330,6 +327,15 @@
   </si>
   <si>
     <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>1995-01:2025-02</t>
+  </si>
+  <si>
+    <t>2003-07:2025-02</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB442"/>
+  <dimension ref="A1:AB443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -1245,58 +1251,58 @@
         <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>74</v>
@@ -1305,10 +1311,10 @@
         <v>74</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>75</v>
@@ -1414,82 +1420,82 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>78</v>
       </c>
       <c r="W10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>73</v>
@@ -38644,6 +38650,92 @@
         <v>708434000</v>
       </c>
       <c r="AB442" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:28">
+      <c r="A443" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B443" s="3">
+        <v>0</v>
+      </c>
+      <c r="C443" s="3">
+        <v>8385.4</v>
+      </c>
+      <c r="D443" s="3">
+        <v>0</v>
+      </c>
+      <c r="E443" s="3">
+        <v>0</v>
+      </c>
+      <c r="F443" s="3">
+        <v>0</v>
+      </c>
+      <c r="G443" s="3">
+        <v>0</v>
+      </c>
+      <c r="H443" s="3">
+        <v>0</v>
+      </c>
+      <c r="I443" s="3">
+        <v>0</v>
+      </c>
+      <c r="J443" s="3">
+        <v>0</v>
+      </c>
+      <c r="K443" s="3">
+        <v>0</v>
+      </c>
+      <c r="L443" s="3">
+        <v>0</v>
+      </c>
+      <c r="M443" s="3">
+        <v>0</v>
+      </c>
+      <c r="N443" s="3">
+        <v>0</v>
+      </c>
+      <c r="O443" s="3">
+        <v>0</v>
+      </c>
+      <c r="P443" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q443" s="3">
+        <v>0</v>
+      </c>
+      <c r="R443" s="3">
+        <v>0</v>
+      </c>
+      <c r="S443" s="3">
+        <v>0</v>
+      </c>
+      <c r="T443" s="3">
+        <v>0</v>
+      </c>
+      <c r="U443" s="3">
+        <v>0</v>
+      </c>
+      <c r="V443" s="3">
+        <v>0</v>
+      </c>
+      <c r="W443" s="3">
+        <v>634.30000000000007</v>
+      </c>
+      <c r="X443" s="3">
+        <v>721</v>
+      </c>
+      <c r="Y443" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z443" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA443" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB443" s="3">
         <v>0</v>
       </c>
     </row>
